--- a/DF_Descricao.xlsx
+++ b/DF_Descricao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="966">
   <si>
     <t>Descricao</t>
   </si>
@@ -547,9 +547,6 @@
     <t>CPRE3</t>
   </si>
   <si>
-    <t>CRDE3</t>
-  </si>
-  <si>
     <t>CREM3</t>
   </si>
   <si>
@@ -832,6 +829,9 @@
     <t>FIBR3</t>
   </si>
   <si>
+    <t>FIEI3</t>
+  </si>
+  <si>
     <t>FIGE3</t>
   </si>
   <si>
@@ -1882,28 +1882,28 @@
     <t>ZAMP3</t>
   </si>
   <si>
-    <t>Centro de Imagem Diagnosticos SA, also known as Alliar, is a Brazil-based company engaged in the provision of healthcare services. The Company focuses on managing medical and diagnostic laboratories. The Company offers medical and diagnostic imaging services, such as biopsy, bone densitometry, laboratory tests, digital mammography, Doppler echocardiography, positron emission tomography (PET) scan for oncology, X-radiation (X-rays), magnetic resonance imaging (MRI), computer tomography (CT), prenatal tests and ultrasounds. The Company operates a number of units in the states of Parana, Para, Minas Gerais, Bahia, Espirito Santo, Rio de Janeiro, Rio Grande do Norte and Sao Paulo, among others, Brazil.</t>
+    <t>Nenhuma informação da empresa disponível</t>
   </si>
   <si>
     <t>Banco ABC Brasil SA is a Brazil-based institution (the Bank) engaged in the banking sector. Its commercial activities focuses on managing loans and other credit operations, deposit services and checking accounts to large and medium-sized corporate and institutional customers. In addition, the Bank is responsible for promoting capital market operations and other banking services. The Bank's financial products and services portfolio includes foreign and local currency loans, various types of guarantees, international trade financing, derivative operations, investments financing, as well as mergers and acquisitions (M&amp;A) advisory, among others. The Bank operates through a network of branches in Brazil and abroad through an overseas branch located in Cayman Islands. Its subsidiaries include ABC Brasil Administracao e Participacoes Ltda and ABC Brasil Distribuidora de Titulos e Valores Mobiliarios SA. The Bank is indirectly controlled by Arab Banking Corporation BSC.</t>
   </si>
   <si>
-    <t>Ambev SA, formerly Inbev Participacoes Societarias SA, is a Brazil-based company engaged in the brewing sector. The Company produces, distributes and sells beer, carbonated soft drinks (CSDs) and other non-alcoholic and non-carbonated (NANC) beverages across the Americas. The Company's activities are divided into three segments: Latin America North, including sell of beer, CSD and NANC drinks in Brazil, as well as operations in the Dominican Republic, Saint Vincent, Antigua, Dominica, Cuba, Guatemala, El Salvador, Honduras, Nicaragua, Barbados and Panama; Latin America South, distributing products in Argentina, Bolivia, Paraguay, Uruguay, Chile; and Canada, represented by Labatt’s operations, which comprises sales in Canada and some exports to the U.S. market. The Company markets products under various brand names, such as Adriatica, Brahma, Leffe, Budweiser, Corona, PepsiCo and Lipton. It is a subsidiary of Interbrew International BV.</t>
+    <t>Ambev S.A., through its subsidiaries, engages in the production, distribution, and sale of beer, draft beer, carbonated soft drinks, other non-alcoholic beverages, malt, and food products. It offers beer primarily under the Skol, Brahma, Antarctica, Brahva, Budweiser, Bud Light, Beck, Leffe and Hoegaarden, Bucanero, Cristal, Mayabe, Presidente, Presidente Light, Brahma Light, Bohemia, The One, Corona, Modelo Especial, Stella Artois, Quilmes Clásica, Paceña, Taquiña, Huari, Becker, Cusqueña, Michelob Ultra, Busch, Pilsen, Ouro Fino, Banks, Deputy, Patricia, Labatt Blue, Alexander Keith’s, and Kokanee brands. The company also provides carbonated soft drinks, bottled water, isotonic beverages, energy drinks, coconut water, powdered and natural juices, and ready-to-drink teas under the Guaraná Antarctica, Gatorade, H2OH!, Lipton Iced Tea, Fusion, Do Bem, Pepsi-Cola, Canada Dry, Squirt, Red Rock, Red Bull, Seven Up, Nutrl, Bud Light Seltzer, Palm Bay, and Mike’s brands. It offers its products through a network of third-party distributors and a direct distribution system. The company was founded in 1885 and is headquartered in São Paulo, Brazil. Ambev S.A. operates as a subsidiary of Interbrew International B.V.</t>
   </si>
   <si>
     <t>Advanced Digital Health Medicina Preventiva S.A. develops a digital platform that combines genetic mapping with lifestyle and environmental data for identifying possible future health issues. The company’s digital platform allows client to complete a survey with his/her individual information, such as personal data, health history, and lifestyle patterns for the diagnosis regarding individuals’ health. Its digital platform enables doctors and health professionals to elaborate an action plan regarding prevention and treatment of diseases. The company was formerly known as Vitalyze.Me Saúde e Tecnologia S.A. and changed its name to Advanced Digital Health Medicina Preventiva S.A. in January 2017. Advanced Digital Health Medicina Preventiva S.A. was founded in 2008 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Aeris Industria e Comercio de Equipamentos para Geracao de Energia SA (Aeris) is a Brazil-based manufacturer of wind turbine blades. The Company is engaged in design, prototyping, production, installation, sale, assembly, transportation, construction and commercialization of blades for wind power generators, as well as related parts, components, systems and equipment. In addition, Aeris provides repair, inspection, general maintenance and technical assistance services connected with wind turbine rotor blades. The Company operates two production plants located in the state of Ceara. The Firm’s clients portfolio includes Vestas Wind Systems AS, Nordex Energy GmbH and WEG Equipamentos Eletricos S.A, among others.</t>
+    <t>Aeris Indústria e Comércio de Equipamentos para Geração de Energia S.A. engages in the manufacture of wind blades in Brazil. It also repairs, paintings, cleaning, preventive and corrective maintenance, and photographic inspection services for wind turbines, fiber components, and towers. The company was incorporated in 2010 and is headquartered in Caucaia, Brazil.</t>
   </si>
   <si>
     <t>AES Brasil Energia S.A., together with its subsidiaries, engages in the renewable energy generation business in Brazil. The company generates electricity through hydroelectric, wind, and solar sources. Its portfolio of assets has a total installed capacity of approximately 4.5 GW. The company was incorporated in 2020 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Afluente Transmissao de Energia Eletrica SA, formerly Imanisse Participacoes SA, is a Brazil-based company primarily engaged in the electric power industry. The Company is active in the study, planning, design, construction, operation, maintenance and exploration of electric power transmission infrastructure, which includes transmission lines, substations and control centers. It is also involved in the provision of services related to power transmission. The Company operates three substations, named Tomba, Brumado II and Itagiba; 230 kilovolt (kV) transmission lines of Funil-Itagiba, Itagiba-Brumado II, Camacari II-Polo-Ford and Tomba-Governador Mangabeira, and a 138 kV transmission line of Funil-Pocoes. As of December 31, 2011, Neoenergia SA held an 87.8% stake in the Company.</t>
-  </si>
-  <si>
-    <t>Brasilagro Companhia Brasileira de Propriedades Agricolas is a Brazil-based company focused on the acquisition, development and exploration of rural properties suitable for agricultural activities. The Company seeks to transform their acquired properties through investments in infrastructure and technologies which permit cultivation of high value-added crops, such as soybean, corn and sugarcane as well as cattle raising. Brasilagro’s activities are divided into six business segments: Real Estate, that presents the Profit and Loss (P&amp;L) from operations carried out in the Company’s subsidiaries; Grains, a producer and seller of soybean, corn and bean; Sugarcane, a seller of raw product; Cattle Raising, which produces and sales beef calves after weaning; Cotton, a producer and seller of cotton lint and seed as well as the Other segment. The Company has several subsidiaries including Imobiliaria Mogno Ltda, Agrifirma Delaware LLC and Agrifirma Bahia Agropecuaria Ltda.</t>
+    <t>Afluente Transmissão de Energia Elétrica S.A. operates transmission lines and sub-stations in Bahia, Brazil. It operates substations of Tomba, Funil, Brumado II, Itagibai, Ford, Palo, and camacari in the state of Bahia with an installed capacity of 600 MVA and transmission line of 489.1 kilometers. The company was incorporated in 2008 and is headquartered in Rio De Janeiro, Brazil. Afluente Transmissão de Energia Elétrica S.A. is a subsidiary of Neoenergia S.A.</t>
+  </si>
+  <si>
+    <t>BrasilAgro - Companhia Brasileira de Propriedades Agrícolas engages in the acquisition, development, exploration, and sale of rural properties suitable for agricultural activities in Brazil. The company operates through six segments: Real Estate, Grains, Sugarcane, Cattle Raising, Cotton, and Other. It is involved in the cultivation of soybean, corn, sorghum, sesame, and cotton, as well as sugarcane; and production and sale of beef calves after weaning. The company has 17 farms in 6 Brazilian states, 1 farm in Paraguay, and 2 farms in Bolivia with a total area of 215,255 hectares of own lands and 64,017 hectares of leased lands. It also imports and exports agricultural products and inputs; purchases, sells, and/or rents properties, land, buildings, and real estate in rural and/or urban areas; provides real estate brokerage services; and manages third-party assets. The company was incorporated in 2005 and is headquartered in Sao Paulo, Brazil.</t>
   </si>
   <si>
     <t>AgroGalaxy Participacoes SA is a Brazil-based retail platform for agricultural inputs and services aimed at Brazilian agribusiness, operating in the commercialization of agricultural inputs, production and processing of seeds, origination of grains (which involves the acquisition, processing, storage and the commercialization of grains), in addition to providing agricultural services, insurance, financial solutions and technology. With coverage in 12 Brazilian states, the Company has an integrated ecosystem, offering products and solutions for the needs of rural producers. The Company has 145 stores, including commercial points (which do not have stock), 28 silos, 3 soybean seed plants operated by the Company and 5 tooling plants, covering approximately 1,000 cities. The Company's target audience is small and medium-sized producers, with a cultivated area of up to ten thousand hectares.</t>
@@ -1912,46 +1912,43 @@
     <t>Sao Paulo Turismo SA is a Brazil-based company primarily engaged in the tourism industry. The Company is involved in the organization and operation of exhibitions, fairs, events, carnivals, conferences and parking spaces, as well as in the provision of other services for tourism and leisure. The Company manages Anhembi Park, Autodromo Jose Carlos Pace and Terminal Turistico de Compras 25 de Marco. The Anhembi Park is composed of the Pavilhao de Exposicoes, which has an infrastructure for expositions and trade fairs; Palacio das Convencoes, which serves as a conference center, and Polo Cultural e Esportivo Grande Otelo, where various events are organized. The Autodromo Jose Carlos Pace includes a racetrack, a kart racing track and open areas. The Terminal Turistico de Compras 25 de Marco is a bus terminal located in the city of Sao Paulo.</t>
   </si>
   <si>
-    <t>Nenhuma informação da empresa disponível</t>
-  </si>
-  <si>
-    <t>Allied Tecnologia SA is a Brazil-based company involved in the consumer electronics business. The Company operates through 3 sales channels: physical retail, digital retail, and distribution. The Company sells a portfolio of consumer electronics products, representing brands such as Apple, HP, Samsung, Motorola, Microsoft, LeNovo, among others, in more than 10 product categories. The Company also offers a variety of complementary bundled services, including mobile phone insurance, operator plans, handset trade-in and financial services. The Company's digitalization platform for retail, SAV, is present at several points of sale, including Magazine Luiza, Lojas Americanas, Eletrosom, Lojas Samsung, G. Barbosa, Carrefour, BIG, Motorola, Grupo Avenida and Oi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpargatas SA, formerly Sao Paulo Alpargatas SA, is a Brazil-based company engaged in the production of footwear, apparel and sporting goods. The Company manufactures and sells footwear and its components, clothing as well as textile products. The Company's brand names portfolio includes Havaianas, manufacturing flip-flops in numerous designs and colors; Osklen, a fashion brand offering male and female clothing, shoes and accessories, such as bags and sunglasses, and Dupe, sandals manufacturer that uses HXP Gel technology which provides more comfort and softness to the consumers’ feet. The Company is present throughout the world, including Colombia, Hong Kong, London, Lisbon and Sao Paulo. </t>
-  </si>
-  <si>
-    <t>Allpark Empreendimentos Participacoes e Servicos SA is a Brazil-based company primarily engaged in the parking lots operation. The Company focuses on managing a network of private parking lots, garages and land plots in airports, shopping centers, commercial offices, hospitals, hotels and entertainment areas, among others. In addition, the Company offers a number of additional services, such as engineering and architectural advisory for parking projects development, as well as administration of urban public parking space. It operates under the Estapar brand name.</t>
-  </si>
-  <si>
-    <t>Aliansce Sonae Shopping Centers S.A. engages in the planning, management, and leasing services to third-party shopping malls in Brazil. The company operates in rent, parking lots, and other segments. It also invests in directly or indirectly in commercial centers, shopping malls, similar ventures, and in other companies as a partner or stockholder, as well as rendering commercial advisory services, management of shopping malls, and condominiums in general. The company was formerly known as Aliansce Shopping Centers S.A. and changed its name to Aliansce Sonae Shopping Centers S.A. in August 2019. Aliansce Sonae Shopping Centers S.A. is headquartered in Rio de Janeiro, Brazil.</t>
-  </si>
-  <si>
-    <t>Alupar Investimento SA is a Brazil-based company primarily engaged in the electric utilities sector. The Company focuses on developing and investing in infrastructure projects involving the energy industry in Brazil and other Latin American countries. Its activities are divided into two business segments: Transmission and Generation. The Transmission division holds electric power transmission concessions in Brazil and Chile. The Generation division includes renewable electricity generation through hydroelectric power plants (HPPs), small hydroelectric plants (SHPs) and wind farms in Brazil, Colombia and Peru. The Company operates through numerous subsidiaries, such as Transminas Holding SA, Windepar Holding SA, Alupar Inversiones Peru SAC and Alupar Chile Inversiones SpA. The Company is controlled by Guarupart Participacoes Ltda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisa Lojas SA is a Brazil-based company primarily engaged in the operation of department store chain. Its department stores are specialized in women's clothing. The Company’s stores also offer men and children apparel, bed and bath products, and table linens, among others. The Company is also active in the import and sale of products through the Internet. Additionally, though its subsidiaries, it is involved in the credit card operations, finance, logistics and in the provision of personal loans to the Company’s customers. The Company operates through a numerous of subsidiaries, including Club Administradora de Cartoes de Credito Ltda, Studio Comercio Varejista do Vestuario Ltda, Due Mille Participacoes Ltda, MAX Participacoes Ltda, Siara Comercio Atacadista de Artigos do Vestuario Ltda and Albatroz Comercio Atacadista de Artigos do Vestuario Ltda, among others. On February 22, 2014, the Company closed three Marisa Lingerie stores of a total area of 522.6 square meters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambipar Participacoes e Empreendimentos SA is a Brazil-based company active in the environmental management sector. It operates through Ambipar Environment and Ambipar Response. Ambipar Environment is specialized in environmental solutions and workforce outsourcing. It offers a portfolio of tailormade solutions that range from generation, transportation, recovery and final disposal of waste. Ambipar Response specializes in crisis management and the support to emergencies that affect health, environment and assets. It has emergency support bases across the Americas, Europe and Africa that work 24 hours per day, uninterruptedly. Ambipar Response focuses on Prevention in order to establish protectives and response measures; Preparation, such as training of response involving chemical products (HAZMAT), firefighting, confined spaces or other types of emergencies, and Response specialized in emergency services, with quick response time. </t>
-  </si>
-  <si>
-    <t>Americanas SA, formerly known as B2W - Companhia Global do Varejo SA, is a Brazil-based company engaged in the retail sector. The Firm operates through several sales channels: e-commerce, marketplace, catalogs, kiosks and physical stores. The Company offers products from different categories, including food, toys, tools, books, telephones and hardware. The Company provides also additional services, including consumer loans, payment solutions, loyalty program, ticketing, photo processing, as well as technology, logistics and distribution services. It operates through a number of brands, such as Americanas, Shoptime, Submarino, Ingresso.com, Ame and LET’s, among others. The Company is present in all Brazilian states.</t>
-  </si>
-  <si>
-    <t>Anima Holding SA, formerly GAEC Educacao SA, is a Brazil-based company principally engaged in the educational sector. The Company's activities are divided into two segments: Higher education and Vertical management. The Higher education division focuses on developing formal and distance education services by offering college degrees and professional specialization courses, including undergraduate, graduate, masters, doctorate and extension degrees. The Vertical management division offers congresses, forums, seminars, specialization and in-company courses to professionals, as well as publishes books and magazines related to management and business. Its educational institutions are located in the states of Minas Gerais and Sao Paulo, Brazil. The Company operates through a number of subsidiaries, such as Minas Gerais Educacao SA, Instituto Mineiro de Educacao e Cultura Uni-BH SA, Posse Gestao Patrimonial SA and HSM do Brasil SA.</t>
+    <t>Allied Tecnologia S.A., a technology company, operates in the consumer electronics market in Brazil. It engages in the retail sale of digital products through its stores, as well as online. The company is also involved in the distribution of products in various categories, including mobile, computers, video games, and white-good appliances. In addition, it provides cellular insurance, carrier plan, handset trade-in, and financial services. The company was founded in 2001 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Alpargatas S.A. manufactures and sells footwear and accessories in Brazil and internationally. The company offers its products under the Havaianas, ioasys, and Rothys brands. The company was formerly known as São Paulo Alpargatas S.A. and changed its name to Alpargatas S.A. in 2010. The company was incorporated in 1907 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Allpark Empreendimentos, Participações e Serviços S.A. engages in the management, operation, and control of vehicle parking activities in Brazil. It operates through Leased and Managed Locations, Owned Locations, Concessions - On and Off-Street, Long-term Contracts, and Others segments. The company manages parking lots in various places, including hospitals, commercial buildings, shopping centers, airports, educational institutions, banks, and land. It also manages rotating parking lots; and invests in parking meters, applications, infrastructures, and signaling and grants. The company was founded in 1981 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Aliansce Sonae Shopping Centers S.A. engages in the planning, management, and leasing services to third-party shopping malls in Brazil. It operates in Rent, Parking Lot, and Services segments. The company also invests in commercial centers, shopping malls, similar ventures, and in other companies as a partner or stockholder. In addition, it engages in rendering commercial advisory services, management of shopping malls, and condominiums in general. The company was formerly known as Aliansce Shopping Centers S.A. and changed its name to Aliansce Sonae Shopping Centers S.A. in August 2019. Aliansce Sonae Shopping Centers S.A. is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Alupar Investimento S.A., through its subsidiaries, engages in the generation, transformation, transportation, distribution, and trading of electricity primarily in Brazil, Colombia, and Peru. The company operates through Transmission and Generation segments. It operates 4 small hydropower,4 hydroelectric, and 1 wind power plants with a total installed capacity of 673.8 MW. The company also holds the concession of 30 transmission assets totaling 7,929 km of transmission lines. The company was formerly known as Alusa Participações and changed its name to Alupar Investimento S.A. in July 2007. The company was founded in 2006 and is headquartered in São Paulo, Brazil. Alupar Investimento S.A. is a subsidiary of Guarupart Participações Ltda.</t>
+  </si>
+  <si>
+    <t>Marisa Lojas S.A., together with its subsidiaries, engages in the retail of consumer goods in Brazil. The company sells clothing items for men, women, and children, as well as perfumery, cosmetics, and watches through physical stores and e-commerce. It also offers the Marisa credit card and Marisa-Itaucard Co-Branded credit card that provides credit for purchase of products, insurance, and payment of bills to its customers; and personal loans. The company also engages in the management of non-financial intangible assets, including brand management; purchase, sale, use, and licensing of trademarks and patents; receipt of royalties; and authorization for reproduction and use of trademarks and patents in processes and products. Marisa Lojas S.A. was founded in 1948 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Ambipar Participações e Empreendimentos S.A. provides services and products related to environment management in Brazil. The company operates through Environment, Response, and Outros segments. It is also involved in development of derivative products. In addition, the company offers digital wallet management and asset tokenization solutions. Further, the company is engaged in development of blockchain technology; and crisis management and response to environmental, chemical, and biological emergencies. Additionally, the company is involved in collection and transportation of waste, waste treatment, waste recovery, coprocessing, and environmental engineering business. Ambipar Participações e Empreendimentos S.A. was founded 2010 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Americanas S.A. operates in the e-commerce business in Brazil. It offers e-commerce digital platform for various digital solutions. The company also operates Americanas.com, an online store with various products in approximately 40 categories; Submarino, a digital brand in books, games, technology, and entertainment; Shoptime, a home shopping channel that offers bed, table, bath, small appliances, housewares, and sports and leisure products; Sou Barato, an outlet that provides repackaged and used products; Americanas Empresas, a B2B sales e-commerce business; Lojas Americanas; Americanas Express format; convenience stores; Ame Go, which allows customers to purchase products without a queue and without a checkout; and Americanas digital, a digital store that offers consumer electronics. In addition, it operates Ame, fintech, and mobile business platform; LET’S, a shared management platform for the logistics and distribution assets; and +AQUI, a platform for the management and promotion of Americanas services offering customers solutions in the credit, insurance, content cards, services, and assisted sales verticals. The company was founded in 1999 and is based in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Ânima Holding S.A. operates as a education organization in Brazil. The company was was founded in 2003 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Alper Consultoria e Corretora de Seguros SA, formerly known as BR Insurance Corretora de Seguros SA, is a Brazil-based company principally engaged in the insurance brokerage industry. The Company consolidates brokerage companies, which provide various types of insurance, such as life, health, dental, automotive, fleet, civil liability, industrial, title, foreign trade, consumer and agribusiness policies, among others. The Firm offers its insurance products to individual customers and corporate clients. The Company has a number of subsidiaries, including 4K Representacao e Intermediacao de Negocios Ltda, Almac BI Corretora de Seguros Ltda, Ancora Investe Corretora de Seguros Ltda and Economize no Seguro Administradora e Corretora de Seguros Ltda, among others.</t>
   </si>
   <si>
-    <t>Armac Locacao Logistica e Servicos SA is a Brazil-based multi-category equipment leasing platform. The Company offers yellow line equipment, which includes wheel loaders, hydraulic excavators, backhoe loaders, crawler tractors, mini loaders, motor graders, road rollers, agricultural tractors, lifting platforms, forklifts and trucks, among others. The Company serves a customer base distributed across 23 Brazilian states and the Federal District, in the agricultural logistics, agro-industrial, fertilizer, mining, pulp and paper, food &amp; beverage, transportation and infrastructure sectors. The Company's business model consists of converting the ownership of the equipment into a service provided to the customer, in contracts that include availability for 24-hour maintenance on the asset and flexibility to return or replace the equipment when the customer's project is completed.</t>
+    <t>Armac Locação, Logística e Serviços S.A. engages in renting heavy equipment in Brazil. It offers lift platforms, trucks, and earthmoving equipment comprising bulldozers, excavators, backhoe loaders, crawler tractors, compact track loaders, compact excavators, motor graders, road rollers, tractors, material handlers, and pavers. The company was founded in 1994 and is headquartered in Cotia, Brazil.</t>
   </si>
   <si>
     <t>Arezzo Indústria e Comércio S.A. designs, develops, manufactures, markets, and sells shoes, handbags, clothing, and accessories for women and men. The company offers its products through franchise stores, company-operated store, and an e-commerce channel under the Arezzo, Schutz, Anacapri, Alexandre Birman, Fiever, Alme, Vans, Reserva, Reserva Mini, Reserva Go, Oficina, Brizza, Troc, Baw, MyShoes, Carol Bassi, Reversa, Simples Reserva, and Unbrand Reserva brands. Arezzo Indústria e Comércio S.A. was founded in 1972 and is headquartered in Belo Horizonte, Brazil.</t>
   </si>
   <si>
-    <t>Sendas Distribuidora SA, also known as Assai Atacadista, is a Brazil-based company mainly engaged in the food distribution sector. The Firm's activities are divided into two operational segments: Cash &amp; Carry and Retail. Through the Cash &amp; Carry segment, the Company offers food, bazaar items and other products to wholesale customers, through self-service stores operated in Brazil under the Assai brand name. The Retail segments includes operations of hypermarkets, supermarkets and convenience shops under following brands: Exito, Carulla, Surtimaorista, Surtimax, Super Inter and Viva Malls in Colombia; Devoto, Disco and Geant in Uruguay; and Libertad, Mini Libertad and Paseo Libertad Malls in Argentina.</t>
+    <t>Sendas Distribuidora S.A. engages in the retail and wholesale sale of food products, bazaar items, and other products in Brazil. The company serves restaurants, pizzerias, snack bars, schools, small businesses, religious institutions, hospitals, hotels, grocery stores, neighborhood supermarkets, and individuals. It sells its products through brick-and-mortar stores, as well as through telesales. The company was founded in 1974 and is headquartered in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Atom Empreendimentos e Participacoes SA, formerly Atom Participacoes SA em Recuperacao Judicial, is a Brazil-based holding company primarily engaged in the telecommunications sector. The Company is involved in the investment in other companies active in the telecommunications industry. It is a subsidiary of WHPH Participacoes e Empreendimentos SA.</t>
@@ -1963,46 +1960,43 @@
     <t>Azevedo &amp; Travassos SA is a Brazil-based company primarily involved in the civil engineering sector. The Company structures its business into four areas: heavy and civil construction; electromechanical assembly; well drilling and completion, and real estate development. In the heavy and civil construction sector, the Company is involved in the construction of highways, railways, avenues, dams, airports, bridges, viaducts, subways, tunnels, industrial buildings and hospitals, among others. In the electromechanical assembly area, it is mainly active in the construction and assembling of gas, oil and slurry pipelines, as well as in the recovery and maintenance of facilities for oil and gas transportation. In the well drilling and completion segment, it mainly provides drilling, completion and workover of oil, gas, mining and water wells. In the real estate development area, the Company is engaged in the residential housing construction.</t>
   </si>
   <si>
-    <t>Azul SA is a Brazil-based company engaged in the provision of passenger transportation services. The Company primarily acts as an airline operator under the Azul brand name, providing scheduled flights between numerous cities in Brazil, including Sao Paulo, Brasilia, Rio de Janeiro, Belo Horizonte, Porto Alegre, Curitiba, Fortaleza and Salvador, among others. In addition, its air network comprises international routes to the Unites States, Europe and other Latin American countries. Through its travel package business, Azul Viagens, in addition to airfare, the Company offers accommodation, transfers, tours and vehicle rental. Its offer includes also Azul Cargo Express, a scheduled cargo transport service with airport-to-airport and door-to-door delivery. The Company owns several subsidiaries, such as Azul Linhas Aereas Brasileiras SA, which operates all of flight activities and TudoAzul SA, which manages loyalty program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3 SA Brasil Bolsa Balcao, formerly BM&amp;F Bovespa SA Bolsa de Valores Mercadorias e Futuros, is a Brazil-based financial market infrastructure provider. The Company's service offerings range from exchange trading, clearing and other post-trading services to registration of over-the-counter (OTC) transactions. The Company also provides a listing service and acts as central securities depository (CSD). It develops software solutions and offers index licensing services. Its business is divided into four segments: Bovespa, which covers trading, clearing and settlement of equities and equity derivatives; BM&amp;F, which covers trading, clearing and settlement of financial and commodities derivatives; Cetip Securities (Cetip UTVM), covering registration, clearing, settlement and custody systems for fixed-income securities and OTC derivatives, and Cetip Financing (Cetip UFIN), which provides an integrated private electronic system for registration of vehicle and real estate loans. </t>
+    <t>Azul S.A., together with its subsidiaries, provides scheduled air transportation services in Brazil. As of December 31, 2022, the company operated approximately 1,000 daily departures to 158 destinations through a network of 300 non-stop routes with an operating fleet of 177 aircraft and a passenger contractual fleet of 194 aircraft. It is also involved in the cargo transportation, loyalty programs, travel packages, funding, logistics solutions, and aircraft financing activities. The company was incorporated in 2008 and is headquartered in Barueri, Brazil.</t>
+  </si>
+  <si>
+    <t>B3 S.A. - Brasil, Bolsa, Balcão, a financial market infrastructure company, provides trading services in an exchange and OTC environment. It operates through Listed; OTC; Infrastructure for Financing; and Technology, Data and Service segments. The company offers listed equities and securities for anhydrous fuel ethanol, Arabica coffee 4/5 and 6/7, corn, crystal sugar, gold, hydrous ethanol, live cattle, and soybean commodities; ETF and sovereign debt instruments; and exchange rates, interest rates, and equities, as well as collateral management products. It also provides OTC derivatives; decarbonization credit, derivatives contracted abroad, and B3 electricity platform; OTC market products, as well as agribusiness, banking funding, bonds, mortgage, securities registration, treasury bond, and other financial securities; registration services for structured transaction certificates; and netting agreement and ESG, as well as clearing and settlement services. In addition, the company offers trading participant; central depository; broad, corporate governance, segment, sustainability, sector, and other indices, as well as indices in partnership with S&amp;P DowJones; and Tesouro Direto, an alternative investment product. Further, it provides market data services that include services related to quotes, distributors, historical data, and reports; UP2DATA, DATAWISE, and UP2DATA ON DEMAND data services; and financing market information services. Additionally, the company offers various platforms, such as PUMA trading system, trading interface, InsurConnect, Middle and backoffice, Risk Management – LINE, Real Estate Market Collateral, and Risk Management – Financing; connectivity; and hosting and colocation services. The company was formerly known as BM&amp;FBOVESPA S.A. - Bolsa de Valores, Mercadorias e Futuros and changed its name to B3 S.A. - Brasil, Bolsa, Balcão in June 2017. B3 S.A. - Brasil, Bolsa, Balcão was incorporated in 2007 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Bahema Educacao SA, formerly known as Bahema SA is a Brazil-based company, which specializes in education. It develops projects and activities in the areas of pre-school education, early childhood education, basic education (elementary to high school); projects and activities of free courses, including pre-university courses, as well as tutoring and teaching sports, dance and the arts and other activities related to sports and culture; provision of support services to educational institutions and educators, including administrative services, training, qualification, consulting, advisory, evaluation and other educational services; all other activities inherent to the provision of educational services and conducting research and preparing studies and investment projects in the area of education, among others. It is active locally. </t>
   </si>
   <si>
-    <t>Baumer SA is a Brazil-based company primarily engaged in the production of medical equipment. The Company is active in the manufacture, trade, import and export of medical equipment, as well as in the provision of technical assistance for medical apparatus. The Company divides its business into four units: Orthopedic, Hospital, Genius and Brown. In the Orthopedic unit, it is involved in the production and sale of orthopedic implants and instruments. In the Hospital unit, the Company manufactures equipment for hospitals and for pharmaceutical, chemical, cosmetic and food industries. In the Genius unit, it is involved in the area of biomaterials. In the Brown unit, the Company produces and sells laundry equipment for hospital, industrial and hotel uses. As of December 31, 2011, the Company's subsidiaries included Hospitalar Sul Ltda and Waldsea Investment SA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelsior Alimentos SA, formerly Baumhardt Irmaos SA, is a Brazil-based company engaged in the food processing sector. The Company is primarily involved in the production and sale of meat products. The Company's products include ham, salami, bologna, swine sausages, sausages and pates, among others. The Company also provides prepared meals, such as pizzas and lasagnas. The Company organizes its food products into two segments: Cooled Processed and Frozen Processed. The Company is active in Brazilian states of Rio Grande do Sul, Santa Catarina and Parana. On September 30, 2013, Marfrig Alimentos SA (Marfrig) completed transfer of 64.57% stake of Excelsior Alimentos SA to JBS SA. </t>
-  </si>
-  <si>
-    <t>Banco da Amazonia SA, formerly Banco de Credito da Amazonia SA, is a Brazil-based commercial bank. The Bank offers a range of financial products and services, including currency exchange, personal loans, financing products, credit cards, investment banking, portfolio management, saving accounts, life, health, property and casualty insurance policies, among others. In addition, the Bank's activities include the administration of the Constitutional Fund for Financing of the North Region (FNO), the Amazon Investment Fund (FINAM) and the Amazon Development Fund (FDA). As of December 31, 2011, the Bank operated through 117 agencies, 54 electronic customer service points, five banking customer support points and five advanced customer care points.</t>
+    <t>Baumer S.A. develops solutions for health industry in Brazil. It offers environment monitor, an electronic system that monitors particles suspended in air PM10 and PM2.5, which includes temperature, relative humidity, concentration of carbon dioxide and chemical pollutants, environmental noise intensity, lighting conditions, presence of people and animals, and relative pressure. The company also provides Purafog, a web and dry nebulization; PuraVac; mini purifies; and dental solutions, such as bone graft and membrane solutions. In addition, it offers equipment for disinfection, inspection and preparation, water treatment, sterilization, transfer, storage, transport, surgery center, and cleaning; and orthopedic solutions including conventional and unconventional prosthesis, trauma, and column and neurosurgery. Further, the company provides maintenance, sterilization, upgrade, location, training, and products services. Baumer S.A. was founded in 1952 and is headquartered in Pacaembu, Brazil.</t>
+  </si>
+  <si>
+    <t>Excelsior Alimentos S.A. produces and sells processed meat sausages in Brazil. The company offers protein-based sausages, frozen vegetables, ready-to-eat dishes, mortadella, ham, bologna, and pates. It sells its products through retail chains, distributors, resellers, and small commercial stores. The company was formerly known as Baumhardt Irmãos S.A. and changed its name to Excelsior Alimentos S.A. in 2003. Excelsior Alimentos S.A. was founded in 1891 and is based in Santa Cruz do Sul, Brazil.</t>
+  </si>
+  <si>
+    <t>Banco da Amazônia S.A. provides banking products and services in the Amazon region of Brazil. The company accepts savings, time, demand, and court deposits; and offers various loans. It also provides various credit cards; investment and insurance products; pension plans; agricultural and family farming, working capital, green energy financing, and foreign trade and exchange, collection, direct debit, payment, online, and other financial services. Banco da Amazônia S.A. was founded in 1942 and is headquartered in Belém, Brazil.</t>
   </si>
   <si>
     <t>Banco do Brasil S.A., together with its subsidiaries, provides banking products and services for individuals, companies, and public sectors in Brazil and internationally. The company operates through Banking, Investments, Fund Management, Insurance, Electronic Payments, and Other segments. The Banking segment offers various products and services, including deposits, loans, and other services to retail, wholesale, and public sector markets, as well as to micro-entrepreneurs. The Investments segment engages in the domestic capital markets, intermediation and distribution of debts and equity instruments in primary and secondary capital markets; and provision of financial services. The Fund Management segment engages in the purchase, sale, and custody of securities, as well as the management of portfolios, and investment funds and clubs. The Insurance segment provides life, property, and automobile insurance products, as well as private pension and capitalization plans. The Electronic Payments segment is involved in the capturing, transmission, processing, and financial settlement for electronic payment transactions. The Other segment engages in the provision of credit recovery and consortium management services; development, manufacturing, sale, rental, and integration of digital electronic systems, peripherals, programs, inputs, and computing supplies. Banco do Brasil S.A. was incorporated in 1808 and is headquartered in Brasília, Brazil.</t>
   </si>
   <si>
-    <t>Banco Bradesco SA, formerly Banco Brasileiro de Descontos SA, is a Brazil-based public company which engages in the Banking Services Industry Group. The Company operates as a wide-ranging commercial bank in terms of total assets, credit operations and the volume of deposits and funding. The Company offers a range of banking and financial products and services, in Brazil and abroad, for individuals, and key national and international companies and institutions. The Company's products and services cover banking and non-banking operations, such as: loans and advances, deposits, issuing credit cards, consortium, insurance, capitalization, leasing, payment collection and processing, supplementary pension plans, asset management and securities intermediation and brokerage services.</t>
-  </si>
-  <si>
-    <t>BB Seguridade Participacoes SA is a Brazil-based company engaged in the insurance sector. The Company’s activities are divided into two segments: Insurance and Brokerage. The Insurance division offers life, property and casualty, vehicle, special risks, financial and transport insurance, dental plans, private pension and capitalization plans, as well as reinsurance. The Brokerage division focuses on the insurance brokerage, management of pension and capitalization plans, as well as promotion of insurance and reinsurance products. In addition, it provides advisory related to insurance selection. The Company's subsidiaries include BB Seguros Participacoes SA and BB Cor Participacoes SA. The Company is controlled by Banco do Brasil SA.</t>
+    <t>Banco Bradesco S.A., together with its subsidiaries, provides various banking products and services to individuals, corporates, and businesses in Brazil and internationally. The company operates through two segments, Banking and Insurance. It provides current, savings, click, and salary accounts; real estate credit, vehicle financing, payroll loans, mortgage loans, microcredit, leasing, and personal and installment credit; debit and business cards; financial and security services; consortium products; auto, personal accident, dental, travel, and life insurance; investment products; pension products; real estate and vehicle auctions; cash management, and foreign trade and exchange services; capitalization bonds; and internet banking services. Banco Bradesco S.A. was founded in 1943 and is headquartered in Osasco, Brazil.</t>
+  </si>
+  <si>
+    <t>BB Seguridade Participações S.A., through its subsidiaries, invests in the insurance, pension plans, premium bonds, reinsurance, and dental insurance businesses in Brazil. It operates through two segments, Insurance and Brokerage. The Insurance segment offers life, property and vehicle, property, rural, special risks and financial, transport, hulls, and housing people insurance products. It also offers pension plans, dental plans and capitalization plans, and reinsurance products. The Brokerage segment engages in the brokerage and management, fulfillment, promotion and facilitation of casualty, life and capitalization insurance, pension plans, dental plans, and health insurance products. The company was incorporated in 2012 and is headquartered in Brasilia, Brazil. BB Seguridade Participações S.A. operates as a subsidiary of Banco do Brasil S.A.</t>
   </si>
   <si>
     <t>Bardella SA Industrias Mecanicas (Bardella) is a Brazil-based company primarily engaged in the production of industrial equipment and steel profiles. The Company produces various capital goods for industry sector, including hydro mechanical equipment for the energy sector; heavy equipment for the oil and gas segment; cranes, gantries and traveling semi-gantries for industrial plants; stackers, car dumpers and ship loaders for the mining sector; coke plants, industrial furnaces, steelworks, electrolytic vats and processing lines for the steel and aluminum industry; and rolled, drawn and rectified bars, special profiles and parts for mechanical constructions, among others. The Company also offers technical support and services, such as light, medium and heavy machining, boiler making, sand blasting and industrial assembly. As of December 31, 2011, Bardella had a number of subsidiaries, including Energo Agro Industrial Ltda, which is mainly involved in the reforestation.</t>
   </si>
   <si>
-    <t>Minerva S.A. engages in the production and sale of fresh beef, livestock, and by-products in South America. It is also involved in slaughtering and deboning, and processing of cattle, meat, beef, and sheep meat; selling chilled, frozen, and processed meat, as well as beef, pork, and poultry products; exporting and selling live cattle; and breeding and selling live cattle, lambs, pigs, and other live animals. In addition, the company trades in and sells electric power; trades in food products; sells third parties’ brands primarily Swift products; and prepares products for animals, which include meat/bone meal, blood, and tallow. It operates 25 cattle slaughtering plants in Brazil, Paraguay, Argentina, Uruguay, and Colombia. The company was founded in 1957 and is headquartered in Barretos, Brazil.</t>
-  </si>
-  <si>
-    <t>Minerva SA is a Brazil-based company mainly engaged in the production and sale of beef. The Company's activities are divided into two business segments: Meat and Livestock. The Meat division is involved in the production and sale of fresh beef. This segment includes beef, pork and poultry processing, as well as production and sale of cattle byproducts, such as hides or giblets. The Livestock division focuses on live cattle export. The Company operates slaughterhouses in Brazil, Paraguay Uruguay, Colombia and Argentina, meat processing plant in Brazil and two proteins processing plants in Argentina. The Firm owns numerous subsidiaries, such as Minerva Dawn Farms Industria e Comercio de Proteinas SA, CSAP Companhia Sul Americana de Pecuaria SA and Athena Foods SA, among others.</t>
+    <t>Minerva S.A. produces and sells fresh meat, livestock, and by-products in South America and internationally. The company is also involved in slaughtering, deboning, and processing of cattle, meat, beef, and sheep meat; selling chilled, frozen, and processed meat, as well as beef, pork, and poultry products; exporting and selling live cattle; and breeding and selling live cattle, lambs, pigs, and other live animals. In addition, it trades in and sells electric power; trades in food products and carbon credits; sells third parties’ brands primarily Swift products; and prepares products for animals, which include meat/bone meal, blood, and tallow. The company was founded in 1957 and is headquartered in Barretos, Brazil.</t>
   </si>
   <si>
     <t>Banestes SA Banco do Estado do Espirito Santo (the Bank) is a Brazil-based commercial bank. The Bank provides a number of financial services, including a portfolio of commercial, rural, industrial and real estate credits; currency exchange; leasing operations; credit card administration and investment funds management, among others. Through its subsidiaries, the Bank also offers insurance products, as well as distribution, brokerage and management of third parties assets. In addition, it is involved in the management of workers' feeding program (PAT). As of December 31, 2011, the Bank’s subsidiaries included Banestes Seguros SA, Banestes Distribuidora de Titulos e Valores Mobiliarios SA and Banestes Administradora e Corretora de Seguros Previdencia e Capitalizacao Ltda. On January 17, 2012, the Company incorporated its subsidiaries Banestes Seguros SA and Banestes Distribuidora de Titulos e Valores Mobiliarios SA.</t>
   </si>
   <si>
-    <t xml:space="preserve">Banco do Estado de Sergipe SA, formerly Banco de Fomento Economico do Estado de Sergipe SA, is a Brazil-based commercial bank that provides personal and corporate banking services. The Bank offers a range of financial products and services, such as personal and real estate loans, saving accounts, debit and credit cards, investment banking, portfolio management, car leasing, pension funds, life and property insurance policies, among others. As of December 31, 2011, the Bank operated 61 agencies and 12 service posts, and its subsidiaries were SEAC - Sergipe Administradora de Cartoes e Servicos Ltda and BANESE Administradora e Corretora de Seguros Ltda. As of March 7, 2012, the government of the Brazilian state of Sergipe held an 89.87% stake in the Bank. </t>
+    <t>Banco do Estado de Sergipe S.A. provides various banking products and services in Sergipe. It offers cash, demand, savings, escrow, term, special interest-bearing, and judicial deposits; and payroll services, as well as holds development and real estate portfolios. The company also provides Internet and mobile banking services. The company was formerly known as Banco de Fomento Budget and changed its name to Banco do Estado de Sergipe, S.A. in 1967. Banco do Estado de Sergipe S.A. was founded in 1961 and is based in Aracaju, Brazil.</t>
   </si>
   <si>
     <t>Inter &amp; Co, Inc., through its subsidiaries, engages in the banking, securities, insurance brokerage, marketplace, asset management, and services businesses. The company’s Banking segment offers banking products and services, including checking accounts, cards, deposits, loans and advances, and other services. Its Securities segment provides services relating to the purchase, sale, and custody of securities; and portfolio management, as well as the establishment, organization, and management of investment funds. The company’s Insurance Brokerage segment offers life, property, auto, financial, lost or stolen credit card, dental, warranties, travel, and credit protection insurance products. Its Marketplace segment operates a digital platform that offer goods and/or services to its customers. The company’s Asset Management segment is involved in the operations related to the management of fund portfolios and other assets. Its Services segment provides services in the collection and management of personal information; development and licensing of customized and non-customized computer programs; and technical support, maintenance, and other information technology services. The company was founded in 1994 and is based in Belo Horizonte, Brazil.</t>
@@ -2011,31 +2005,31 @@
     <t>Biomm SA, formerly Savicevic Participacoes SA, is a Brazil-based company primarily engaged in the biotechnology industry. The Company is principally engaged in the development and licensing of technology for the production of human insulin and other recombinant proteins. The Company’s technology is suitable for the production of therapeutic proteins, which are used in the production of drugs and biopharmaceuticals. The Company’s technology for insulin production is protected by patents in various countries in Europe, Asia, North and South America. In addition, it is active in the development of production process of enzymes that are used in the hydrolysis of biomass and in the manufacture of bio-fuel. As of December 31, 2011, the Company’s subsidiaries were Biomm International Inc, Biomm Middle East Inc and Biomm Russia Ltd.</t>
   </si>
   <si>
-    <t>Blau Farmaceutica SA is a Brazil-based company engaged in the pharmaceuticals sector. The Company focuses on the development, production and commercialization of medicines, which aim at treatment in the areas of oncology, nephrology, hematology and infectology, among others. Its product lines includes biopharmaceuticals, biosimilars, oncological - injectable, oncological - oral, blood products, antiviral and antiretrovirals, uterine stimulators, anaesthetics, antithrombotics, thrombolytics, female health care, antibiotics, non-beta lactams, cephalosporin, chloramphenicol, acid pumper inhibitor and other hospital products. The Company operates in Brazil, Argentina, Colombia, Peru, Uruguay, Chile and the United States, having a pharmaceutical industrial complex composed of five industrial plants, dedicated to the production of biological, biotechnological and oncological medicines, antibiotics, injectable anesthetics and biotechnological inputs.</t>
+    <t>Blau Farmacêutica S.A., a pharmaceutical company provides private label drugs in Brazil, Argentina, Colombia, the United States, Ecuador, Peru, and Uruguay. The company’s medications cover various therapeutic classes, such as immunology, hematology, oncology, nephrology, specialties, and antibiotics. It also offers biological drugs; oral and injectable drugs for treating cancer; specialized treatments for infectious diseases; and prescription and non-prescription drugs, including dermo-medicines, condoms, and others for retail and non-retail markets. In addition, the company provides blood-derived, biological, biotechnological, and antiretroviral drugs. It serves hospitals, private clinics, chemotherapy and hemodialysis centers, and public health institutions. The company was incorporated in 1987 and is headquartered in Cotia, Brazil.</t>
   </si>
   <si>
     <t>Banco Mercantil do Brasil SA (the Bank) is a Brazil-based retail bank. It has both individual and corporate customers. The Bank offers assets management, securities investments, insurances, credit cards and loans, among others. As of December 31, 2011, the Bank operated a network of 165 branches and a foreign branch in the Cayman Islands. As of December 31, 2011, the Bank had eight subsidiaries: Banco Mercantil de Investimentos SA; Mercantil do Brasil Administradora e Corretora de Seguros e Previdencia Privada SA; Mercantil do Brasil Corretora SA - Cambio, Titulos e Valores Mobiliarios; Mercantil do Brasil Distribuidora SA - Titulos e Valores Mobiliarios; Mercantil do Brasil Financeira SA - Credito, Financiamento e Investimentos; Mercantil do Brasil Imobiliaria SA; Mercantil do Brasil Empreendimentos Imobiliarios SA, and Mercantil do Brasil Leasing SA - Arrendamento Mercantil.</t>
   </si>
   <si>
-    <t>Banco BMG SA is a Brazil-based financial institution. It provides customers with a variety of products and services. Its retail offering includes payroll credit card, direct debt loan, both exclusive to social security retirees and pensioners and public servants, digital personal credit and retail insurance through a partnership. For corporate clients, the Bank offers structured financial services, derivative instruments and surety bonds insurance for medium and large companies. It also provides fixed income investment products for all customers. It operates through a diversified number of sales channels, both physical and digital, such as digital bank, bank branches and bank correspondents, among others.</t>
-  </si>
-  <si>
-    <t>Banco Mercantil de Investimentos SA (the Bank) is a Brazil-based company involved in the financial sector. The Bank is mainly engaged in the capital financing for productive activities in short, medium and long term projects. As of December 31, 2011, the Bank was controlled by Banco Mercantil do Brasil SA.</t>
+    <t>Banco BMG S.A. provides commercial, credit, financing, and investment products and services primarily in Brazil. The company operates through two segments, Retail Banking and Wholesale Banking. It offers digital accounts; payroll credit cards; payroll, personal, and secured loans; and insurance products comprising moneylender, life, and FGTS protected insurance policies, as well as digital banking services for retail customers. The company also provides financing, structured financial services, derivative instruments, and surety bonds. In addition, it offers construction consultation services; and investment products, such as bank deposit certificates, agribusiness letter of credit, and mortgage letters of credit. The company was formerly known as BMG Financeira S.A.–Crédito, Financiamento e Investimento and changed its name to Banco BMG S.A. in April 1989. Banco BMG S.A. was founded in 1930 and is headquartered in São Paulo, Brazil. Banco BMG S.A. operates as a subsidiary of Grupo BMG S.A.</t>
+  </si>
+  <si>
+    <t>Banco Mercantil de Investimentos S.A. provides financing services in Brazil. The company offers credit solutions comprising of debentures, notes, FIDC, real estate, and agribusiness receivables certificates; and advisory services for fundraising and structuring debt. Banco Mercantil de Investimentos S.A. was incorporated in 1973 and is based in Belo Horizonte, Brazil. The company operates as a subsidiary of Banco Mercantil do Brasil S.A.</t>
   </si>
   <si>
     <t>Bicicletas Monark SA, formerly Monark Industria e Comercio Ltda, is a Brazil-based company primarily engaged in the production and marketing of bicycles. The Company offers its products under the brand name Monark. The Company’s portfolio includes various product lines, such as Aluminio, BMX, Esportiva Masculina, Esportiva Feminina and Transporte. It operates a production unit in the city of Indaiatuba, in the Brazilian state of Sao Paulo. As of December 31, 2011, Monark da Amazonia SA was the Company’s subsidiary.</t>
   </si>
   <si>
-    <t>Bemobi Mobile Tech SA is a Brazil-based company involved in the mobile media and entertainment industry. The Firm is focused on the distribution and monetization of mobile apps, games and digital services. The Company operates in a Business-To-Business-To-Consumer (B2B2C) model, in partnerships with mobile operators. The Company’s services are divided into three units: Applications and Games, Microfinance and Communications. The Applications and Games unit is focused on subscription-based Apps Club, which offers mobile applications and games provided by the Company’s content partners, including developers, publishers and distributors. The Microfinance unit provides services for prepaid mobile users, including recharging by credit or debit card and Airtime and Data Advance packages payable at next recharge, among others. The Communications unit provides solutions related to voice calls, such as voicemail and audio to text transcription.</t>
-  </si>
-  <si>
-    <t>Banco do Nordeste do Brasil SA (the Bank) is a Brazil-based regional development bank. The Bank organizes its business into two operational divisions: Own Portfolio segment, which includes products and services from its own portfolio, such as credit operations, fund management and other services, and FNE segment, which comprises credit operations and management services in the portfolio of the Constitutional Fund for Financing of the Northeast (FNE). The Bank provides personal and corporate banking services, including personal credit, portfolio management, a range of financing services, investment banking, life, car and real estate insurance policies, among others. Additionally, the Bank manages operations of the National Program for Family Farming Strengthening (PRONAF). As of December 31, 2011, the Bank had 187 agencies in 1,990 municipalities in Brazil.</t>
-  </si>
-  <si>
-    <t>Boa Vista Servicos SA, located in Sao Paulo - Brazil provides credit information</t>
-  </si>
-  <si>
-    <t>Bombril SA, formerly known as a Bombril Cirio SA, is a Brazil-based company engaged in the hygiene and cleaning products industry. The Company provides manufactures and commercializes a range of products for domestic and industrial consumption, such as steel wools, liquid detergents, scouring powder, disinfectants, cleaners, soap products, softeners, synthetic sponges, laundry liquid, perfumed sachets, and air fresheners, among others. The Company offers products under various brands, including Bombril, Limpol, Sapolio Radium, Pinho Bril, Pratice, Tanto, Mon Bijou and Lysoform, among others. Through its subsidiaries, the Company is engaged in the wholesale trade of cosmetics, perfumery articles and personal care products, as well as in the real estate sector.</t>
+    <t>Bemobi Mobile Tech S.A. offers digital mobile solutions and platforms in Brazil. It provides digital payment and billing solutions; digital subscription services for mobile apps and games; Airtime credit service platform for mobile subscribers; mobile-data-driven solutions; digital engagement platform, an omnichannel AI cloud-based engagement platform; and telco software platform for subscription management solutions. The company also offers subscription based access to apps and games for mobile devices; voice messages services through apps and/or integrated with SMS/WhatsApp systems; and call anti-spam solutions. In addition, it provides digital subscription services, microfinance and payment services, digital payment services, and platforms as a service. Its products are used in telecom, financial, and utilities industries. Bemobi Mobile Tech S.A. was incorporated in 2007 and is headquartered in Rio De Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Banco do Nordeste do Brasil S.A. operates as a regional development bank in Brazil. It offers demand, savings, and time deposits; and short-term loans to urban microcredit, direct consumer credit, working capital loans, credit cards, overdraft facility accounts, and exchange and discount loans. The company also provides portfolio management, credit analysis, securities custody, foreign exchange transactions, electronic transfers, and collection services; and third-party asset management services, such as management of investment funds for small, medium-sized, and large investors. In addition, it is involved in the market operations and fund management activities; and structuring and distribution of local short- and long-term securities comprising debentures, promissory notes, certificates of real estate receivables, credit rights investment funds, and other products. The company serves individuals; corporate, large, medium, micro, and small-sized companies; agribusiness, small and mini rural producers, and farmers; urban and rural microfinance sectors; and government agencies. As of December 31, 2021, it operated through 980 physical points of service, including 292 branches, 473 urban microcredit units, and 215 rural microcredit units. The company was founded in 1952 and is headquartered in Fortaleza, Brazil.</t>
+  </si>
+  <si>
+    <t>Boa Vista Serviços S.A. provides analytical solutions in Brazil. It offers credit scoring, credit recovery services, customer prospecting, marketing, anti-fraud, risk report, consumer, and other services, as well as data analysis services. Boa Vista Serviços S.A. was founded in 2010 and is headquartered in Barueri, Brazil. As of August 7, 2023, Boa Vista Serviços S.A. operates as a subsidiary of Equifax do Brasil Ltda.</t>
+  </si>
+  <si>
+    <t>Bombril S.A. manufactures and sells household products in Brazil. It offers steel wool, sponges, dishwashing liquids, bar cleaning soaps, cleansers, disinfectants, cleaning solutions, fabric softeners, ironing sprays, liquid laundry detergents, fragrant sachets, and air fresheners. The company offers its products under the Limpol, Mon Bijou, Sapólio Radium, Kalipto, Pinho Bril, and Bom Bril brand names. The company was formerly known as Abrasivos Bombril Ltda and changed its name to Bombril S.A. in 1984. Bombril S.A. was founded in 1948 and is headquartered in São Bernardo do Campo, Brazil.</t>
   </si>
   <si>
     <t>Banco BTG Pactual SA is a Brazil-based bank primarily engaged in the investment banking and investment management activities. Together with its subsidiaries, the Bank offers a range of financial services, including investment banking, corporate lending, brokerage and clearing services, asset management, wealth management, commercial and consumer banking services, merchant banking and real estate investments. Through the platform BTG Pactual digital, the Bank facilitates online retail investments. It also provides property and casualty insurance and reinsurance services. The bank has a number of subsidiaries in Brazil and abroad, with present in many Latin American countries, the United States, the United Kingdom, Luxembourg and Hong Kong.</t>
@@ -2047,7 +2041,7 @@
     <t>Brasil Pharma S.A. engages in the retail pharmaceutical franchising business in Brazil. It operates 413 franchise drug stores under the Farmais brand name located in the southeast region. The company was formerly known as Brazil Pharma S.A. and changed its name to Brasil Pharma S.A. in May 2013. Brasil Pharma S.A. was founded in 2009 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Bradespar SA is a Brazil-based holding company. The Company's main activity is to participate in other companies as a partner or shareholder. Through its affiliate Valepar SA, the Company holds stake in Vale SA, an entity that specializes in the research, manufacture and sell of iron ore and pellets, nickel, fertilizer, copper, coal, manganese, iron alloys, cobalt, platinum group metals and precious metal, among others. Through its subsidiary Antares Holdings Ltda, the Company holds stake in CPFL Energia SA, an entity that focuses on the distribution, generation and commercialization of electric energy in Brazil.</t>
+    <t>Bradespar S.A., through its interest in VALE, operates as a mining company in the production of iron ore and pellets, and nickel. The company also produces copper, thermal and metallurgical coal, manganese, platinum group metals, gold, silver, and cobalt, as well as raw materials for the steel industry with applications in the stainless steel industry, and metal alloys used in the production of various products. In addition, it operates logistics systems, including railways, ports, and terminals, as well as engages in power generation business. The company was founded in 1942 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>BR Advisory Partners Participacoes SA, formerly known as Herin Holdings SA, is a Brazil-based company engaged in the banking sector. The Company operates as an independent merchant bank. The Company involves in the investment banking area and provides a wide range of financial advisory services, involving sophisticated and structured solutions to a diversified group of clients. The purpose of company is to participate in other companies, national or foreign, as a partner, quota holder or shareholder, and the management of its own assets. It also operates in the capital markets and provides the origination, structuring and distribution of fixed income securities and various debt instruments for Brazilian companies, including convertible debt. The Company is controlled by BR Partners HoldCo Participacoes SA.</t>
@@ -2071,13 +2065,13 @@
     <t>BR Properties is one of the leading high-income commercial real estate investment companies in Brazil, focused on the acquisition, leasing, management, development and sale of commercial real estate, including office buildings and industrial and logistics warehouses, located in the main metropolitan regions from Brazil. BR Properties adopts a dynamic approach to monitoring the Brazilian commercial real estate market, in order to anticipate supply and demand trends in the various regions where it operates, in order to assess the best acquisition or sale opportunities, with the aim of maximizing the profitability of its properties. your investments. The company ended the quarter with 12 commercial properties in its portfolio, totaling a gross leasable area (GLA) of 416 thousand m², representing a market value of approximately R$2,205,905, of which 3 are land corresponding to 65 thousand m² of GLA potential. The 12 properties held in the Company's portfolio at the end of 1Q23 were distributed as follows: 4 or 92 thousand m² of office buildings; 5 or 260 thousand m² of industrial and logistics warehouses; 3 or 65 thousand m² of land.</t>
   </si>
   <si>
-    <t xml:space="preserve">Banco do Estado do Rio Grande do Sul SA (Banrisul) is a Brazil-based commercial bank that provides personal and corporate banking services. Banrisul offers a range of financial products and services, such as personal and real estate loans, debit and credit cards, securities brokerage, portfolio management, car and equipment leasing, investment services, international trade support, life and property insurances, among others. </t>
+    <t>Banco do Estado do Rio Grande do Sul S.A., a multiple-service bank, provides a range of banking products and services primarily in Brazil, Miami, and the Grand Cayman. It engages in the retail banking, lending, financing and investment, mortgage loan, development, lease portfolio, and foreign exchange activities. The company also offers securities brokerage, management of sales poll groups, payment industry solutions, insurance, and pension plan and saving bonds products. The company was incorporated in 1928 and is headquartered in Porto Alegre, Brazil.</t>
   </si>
   <si>
     <t>Biosev S.A., together with its subsidiaries, engages in the production, processing, and sale of agricultural products in Asia, North America, South America, Africa, and Europe. It operates through Sugar, Ethanol, Energy, and Other Products segments. The company offers crystal, liquid, inverted liquid, very high polarization, and refined sugar; and hydrous ethanol, anhydrous ethanol, neutral ethanol, extra neutral ethanol, and simple alcoholic distillate from sugarcane, as well as fusel oil, a by-product of the alcohol distillation process. It also engages in the export, import, and sale of petroleum by-products, lubricants, fuel, greases, and hydrated ethyl alcohol; purchase, sale, import, and export of agricultural products and its by-products; and generation and sale of electricity and its by-products through biomass with a co-generation capacity of 1,316 GWh. The company was formerly known as LDC BioEnergia S.A. and changed its name to Biosev S.A. in 2012. Biosev S.A. was founded in 1982 and is headquartered in São Paulo, Brazil. As of August 10, 2021, Biosev S.A. operates as a subsidiary of Raízen S.A.</t>
   </si>
   <si>
-    <t xml:space="preserve">BRB Banco de Brasilia SA, formerly known as Banco Regional de Brasilia SA, is a Brazil-based commercial bank. The Bank offers a range of financial products and services, including saving accounts, credit cards, investment funds, loans, agriculture credits, leasing products, real estate credits, personal vehicle financing, property and life insurance policies, distribution of securities and fund management, among others. The Bank has both individual and corporate customers. The Bank is controlled by the Government of the Federal District (Governo do Distrito Federal). As of December 31, 2011, the Bank had three subsidiaries: Financeira Brasilia SA, BRB-DTVM Distribuidora de Titulos e Valores Mobiliarios SA and Cartao BRB. </t>
+    <t>BRB - Banco de Brasília S.A. provides banking products and services in Brazil. The company offers savings and checking accounts; loans and financing services; investments; credit, debit, and prepaid cards; auto, life, residential, personal accidents, pension, capitalization, vacations, travel, pet, protected credit, and consortium insurance products; credit lines; and exchange, and payment and receiving services, as well as consortium, citizen information, ombudsman, and real estate credit services. It operates various branches and ATMs. The company was formerly known as Banco regional de Brasília SA – BRB and changed its name to BRB - Banco de Brasília S.A. in January 1986. BRB - Banco de Brasília S.A. was founded in 1964 and is headquartered in Brasília, Brazil.</t>
   </si>
   <si>
     <t>Cambuci SA is a Brazil-based company engaged in the manufacture and sale of sports' apparel and equipment. The Company’s products are traded under the brand name Penalty and they are divided into five main product lines: Professional, Special, Casual, Teams and Kids &amp; Teens. Its products include balls, footwear and apparel for several sports, such as running, soccer, football, volleyball, basketball, handball, rugby and beach soccer. As of December 31, 2011, the Company’s subsidiaries included Latinline, Penalty Argentina SA, Cambuci Trust SA, Penalty Chile, Impar Paraguay, Era Sports Ltda, Cambuci Importadora Ltda, Impar Sports Ltda and Penalty Iberia.</t>
@@ -2089,13 +2083,13 @@
     <t>Meliuz SA is a Brazil-based Iinternet services provider. Through the digital platform, the Firm offers free discount coupons from over 800 partners, including Brazilian online stores, as well as companies engaged in tourism, leisure, education, transportation, insurance, gastronomy and other services. Meliuz provides also financial services such as credit cards, issued in partnership with BancoPan SA, and cashback programs, returning part of an amount spent on purchases directly into consumers’ bank accounts. The Company’s platform consists of a portal/website, a mobile application and an extension plugin for Chrome and Firefox browsers.</t>
   </si>
   <si>
-    <t>Companhia Brasileira de Aluminio is an integrated Brazil-based aluminum company, operating from the mining of bauxite to the production of a complete portfolio of primary products (ingots, billets, caster coils and slabs) and processed products (sheets, slabs, coils, tiles, extruded profiles) of aluminum, also performing recycling activities. The Company has a strategy focused on the segments of high added value products and on the production of low carbon aluminum and low production cost. Self-sufficiency in bauxite and alumina and the ability to supply virtually all its electricity consumption through a portfolio of renewable energy generation assets ensure cost competitiveness and flexibility in the mix of products offered to adjust to different market dynamics. The Company is controlled by Votorantim SA.</t>
+    <t>Companhia Brasileira de Alumínio produces and sells aluminum products. The company provides a range of products, such as foils, ingots, billets, plates, coils, sheets, slabs, tiles, rebars, rods, extruded profiles, and other aluminum products. It also holds interests in the bauxite mining units located in Poços de Caldas and Miraí, Minas Gerais state; and in Barro Alto, the state of Goiás. In addition, the company owns and operates hydroelectric power plants. It operates in Brazil, the United States, Switzerland, Mexico, the Netherlands, Iceland, Uruguay, Argentina, and internationally. Companhia Brasileira de Alumínio serves packaging, automotive, transportation, building and construction, and consumer goods industries. The company was incorporated in 1941 and is headquartered in São Paulo, Brazil. Companhia Brasileira de Alumínio operates as a subsidiary of Votorantim S.A.</t>
   </si>
   <si>
     <t>Ampla Energia e Serviços S.A. engages in the distribution of electricity in the states of Rio de Janeiro in Brazil. The company was formerly known as Companhia de Eletricidade do Rio de Janeiro. Ampla Energia e Serviços S.A. was founded in 1908 and is headquartered in Niteroi, Brazil. Ampla Energia e Serviços S.A. is a subsidiary of Enel Brasil S.A.</t>
   </si>
   <si>
-    <t>CCR SA is a Brazil-based company primarily engaged in the operation of highways. The Company's activities are divided into five business segments: Highways, which manages and maintains toll roads through numerous concessions, such as AutoBAn, ViaOeste, NovaDutra, RodoNorte, SPVias, Ponte, ViaLagos, RodoAnel Oeste and Renovias; Passenger transportation, which includes subway concessions, such as ViaQuatro and Metro Bahia; Sea transportation, which holds concession for regular lines of sea passenger transport under the CCR Barcas brand name; Airports, which manages airport concessions, and Services, which includes other holding and operating activities, such as shared services center, engineering services and data transmission via underground fiber optic cables. The Company's highways network is located in the states of Sao Paulo, Rio de Janeiro and Parana, Brazil.</t>
+    <t>CCR S.A. operates as an infrastructure concession company worldwide. It operates highway covering a total of 3,615 kilometers in the states of São Paulo, Rio de Janeiro, Mato Grosso do Sul, Rio Grande do Sul, and Santa Catarina; manages six urban mobility concessions located in the States of São Paulo, Rio de Janeiro, and Bahia; manages 17 airports in Brazil and 3 in Quito, San José, and Curaçao. The company also provides passenger transport services on subways, trains, light rail vehicles, and ferries in Rio de Janeiro; and multimedia and IP connectivity services supported by approximately 4,899 kilometers of underground fiber optics. In addition, it offers engineering, technology, and administration solutions, as well as high-capacity fiber optic data transmission services. The company was founded in 1998 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>CCX Carvão da Colômbia S.A. engages in the production and commercialization of coal in Colombia, as well as logistics for the operation of its assets. CCX Carvão da Colômbia S.A. was formerly known as Centennial Asset Participações Amapá S.A. and changed its name to CCX Carvão da Colômbia S.A. in April 2012. The company was incorporated in 2006 and is based in Rio de Janeiro, Brazil. CCX Carvão da Colômbia S.A. was a former subsidiary of EBX Group Ltd. As of December 11, 2019, CCX Carvão da Colômbia S.A. is in liquidation.</t>
@@ -2104,28 +2098,25 @@
     <t xml:space="preserve">C&amp;A Modas SA, formerly know as C&amp;A Modas Ltda, is a Brazil-based fashion company, which manages a retail chain of shops and a Web portal. The Company sells a variety of products, such as apparel, accessories and footwear for men, women and children; cosmetics for both man and woman; electronic devices, including smartphones, notebooks, tablets and related accessories, among others. Its offering includes also products from different brands that customer can buy also through a mobile application. </t>
   </si>
   <si>
-    <t>Companhia Energetica De Brasilia - CEB is a Brazil-based holding company primarily engaged in the electrical energy sector. The Company is involved in the generation, transmission and distribution of electrical energy. As of Decemeber 31, 2011, the Company had three wholly owned subsidiaries: CEB Distribuicao SA, which is active in the distribution of electric energy in Distrito Federal, covering 5,822 square kilometers and serving 880,061 clients; CEB Geracao SA, which is aimed to operate one thermoelectric and one hydroelectric power plant, and CEB Participacoes SA, which is mainly active in the commercialization of the electricity produced by the hydroelectric power plant of Queimado. Through its subsidiary, Companhia Brasiliense de Gas SA, the Company is also involved in the distribution of liquefied natural gas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia de Fiacao e Tecidos Cedro e Cachoeira (Cedro) is a Brazil-based company involved in the textile industry. The Company and its subsidiaries are engaged in the production of denims, twills, canvas fabric and yarns. The Company also manufactures a range of fabrics, which are used in the production of professional apparel, such as medical uniforms and industrial clothing, among others. In addition, the Company runs the Decio Mascarenhas Textile Museum, located in the Company’s factory in Caetanopolis. As of December 31, 2011, the Company operated through factories in the Brazilian state of Minas Gerais, as well as through its subsidiaries, Companhia de Fiacao e Tecidos Cedronorte and Companhia de Fiacao e Tecidos Santo Antonio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companhia de Eletricidade do Estado da Bahia Coelba (COELBA) is a Brazil-based company engaged in the electrical energy sector. The Company operates as a public service concessionary of electrical power, aimed to project, construct and explore systems of sub-transmission, processing, distribution and commercialization of electrical energy and related services. It is also involved in other activities associated to electrical power services, such as technical services in the energy sector and export and import operations. The Company is part of Neoenergia Group. </t>
+    <t>Companhia Energética de Brasília - CEB, through its subsidiaries, engages in the generation and distribution of electrical energy in Brazil. The company operates through Power Generation, Commercialization Of Electric Energy, and Others segments. It also produces electricity from hydropower projects; produces and distributes gas through pipelines; and provides maintenance and expansion services for the lighting system. The company was formerly known as Companhia de Eletricidade de Brasília and changed its name to Companhia Energética de Brasília – CEB in 1992. Companhia Energética de Brasília – CEB was incorporated in 1964 and is headquartered in Brasília, Brazil.</t>
+  </si>
+  <si>
+    <t>Companhia de Fiação e Tecidos Cedro e Cachoeira S.A. operates as a textile company in Brazil. It primarily offers denims, twills, and screens. The company was founded in 1872 and is headquartered in Belo Horizonte, Brazil.</t>
+  </si>
+  <si>
+    <t>Companhia de Eletricidade do Estado da Bahia - COELBA engages in the distribution of electricity. It distributes electricity in 415 municipalities serving 6,205 thousand consumers in State of Bahia, as well as in the municipalities of Delmiro Gouveia in the State of Alagoas, and Dianápolis in the State of Tocantins. The company was founded in 1960 and is headquartered in Salvador, Brazil. Companhia de Eletricidade do Estado da Bahia - COELBA operates as a subsidiary of Neoenergia S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">Companhia Estadual de Distribuicao de Energia Eletrica CEEED is a Brazil-based company principally engaged in the electrical utilities sector. The Company is involved in the design, construction and operation of distribution systems of electric power. The Company holds the concession for the public service of electric energy distribution in the Brazilian state of Rio Grande do Sul. As of December 31, 2011, the Company operated in 72 municipalities, serving approximately 1.5 million consumers. Additionally, the Company has four plants of preserved wood production nurseries, located in the Brazilian municipalities of Alegrete, Candiota and Triunfo. It produces wooden posts used in the construction and maintenance of electrical networks. </t>
   </si>
   <si>
-    <t>Companhia Energética de Pernambuco S.A., trading as Neoenergia Pernambuco, primarily engages in the distribution of electricity under a public concession agreement in the state of Pernambuco and the municipality of Pedras de Fogo. It also engages in the generation and distribution of electricity by maintaining a diesel thermal power generation plant in the state district of Fernando of Noronha. The company founded in 1965 and is based in Recife, Brazil. Companhia Energética de Pernambuco S.A. operates as a subsidiary of Neoenergia S.A.</t>
-  </si>
-  <si>
     <t>CESP - Companhia Energética de São Paulo engages in the generation, transmission, and distribution of electric power in Brazil. The company owns and operates two hydroelectric power plants with an installed capacity of 1,627 MW. It is also involved in the forestry, reforestation, and fish farming businesses. The company was formerly known as CESP - Centrais Elétricas São Paulo S.A. and changed its name to CESP - Companhia Energética de São Paulo in October 1977. The company was incorporated in 1966 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Companhia de Gas de Sao Paulo Comgas, formerly known as Companhia Paulista de Servico de Gas, is a Brazil-based company primarily engaged in the distribution of natural gas. The Company's activities are divided into six business segments: Residential, which supplies piped natural gas to households; Commercial, which maintains natural gas network in commercial venues; Industrial, which provides gas products to industrial plants; Generation, which owns electricity generating plants powered by natural gas; Cogeneration, which produces thermal and electric power from gas combustion; Automotive, which offers natural gas for vehicles through gasoline stations, and Construction, which includes development of infrastructure for gas distribution. The Company operates gas concessions in the state of Sao Paulo, Brazil. The Company is controlled by Cosan SA Industria e Comercio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazziotin SA is a Brazil-based company mainly active in the retail business. The Company sells clothes, shoes, accessories and home furnishing, among others. It is active in Brazilian states of Rio Grande do Sul, Parana and Santa Catarina. As of December 31, 2011, Grazziotin SA operated 283 stores divided into four networks of stores. Department stores Grazziotin sell clothes, footwear and perfumes. Stores Tottal specialize in leisure products and home furnishing. The chain Pormenos consists of self-service clothes retail stores. The chain Franco Giorgi has its own brand and specializes in men’s fashion. As of December 31, 2011, the Company had three direct subsidiaries: Centro Shopping Empreendimentos e Participacoes Ltda, which is engaged in the administration of the Shopping Center in the city of Porto Alegre; Grato Agropecuaria Ltda, which is active in the cattle raising and planting of soybean and corn, and Trevi Participacoes Ltda active in financial sector. </t>
+    <t>Companhia de Gás de São Paulo – COMGÁS distributes piped natural gas in the state of São Paulo, Brazil. The company provides natural gas to customers in the industrial, residential, commercial, automotive, thermogeneration, and cogeneration segments through a network of approximately 20,000 kilometers of pipelines. Its concession area covers 180 municipalities in the São Paulo and Greater Sao Paulo regions. As of December 31, 2021, the company had approximately 2.23 million customers. The company was formerly known as Companhia Municipal de Gás (Comgás) and changed its name to Companhia de Gás de São Paulo - COMGÁS in 1974. The company was incorporated in 1872 and is headquartered in São Paulo, Brazil. Companhia de Gás de São Paulo – COMGÁS operates as a subsidiary of Compass Gas e Energia S.A.</t>
+  </si>
+  <si>
+    <t>Grazziotin S.A. engages in the retail and wholesale business in Brazil. The company’s stores offer furniture, convenience store merchandise, home appliances, electronics, housewares, bed, bath and tableware, clothing and accessories, sporting goods, and perfumery, as well as cosmetics, foodstuffs, decoration, camping, hygiene, and cleaning products. It is involved in the cultivation and sale of woods; and provision of services related to financial institutions and insurance brokerage, as well as manages shopping centers. The company was founded in 1950 and is headquartered in Passo Fundo, Brazil. Grazziotin S.A. is a subsidiary of V.R. Grazziotin S/A Administração e Participações.</t>
   </si>
   <si>
     <t>Cielo SA, formerly Companhia Brasileira de Meios de Pagamento, is a Brazil-based company that provides services related to credit cards and other payment methods. The Company's activities are divided into two business segments: Capturing and processing of transactions, which acquires and processes credit and debit card transactions and other means of payment, as well as offers accreditation of merchants and related services, and Management of payment accounts, which manages transactions related to credit and debit card usage. In addition, the Company offers rental, installation and maintenance of point of sale (POS) terminals and recharge of prepaid phones through POS, among others. It provides services to various credit and debit card issuers, such as Visa, MasterCard, American Express and Elo. The Company operates through a number of subsidiaries, including Servinet Servicos Ltda, Cielo USA Inc and Multidisplay Comercio e Servicos Tecnologicos SA, among others.</t>
@@ -2134,40 +2125,37 @@
     <t>Centrais Elétricas de Santa Catarina S.A., through its subsidiaries, generates and distributes power in Brazil. It primarily owns hydroelectric plants, as well as distributes natural gas through pipes. The company was founded in 1955 and is headquartered in Florianópolis, Brazil.</t>
   </si>
   <si>
-    <t>Companhia Energética de Minas Gerais, through its subsidiaries, engages in the generation, transmission, distribution, and sale of energy in Brazil. As of December 31, 2022, the company operated 69 hydroelectric, wind, and solar plants with an installed capacity of 5,519 MW; 351,163 miles of distribution lines; and 4,580 miles of transmission lines. It is also involved in the acquisition, transportation, and distribution of gas and its sub products and derivatives; provision of cloud solution, IT infrastructure, IT management, and cybersecurity services; provision of technology systems and systems for operational management of public service concessions; sale and trading of energy; provision of telecommunications services; and distributed generation, account services, cogeneration, energy efficiency, and supply and storage management activities. The company was incorporated in 1952 and is headquartered in Belo Horizonte, Brazil.</t>
-  </si>
-  <si>
-    <t>CSN Mineracao SA, formerly known as Congonhas Minerios SA, is a Brazil-based iron ore mining company involved in the production, purchase and sale of iron ore. The Company operates the Casa de Pedra and Engenho mines located in the state of Minas Gerais, as well as the Terminal de Carvao (TECAR), a solid bulks terminal located in Itaguai Port in the state of Rio de Janeiro, through which the Firm exports iron ore and imports coal and coke. The Company is controlled by Companhia Siderurgica Nacional.</t>
-  </si>
-  <si>
-    <t>Companhia Energetica do Ceara (Coelce) is a Brazil-based company involved in the electrical energy sector. The Company is primarily engaged in the distribution of electrical power for industrial, rural, public, commercial and residential consumption. The Company's concession area includes the Brazilian state of Ceara. Additionally, Coelce is active in the research, studies, planning, construction and exploration of the system of electrical power distribution. The Company’s activities are regulated by the Brazilian Electricity Regulatory Agency (ANEEL). The Company is controlled by the Endesa Group, through Investluz SA. In May 2014, Enersis SA of Chile, a unit of the Endesa Latinoamerica SA subsidiary of Enel Energy Europe Srl's (Enel Energy) Endesa SA unit, acquired 15,184% stake of Coelce; following the acquisition Enersis SA of Chile owns 75,269% shares of the Company.</t>
-  </si>
-  <si>
-    <t>Cogna Educacao SA, formerly Kroton Educacional SA, is a Brazil-based company active in the private education sector. The Company focuses on developing primary and secondary schools, post-secondary and undergraduate programs, as well as vocational courses. The Company's activities are divided into three business segments: In-class higher education, which offers port-secondary programs on campus; Distance learning higher education (EAD), which provides port-secondary programs via online platform, and Basic education, which includes own and managed primary schools, collection and development of teaching materials, school management advisory, as well as educational support tools, among others. The Company operates a number of brand names, such as Anhanguera, Fama, Pitagoras, Unic, Unime and Unopar. In addition, it is involved in the wholesale, retail, distribution, import and export of textbooks, course books, magazines and other publications related to education.</t>
-  </si>
-  <si>
-    <t>Correa Ribeiro SA Comercio e Industria, formerly Correa Ribeiro e Cia Ltda, is a Brazil-based company primarily involved in the real estate sector. The Company is mainly engaged in the administration, sale and rental of real estate property, including residential buildings and land. As of December 31, 2011, the Company had three subsidiaries, including Corraa Ribeiro Comercio Exterior Ltda, which is active in the commercialization of cacao and rental of real estate properties; Villanorte Incorporacoes Ltda, which is involved in the real estate sector, and LCR Administracao Ltda, which is active in the leasing of real estate properties.</t>
-  </si>
-  <si>
-    <t>CPFL Energia S.A. is a holding company. The Company, through its subsidiaries, distributes, generates, transmits and commercializes electricity in Brazil, as well as provides energy-related services. Its segments include Distribution, Conventional Generation Sources, Renewable Energy Generation, Commercialization and Services. The Company operates its distribution segment through its eight distributors. Its installed capacity in conventional generation is approximately 2,200 megawatt (MW). The Company, through its subsidiary CPFL Geracao, holds equity interests in eight Hydroelectric Power Plants. It operates in the segment of generation of energy of renewable sources, such as wind, biomass thermal plants, SHPPs and solar, through its subsidiary, CPFL Renovaveis. The Company operates in the segment of commercialization (power competitive supply) through its subsidiary, CPFL Brasil. The Company operates in the segment of value-added services providing electricity-related services.</t>
-  </si>
-  <si>
-    <t>Companhia Paranaense de Energia - COPEL engages in the generation, transformation, distribution, and sale of electricity to industrial, residential, commercial, rural, and other customers in Brazil. The company operates through Power Generation and Transmission, Power Distribution, Power Sale, and Gas segments. It is also involved in the piped natural gas distribution. The company operates hydroelectric, wind, and thermoelectric plants; and owns and operates transmission and distribution lines. It holds concessions to distribute electricity in municipalities in the State of Paraná and in the municipality of Porto União in the State of Santa Catarina. Companhia Paranaense de Energia – COPEL was founded in 1954 and is headquartered in Curitiba, Brazil.Companhia Paranaense de Energia - COPEL Operates as a subsidiary of Governo Do Estado Do Parana.</t>
+    <t>Companhia Energética de Minas Gerais - CEMIG, through its subsidiaries, engages in the generation, transmission, distribution, and sale of energy in Brazil. As of December 31, 2022, the company operated 69 hydroelectric, wind, and solar plants with an installed capacity of 5,519 MW; 351,163 miles of distribution lines; and 4,580 miles of transmission lines. It is also involved in the acquisition, transportation, and distribution of gas and its sub products and derivatives; provision of cloud solution, IT infrastructure, IT management, and cybersecurity services; provision of technology systems and systems for operational management of public service concessions; sale and trading of energy; provision of telecommunications services; and distributed generation, account services, cogeneration, energy efficiency, and supply and storage management activities. The company was incorporated in 1952 and is headquartered in Belo Horizonte, Brazil.</t>
+  </si>
+  <si>
+    <t>CSN Mineração S.A. engages in the iron ore mining business in Brazil. The company operates Casa de Pedra and Engenho mines. It also operates a hydroelectric power plant. The company was founded in 1913 and is based in São Paulo, Brazil. CSN Mineração S.A. operates as a subsidiary of Companhia Siderúrgica Nacional.</t>
+  </si>
+  <si>
+    <t>Companhia Energética do Ceará – COELCE engages in the electricity distribution services. It operates in 184 municipalities in the state of Ceará in Brazil. The company serves approximately 4.7 million consumer units. Companhia Energética do Ceará – COELCE is headquartered in Fortaleza, Brazil. Companhia Energética do Ceará – COELCE is a subsidiary of Enel Brasil S.A.</t>
+  </si>
+  <si>
+    <t>Cogna Educação S.A. operates as a private educational organization in Brazil and internationally. It offers in-class and distance-learning higher education, and undergraduate and graduate courses; editing, marketing, and distribution of teaching books; and educational materials and workbooks. The company also provides basic education, pre-university preparatory courses, and language courses; educational solutions for technical and higher education; and complementary activities, such as education technology development for services to complement management and training. In addition, it offers administration of kindergarten, elementary and high school activities; advises on and/or enables direct and indirect financing for students; and develops software for adaptive teaching and academic management optimization. Cogna Educação S.A. was incorporated in 1966 and is headquartered in Belo Horizonte, Brazil.</t>
+  </si>
+  <si>
+    <t>Corrêa Ribeiro S.A. Comércio e Indústria, together with its subsidiaries, engages in the real estate activities in Brazil. It purchases, sells, subdivides, rents, incorporates, and constructs real estate properties, as well as is involved in import and export, and commercial representation activities. The company also provides investigations, report preparation, and budgeting services; and plans, coordinates, and executes construction work. In addition, it processes and commercializes cocoa; and explores urban, suburban, and rural subdivisions. The company was formerly known as Corrêa Ribeiro e Cia Ltda and changed its name to Corrêa Ribeiro S.A. Comércio e Indústria in 1963. The company was founded in 1926 and is based in Salvador, Brazil.</t>
+  </si>
+  <si>
+    <t>CPFL Energia S.A. generates, transmits, distributes, and commercializes electricity to residential, industrial, and commercial customers in Brazil. The company was founded in 1912 and is based in Campinas, Brazil. CPFL Energia S.A. is a subsidiary of State Grid Brazil Power Participações S.A.</t>
+  </si>
+  <si>
+    <t>Companhia Paranaense de Energia - COPEL engages in the generation, transformation, distribution, and sale of electricity to industrial, residential, commercial, rural, and other customers in Brazil. The company operates through Power Generation and Transmission, Power Distribution, Power Sale, and Gas segments. It is also involved in the piped natural gas distribution. The company operates hydroelectric, wind, and thermoelectric plants; and owns and operates transmission and distribution lines. It holds concessions to distribute electricity in municipalities in the State of Paraná and in the municipality of Porto União in the State of Santa Catarina. Companhia Paranaense de Energia – COPEL was founded in 1954 and is headquartered in Curitiba, Brazil.Companhia Paranaense de Energia - COPEL  Operates as a subsidiary of Governo Do Estado Do Parana.</t>
   </si>
   <si>
     <t>CPFL Energias Renováveis S.A. generates electricity from renewable sources in Brazil. The company operates wind farms, small hydroelectric plants, biomass thermoelectric power plants, and solar plants. It has a total installed capacity of 4,385 MW distributing electricity across 687 municipalities. The company was incorporated in 1998 and is headquartered in São Paulo, Brazil. CPFL Energias Renováveis S.A. operates as a subsidiary of CPFL Geração de Energia S.A.</t>
   </si>
   <si>
-    <t>CR2 Empreendimentos Imobiliarios SA is a Brazil-based company primarily engaged in the real estate sector. The Company, along with its subsidiaries, is involved in the development of residential real estate properties, forming partnerships for each of its projects, especially with local builders and contractors. The Company’s portfolio is composed of apartment buildings and single-family houses located in the Brazilian cities, including Duque de Caxias, Guarulhos, Nova Iguacu, Rio de Janeiro, Santo Andre, Sao Goncalo and Sao Jose dos Campos. As of December 31, 2012, the Company’s subsidiaries included Cimol Empreendimentos Imobiliarios Ltda, CR2 Americas Empreendimentos SA, CR2 Cabucu Empreendimentos Ltda, CR2 Campinho Empreendimentos Ltda, CR2 Caxias Empreendimentos SA and CR2 Chafi Chaia Empreendimentos Ltda, among others.</t>
-  </si>
-  <si>
-    <t>Atacadao SA, also known as Grupo Carrefour Brasil, is a Brazil-based company engaged in the food distribution sector. The Company's activities are divided into three business lines: Wholesale, Retail and Financial Solutions. The Wholesale area focuses on self-service stores and delivery establishments, under the Atacadao brand name, for wholesale customers. The Retail segment operates hypermarkets, supermarkets, convenience shops, pharmacies and fuel service stations, as well as e-commerce platform, under the Carrefour brand name. It includes also Property Division, which manages the property portfolio and leasable areas. Financial Solutions division acts on in the insurance market and offers consumer credit solutions through Carrefour and Atacadao credit cards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financeira Alfa SA CFI, formerly Financeira Alfa SA Credito Financiamento e Investimentos, formerly known as Companhia Real De Investimento - Credito Financiamento e Investimentos, is a Brazil-based company that offers a range of credit and financing services. The Company provides various financial services and products, such as direct consumer credits, personal loans, credit cards and car financing services, among others. The Company mainly offers its services and financing solutions to the automobile market, retail groups and employees of big companies. The Company is active in Brazil. Financeira Alfa SA Credito Financiamento e Investimentos is a part of Conglomerado Financeiro Alfa, which is led by Banco Alfa de Investimento SA. </t>
-  </si>
-  <si>
-    <t>Tronox Pigmentos do Brasil SA, formerly know as Cristal Pigmentos do Brasil SA, is a Brazil-based company primarily engaged in the manufacture of chemical products, such as titanium dioxide and sulfuric acid. Titanium dioxide (TiO2), the Company’s main product, is used in the manufacture of paint, paper, plastic bottles, vinyl siding and packaging materials, among others. The Company is also active in the production and commercialization of minerals, including rutile, ilmenite and zircon. It operates one industrial unit in the state of Bahia and a mine in the state of Paraiba. As of December 31, 2011, the Company's subsidiary was Millennium Inorganic Chemicals Mineracao Ltda, which is involved in the mining sector.</t>
+    <t>Atacadão S.A. engages in the wholesale and retail of food, clothing, home appliances, electronics, and other products in Brazil. The company operates through Retail, Atacadão, and Financial Solutions segments. The company offers alcoholic and non-alcoholic beverages; chocolate and cocoa powders, sugar and sweeteners, baby foods, rice, oats and cereals, cookies, toasts and snacks, coffee, teas, canned and uncanned products, sweets and deserts, flour, bean, yeast, grains and seed, pasta and sauces, mixture for bakery and confectionery, oils, fats and lard, soups and creams, and seasonings and condiments; and bathroom, kitchen, pool, clothing, and general cleaning products. It also provides personal hygiene and perfumery products; cold and diary products; meat, poultry, and fish products; packaging and disposables; frozen products; stationery and office products; and food baskets. The company offers its products through a chain of wholesale self-service and wholesale delivery stores, hypermarkets, supermarkets, convenience stores, gas stations, pharmacies, and e-commerce under the Carrefour and Atacadão brands. In addition, the company also credit cards and consumer finance, and other products, such as insurance policies. Atacadão S.A. was founded in 1962 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Financeira Alfa S.A. - Crédito, Financiamento e Investimentos provides credit solutions in Brazil. It offers direct consumer credit; discount on receivables; special financing; personal credit; hybrid and electric vehicles, electric chargers, photovoltaic panels, and premium bicycles financing services; payroll loans; vehicle leasing; and aircrafts and vessels credit solutions. The company was incorporated in 1954 and is headquartered in São Paulo, Brazil. Financeira Alfa S.A. - Crédito, Financiamento e Investimentos operates as a subsidiary of Conglomerado Financeiro Alfa S.A.</t>
+  </si>
+  <si>
+    <t>Tronox Pigmentos do Brasil S.A. engages in the production and sale of titanium dioxide (TiO2) pigments worldwide. Its TiO2 pigments are used in paints, plastics, papers and rubbers, household equipment, toys, electronics, packaging, and others. It also produces ilmenite, zirconite, rutile, and kyanite ores. The company was founded in 1966 and is headquartered in Camaçari, Brazil. Tronox Pigmentos do Brasil S.A. operates as a subsidiary of Millennium Inorganic Chemicals Holdings Brasil LTDA.</t>
   </si>
   <si>
     <t>Cosan S.A. engages in the fuel distribution business in Brazil, Europe, Latin America, North America, Asia, and internationally. The company’s Raízen segment distributes and markets fuels through a franchised network of service stations under the Shell brand; engages in the petroleum refining; operation of convenience stores; manufacture and sale of automotive and industrial lubricants; and production and sale of liquefied petroleum gas. This segment also markets various products derived from sugar cane, including raw sugar, and anhydrous and hydrated ethanol, as well as engages in activities related to energy cogeneration from sugarcane bagasse; sale of electricity; and holds interests in companies involved in research and development on new technology. The company’s Gas and Power segment distributes piped natural gas to customers in the industrial, residential, commercial, automotive, and thermogeneration sectors; and engages in purchase and sale of electricity to other traders. Its Moove segment produces and distributes lubricants under the Mobil and Comma brands. The company’s Logistics segment provides logistics services for rail transportation, storage and port loading of commodities, including grains and sugar; and leases locomotives, wagons, and another railroad equipment. Its Cosan Investments segment manages agricultural, mining, and logistics projects; and invests in climate tech fund. Cosan S.A. was founded in 1936 and is headquartered in São Paulo, Brazil.</t>
@@ -2176,6 +2164,9 @@
     <t>Oncoclinicas do Brasil Servicos Medicos SA is a Brazil-based company primarily engaged in the education services. The Company is an operator of universities in the domestic market. Cruzeiro do Sul Educacional SA provides the knowledge, skills, and habits for its clients through teaching, training and research services. The Company operates through Colegio Cruzeiro do Sul (SP-SP), Universidade Cruzeiro do Sul (SP-SP), Centro Universitario Modulo (Caraguatatuba-SP) and the Centro Universitario do Distrito Federal (DF). The company holds interest in a number of subsidiaries, such as Centro de Quimioterapia Antiblastica e Imunoterapia SA, and Centro Mineiro de Infusoes SA.</t>
   </si>
   <si>
+    <t>Companhia de Saneamento de Minas Gerais, together with its subsidiary, plans, designs, performs, expands, remodels, manages, and provides water supply and sewage treatment services in Brazil and internationally. It engages in the collection, recycling, treatment, and final disposal of sanitary sewage; drainage and management of urban rainwater; supply of drinking water; and collection, transport, transfer, treatment, and destination of urban, domestic, and industrial waste. The company was formerly known as Companhia Mineira de Água e Esgotos and changed its name to Companhia de Saneamento de Minas Gerais in November 1974. Companhia de Saneamento de Minas Gerais was founded in 1963 and is headquartered in Belo Horizonte, Brazil.</t>
+  </si>
+  <si>
     <t>Companhia Siderúrgica Nacional operates as an integrated steel producer in Brazil and Latin America. It operates through five segments: Steel, Mining, Logistics, Energy, and Cement. The company offers flat steel products, such as high, medium, low carbon, micro-alloyed, ultra-low-carbon, and interstitial free slabs; hot-rolled products, including heavy and light-gauge hot-rolled coils and sheets; cold-rolled products comprising cold-rolled coils and sheets; galvanized products; tin mill products consisting of flat-rolled low-carbon steel coils or sheets; and profiles, channels, UPE sections, and steel sleepers for the distribution, packaging, automotive, home appliance, and construction industries. It primarily explores for iron ore reserves at Casa de Pedra and Engenho mines located in the city of Congonhas; and limestone and dolomite at the Bocaina mine located in the city of Arcos in the state of Minas Gerais, Brazil, as well as produces tin. In addition, the company operates railway and port facilities; produces and sells cement to construction material stores, home centers, concrete producers, construction companies, mortar industries, and cement artifact producers; and generates electric power from its thermoelectric co-generation and hydroelectric power plants. Companhia Siderúrgica Nacional was incorporated in 1941 and is headquartered in São Paulo, Brazil. Companhia Siderúrgica Nacional is a subsidiary of Vicunha Aços S.A.</t>
   </si>
   <si>
@@ -2185,10 +2176,10 @@
     <t>Karsten SA, formerly Companhia Textil Karsten, is a Brazil-based company engaged in the textile industry. The Company manufactures and sells household textile products. The Company's product portfolio includes cotton bedding, bath robes, towels, table clothing and upholstery, among others. The Company offers its products under the brand name Karsten. It divides its business into five segments: decoration, embroidery, table, bath and bed. As of December 31, 2011, the Company had a number of subsidiaries, including Karsten Nordeste Industria Textil Ltda, Karsten Comercio e Servicos de Distribuicao Ltda, Karsten America Corporation, Karsten Europa GmbH, Romaria Empreendimentos Ltda and Romaria Empreendimentos Ltda.</t>
   </si>
   <si>
-    <t>Companhia de Tecidos Norte de Minas - COTEMINAS is a Brazil-based company primarily engaged in the textile industry. The Company is involved in the production, marketing, import and export of yarns and fabrics. Through the subsidiary Springs Global Participacoes SA, the Company is active in the production of bed and bath articles, as well as in the retail of textile household goods under the brand name Artex. Through the subsidiary Oxford Comercio e Participacoes SA, it is also involved in the manufacture and marketing of fabrics, which are mainly used in apparel products, including sportswear, professional uniforms and personal protective equipment (PPE). As of April 19, 2012, Wembley SA was the major shareholder of the Company, with 22.03% of total number of shares.</t>
-  </si>
-  <si>
-    <t>Companhia Tecidos Santanense is a Brazil-based company engaged in the textile industry. The Company is involved in the spinning, weaving and finishing of woven fabrics, which are mainly used in apparel articles. It is also active in the manufacture of professional uniforms and personal protective equipment (PPE). The Company sells its products under various brand names, including WorkLand - Texwear Solutions, Confeccoes TopFire Santanense and Confeccoes Qualificadas Santanense. It has three industrial units in the Brazilian state of Minas Gerais, located in the city of Montes Claros, Para de Minas and Itauna. The Company distributes its products in Brazil, Argentina and the United States, among others. As of December 31, 2011, the Company’s subsidiary was Santanense Argentina SA.</t>
+    <t>Companhia de Tecidos Norte de Minas produces, markets, exports, imports, and sells yarns and fabrics in Brazil and internationally. It operates through three segments: Wholesale, Retail, and Denim. The company offers bed sheets and pillowcases, sheet sets, tablecloths, bath towels, rugs, and bath accessories under the CAMEBA name; mattress protectors, comforters, and bedspreads; and clothing apparel, including professional uniforms, accessories, and personal protective equipment for occupational safety. It markets its products under the Santista, Artex, MMartan, and Casas Moysés brand names. The company operated through physical stores and e-commerce network. Companhia de Tecidos Norte de Minas was founded in 1967 and is headquartered in Montes Claros, Brazil.</t>
+  </si>
+  <si>
+    <t>Companhia Tecidos Santanense Ltda. engages in the textile business in Brazil and internationally. The company is involved in the manufacture and sale of clothing products, including professional uniforms, accessories, personal protective equipment, and sportwear and workwear products. It also exports its products. The company was founded in 1891 and is headquartered in Montes Claros, Brazil. Companhia Tecidos Santanense Ltda. operates as a subsidiary of Oxford Comércio e Participações S.A.</t>
   </si>
   <si>
     <t>Cury Construtora e Incorporadora SA is a Brazil-based company engagaged in in the real estate development sector. The Firm is engaged in the development, construction and sale of residential buildings in the metropolitan regions of the states of Sao Paulo and Rio de Janeiro. The Firm develops apartments in the low- income housing sector, mainly for the Brazilian public housing program  (MCMV). The Company operates through a number of subsidiaries, such as CCISA08 Consultoria Imobiliaria Ltda (Cury Vendas) and CCISA15 Instaladora Ltda (Cury Install), among others.</t>
@@ -2203,13 +2194,13 @@
     <t>Cyrela Brazil Realty SA Empreendimentos e Participacoes is a Brazil-based company engaged in the real estate industry. The Company focuses on the construction, development, promotion and sale of residential real estate properties. Its activities are divided into three business segments: Real estate, Housing and Services. The Real estate division offers homes for high-income families. The Housing division provides homes for middle and low-income families. The Services division includes land subdivision and rendering of other real estate services. The Company develops residential projects independently and through joint venture partnerships. The Company operates through numerous subsidiaries in the domestic market.</t>
   </si>
   <si>
-    <t>Diagnosticos da America SA (DASA) is a Brazil-based company engaged in the provision of diagnostic support service. The Company’s services are structured into three units: Ambulatory and Hospital, which provides clinical analyses and diagnostic imaging; Laboratory support, which provides services for small and medium-sized laboratories, and Public Health Sector, in which the Company operates through the CientificaLab brand, which focuses on providing auxiliary diagnostic support services for the public health sector. In addition, the Company is engaged in activities related to tests in food and substances to evaluate risks for the human being; import, for its own use, of medical-hospital equipment, sets for diagnostics and related material in general, and granting and administration of business franchising, including advertising and publishing fund, training and selection of labor, supplying of equipment and research material suppliers, among others.</t>
+    <t>Diagnósticos da América S.A. provides diagnostic tests and support services in Latin America. It offers medical and outpatient care services; and health management, medical assistance, and home paramedic and outpatient medical services, as well as operates hospitals. The company was formerly known as Laboratório Clínico Delboni Auriemo S.A. and changed its name to Diagnósticos da América S.A. in August 2000. The company was founded in 1966 and is headquartered in Barueri, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Desktop SA, formely Desktop - Sigmanet Comunicacao Multimidia SA is a Brazil-based company that operates an Internet service provider (ISP) platform. The Company primarily operates in the broadband Internet services market with high-speed fiber optic technology directed towards individual clients. Desktop SA operates more than 16000 kilometers of fiber networks and has active customers in 53 cities in the countryside of the State of Sao Paulo. One of Company’s purposes is to democratize access to Internet, serving both large and small locations. Desktop SA has several subsidiaries, including Desktop Internet Ltda, Netion Solucoes em Internet Via Radio SA, Netell Internet SA and Netstyle Comercio de Equipamentos de Informatica LTDA. </t>
   </si>
   <si>
-    <t>Direcional Engenharia SA is a Brazil-based company engaged in the residential real estate sector. The Company focuses on development and construction of residential housing projects, targeting the low-income segment. It mainly builds multifamily homes that form a residential district. The Company develops its activities through special partnerships (SCPs) and special purpose entities (SPEs), which are active exclusively in the real estate sector. It operates in the states of Rio de Janeiro, Sao Paulo, Rio Grande do Sul, Minas Gerais, Para and Amazonas, among others, Brazil. The Company owns numerous subsidiaries, such as Direcional Taguatinga Engenharia Ltda, Ametista Empreendimentos Imobiliarios Ltda and Malaquita Empreendimentos Imobiliarios Ltda.</t>
+    <t>Direcional Engenharia S.A. operates as a real estate development and construction company in Brazil. It primarily develops and builds projects for low-income and middle-income families primarily in the Northern, Northeastern, Midwestern, and Southeastern regions. The company was founded in 1981 and is headquartered in Belo Horizonte, Brazil.</t>
   </si>
   <si>
     <t>Dommo Energia S.A., together with its subsidiaries, engages in the exploration and production of oil and natural gas in Brazil. The company’s properties include BM-C-39, BM-C-40, and BM-C-41 located in the Campos basin. It also holds a 40% interest in the BS-4 block located in the Santos basin. The company was formerly known as OGX Petróleo e Gás S.A. - Em Recuperação Judicial. Dommo Energia S.A. was incorporated in 2007 and is based in Rio de Janeiro, Brazil. As of January 9, 2023, Dommo Energia S.A. operates as a subsidiary of Petro Rio S.A..</t>
@@ -2218,7 +2209,7 @@
     <t>Dommo Energia SA, formerly OGX Petroleo e Gas SA, is a Brazil-based company engaged in the oil and gas sector. The Company focuses on the exploration and production (E&amp;P) of oil and natural gas. Its E&amp;P assets include a number of oil exploration blocks located in Brazil’s offshore basins on Campos and Santos.</t>
   </si>
   <si>
-    <t>d1000 Varejo Farma Participacoes SA is a Brazil-based pharmaceutical retailer. Through brands Drogasmil, Farmalife, Drogarias Tamoio and Drogaria Rosario, the Company sells drugs, dietary supplement and cosmetics, among others. It operates around 300 stores in the States of Rio de Janeiro, Goias, Mato Grosso, Tocantins and Federal District. The Company is the Retail Business Unit of the Profarma Group.</t>
+    <t>d1000 Varejo Farma Participações S.A. operates a chain of drugstores in Brazil. It offers pharmaceutical and perfumery products; generic drugs; and hygiene and beauty products. The company was formerly known as Cancun RJ Participações S.A. and changed its name to d1000 Varejo Farma Participações S.A. in March 2016. The company was founded in 2010 and is headquartered in Rio De Janeiro, Brazil. d1000 Varejo Farma Participações S.A. is a subsidiary of Profarma Distribuidora de Produtos Farmacêuticos S.A.</t>
   </si>
   <si>
     <t>Dohler SA, formerly Dohler SA Comercio e Industria, is a Brazil-based company engaged in the textile industry. The Company is active in the manufacture and commercialization of cotton, artificial, synthetic or mixed fiber fabrics for household or industrial use. The Company’s product portfolio includes various household textile products, such as bed linen, tableware, kitchenware, towels, bathrobes, curtains and bath mats, as well as products for industrial purposes: fabrics for shutters, mattresses and digital printing. In addition, through the Service Line segment, the Company offers textile products for professional segments: hotels, motels, hospitals and clinics. As of December 31, 2011, the Company’s subsidiaries were Comfio Companhia Catarinense de Fiacao and Dohler USA Inc.</t>
@@ -2227,106 +2218,59 @@
     <t>Dotz SA is Brazil-based company, and its activity is to participate in other companies. The Company is the parent company of CBSM - Companhia Brasileira de Solucoes de Marketing S.A. (CBSM) and CGSSP - Companhia Global de Solucoes e Servicos de Pagamentos. CBSM and CGSSP activity is the development and provision of services in the area of marketing and internet technology, mainly advising, consulting, elaboration and execution of projects in the area of information technology, notably internet, intranet, e-commerce, e-business and business to business, in addition to the Digital Payments account, called Dotz Pay. The Company, through its subsidiaries, through its loyalty program called Dotz, assigns loyalty points to third parties, such as credit card issuers, supermarkets, pharmacies, among others, which, in turn, grant these points for their customers. In connection with the loyalty program, such customers can redeem points in the form of products and/or services.</t>
   </si>
   <si>
-    <t>Dtcom Direct To Company SA (Dtcom), formerly DTC - direct to Company SA, is a Brazil-based company principally engaged in the provision of distance learning solutions, corporate communication and satellite telecommunications services. The Company product and service portfolio includes e-learning platforms; video portals; educational television (TV) channels; broadcast of corporative trainings and events, via satellite or Internet Protocol (IP), and teleconference and videoconference services, among others. The Company’s communication and online distance learning (ODL) solutions are used by public and private organizations. The Company’s flag products are DtcomSat platform, which integrates corporate TV and virtual learning environment technology, and DtcomWeb platform, which allows the creation of an online university with customized content.</t>
+    <t>DTCOM - Direct to Company S.A. provides integrated solutions in education, communication, and technology sectors in Brazil. It produces content for distance education. The company also operates WayCO platform, a platform focused on managing the production of content. In addition, it develops customized projects for continuing education courses in the online format, as well as executive business administration courses. It serves corporate clients and academic institutions. DTCOM - Direct to Company S.A. was founded in 1999 and is based in Quatro Barras, Brazil.</t>
   </si>
   <si>
     <t>Dexco SA, formerly known as Duratex SA, is a Brazil-based company primarily engaged in the manufacture of wood panels. The Company operates in three business segments: Wood, Deca and Ceramic Tiles. The Wood division is responsible for the production of hardboard; medium density particle (MDP) panels; medium, high and super density fiberboard (MDF, HDF and SDF) panels; laminate flooring, named Durafloor, and components for the furniture industry. The Deca division focuses on the production of sanitary ceramic and metal products under Deca and Hydra brand names. The Ceramic Tiles division produces polished porcelain tiles, special coatings and other tiles under Ceusa and Portinari brand names. The Company operates industrial plants and commercial branches in Brazil, Colombia, Peru and the United States, among others.</t>
   </si>
   <si>
-    <t>Electro Aco Altona SA is a Brazil-based company primarily engaged in the manufacture of steel castings. The Company is involved in manufacture of steel castings for various industries, such as automotive, construction, mining, heavy transport, energy generation, petroleum and metallurgical sector. The Company’s product portfolio consist of casting parts made of carbon steel, low, medium and high alloy steel, among others. The Company divides its business into two sectors: Repetitive and Custom. The Repetitive sector is responsible for series production of items for self-propelled equipment assemblers, including customers active in the segment of construction and mining machinery. The Custom sector produces customized parts and assemblies.</t>
-  </si>
-  <si>
-    <t>Ecorodovias Infraestrutura e Logistica SA is a Brazil-based company primarily engaged in the highways operation. The Company’s activities are divided into three business segments: Concessions, Logistics and Ports. The Concessions division focuses on managing toll roads, which connects ports located in Santos, Paranagua and Rio Grande, Brazil. The Logistics division comprises the interconnections of the Company’s road concessions that aim at integrating intermodal logistics terminals, port terminals, bonded terminals, distribution centers, customs and ports, as well as providing logistics services. The Ports division is responsible for the port operations, cargo handling and warehousing activities in own terminal, in the Port of Santos, Brazil. The Company holds a number of subsidiaries, such as EcoRodovias Concessoes e Servicos SA, Ecoporto Santos SA and Elog SA. It is controlled by Primav Construcoes e Comercio SA.</t>
-  </si>
-  <si>
-    <t>Empresa Nacional de Comércio, Rédito e Participações S.A. - Encorpar produces, imports, exports, and sells yarns and fabrics in Brazil. The company was founded in 1997 and is based in Belo Horizonte, Brazil. Empresa Nacional de Comércio, Rédito e Participações S.A. - Encorpar is a subsidiary of Wembley S.A.</t>
-  </si>
-  <si>
-    <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica - CEEE-GT engages in the generation and transmission of electricity by operating hydroelectric power plants in Brazil. The company was founded in 1943 and is based in Porto Alegre, Brazil. Companhia Estadual de Geração e Transmissão de Energia Elétrica - CEEE-GT operates as a subsidiary of Companhia Estadual de Energia Elétrica Participações - CEEE-Par.</t>
-  </si>
-  <si>
-    <t>ENGIE Brasil Energia S.A., formerly Tractebel Energia S.A., is an independent utility concessionaire. The Company is engaged in the business of generation and commercialization of electrical energy. The Company develops and operates power plants. The Company installs and operates plants fired from conventional energy sources, such as hydroelectric, thermoelectric and complementary units, small hydroelectric plants and wind, biomass and photovoltaic plants. The Company's installed capacity, including its stakes in energy generation consortiums, is approximately 7,000 megawatts. The Company's generation facilities in operation consist of 29 plants, of which nine hydroelectric power plants, seven thermoelectric power plants (three coal, three biomass and one natural gas plant), three small hydro power plants (SHPP), nine wind farms and one photovoltaic solar power plant. The Company is controlled by ENGIE Brasil Participacoes Ltda.</t>
-  </si>
-  <si>
-    <t>Elektro Redes SA, formerly ELEKTRO Eletricidade e Servicos SA, is a Brazil-based company engaged in the utility sector. The Company is focused on distribution of electricity. The Company operates as a public service concessionary of electrical power, aimed to study, project, construct and explore the systems of distribution and commercialization of electrical power to end users. It supplies electric energy to various sectors, including industrial, residential, rural and public sectors, among others. The Company distributes electrical energy to approximately 223 municipalities in the state of Sao Paulo and to around five municipalities in the state of Mato Grosso do Sul. The Company's major shareholder is Iberdrola Brasil SA.</t>
-  </si>
-  <si>
-    <t>Elekeiroz S.A. develops, manufactures, imports, stores, distributes, represents, transports, and markets chemical, petrochemical, and derivative products in Brazil. The company offers 2-ethyl hexanoic, n-butyric, and fumaric acids; sulfuric acid and sulfur products; phthalic and maleic anhydrides; formaldehyde and urea-formaldehyde concentrates; oxo alcohols, including N-butanol, isobutanol, 2-ethyhexanol, isononanol, and 2-propylheptanol; and plasticizers. It also provides unsaturated polyester resins, such as orthophthalic, polyethylene terephthalate, isophthalic, DCPD, and BioPoli resins; and industrial utilities comprising hydrogen and carbon dioxide. The company serves the building and construction, paints and coatings, apparel and footwear, industrial chemical, films and packaging materials, crop protection products, pulp and paper, and fertilizers markets. Elekeiroz S.A. was founded in 1894 and is headquartered in Várzea Paulista, Brazil.</t>
-  </si>
-  <si>
-    <t>Centrais Elétricas Brasileiras S.A. - Eletrobrás, through its subsidiaries, engages in the generation, transmission, and distribution of electricity in Brazil. The company generates electricity through hydroelectric, thermal, nuclear, wind, and solar plants. It owned and operated 32 hydroelectric plants; As of December 31, 2022, it operated 32 hydroelectric plants; five thermal plants, including coal and gas power generation units with a total installed capacity of 1,482 megawatts; and two nuclear power plants comprising Angra I with an installed capacity of 640 megawatts and Angra II with an installed capacity of 1,350 megawatts. It also operates 66,939 kilometers of transmission lines. The company was incorporated in 1962 and is based in Rio de Janeiro, Brazil.</t>
-  </si>
-  <si>
-    <t>Eletromidia S.A. operates as an out-of-home advertising company in Brazil. It operates a network of approximately 70,000 digital and static faces located in transport areas and airports, residential and commercial buildings, shopping malls, and urban furniture markets. The company was founded in 1993 and is headquartered in São Paulo, Brazil. Eletromidia S.A. is a subsidiary of Cosme Velho Participações S.A.</t>
-  </si>
-  <si>
-    <t>Eletropaulo Metropolitana Eletricidade de Sao Paulo SA is a Brazil-based company involved in the electric utilities industry. The Company operates in one business segment: Distribution of electric energy. The Company is authorized to operate as an electric power utility concessionaire, primarily in the distribution and sale of electric power in approximately 25 municipalities in the metropolitan region of Greater Sao Paulo, Brazil. Its concession area comprises more than 4.500 square kilometers. The Company is directly controlled by Enel Brasil SA and indirectly controlled by Enel SpA.</t>
-  </si>
-  <si>
-    <t>EMAE Empresa Metropolitana de Aguas e Energia SA (EMAE) is a Brazil-based company involved in the energy sector. The Company is engaged in the planning, construction, operation and maintenance of systems of production, storage and commercialization of energy, as well as the operation of flood control system. The Company has the concession for operation of five hydroelectric plants: Henry Borden, Porto Goes, Rasgao, Izabel and Edgard de Souza, which form a power generation complex located in the Brazilian region of Alto Tiete. Additionally, the Company operates two pumping stations. As of December 31, 2011, the Company’s subsidiary was Pirapora Energia SA. As of February 22, 2012, the Company's major shareholders were Eletrobras, with a 39.02% stake, and the government of the state of Sao Paulo, with 38.99%.</t>
-  </si>
-  <si>
-    <t>Embraer SA is a Brazil-based jets manufacturer. The Company produces aircraft for commercial and executive aviation, as well as for defense and security purposes and related services. Its segments include Commercial aviation business, which involves the development, production and sale of commercial jets, and rendering of support services, particularly in the regional aviation segment and aircraft leases; Executive Jet business, which markets its executive jets to companies, including fractional ownership companies, charter and air-taxi companies, high-net-worth individuals and to flight academies; Defense and Security Business segment, which conceives, designs, develops, manufactures and supports a range of integrated solutions for the defense and security market; and Other Related Businesses segment, which provides fuel systems, structural parts, and mechanical and hydraulic systems to Sikorsky Aircraft Corporation for its production of helicopters.</t>
-  </si>
-  <si>
-    <t>Enauta Participacoes SA, formerly known as QGEP Participacoes SA and Latina Participacoes SA, is a Brazil-based company principally engaged in the oil and gas industry. The Company operates through single segment: Oil and gas exploration and production, which focuses on the exploration, production, industrial processing and marketing of crude oil, natural gas and its derivatives. The Company holds interests in exploration and production concessions located in the offshore Brazilian continental margin. Its asset localizations include various basins, such as Santos, Espirito Santo, Camamu-Almada, Camamu-Almada, Pernambuco-Paraiba, Ceara and Foz do Amazonas. The Company is a subsidiary of Queiroz Galvao SA.</t>
-  </si>
-  <si>
-    <t>EDP Energias do Brasil SA is a Brazil-based company primarily engaged in the electricity distribution. The Company's activities are divided into four business segments: Distribution, Generation, Sales and Others. The Distribution division focuses on supplying electric power to households, as well as commercial and industrial customers in the states of Sao Paulo and Espirito Santo, Brazil. The Generation division produces electricity by operating hydroelectric power plants (HPPs), small hydroelectric power plants (SHPPs) and thermal power plants (TPPs). The Sales division is responsible for the commercialization of electric power. The Others division includes infrastructure construction work, power efficiency projects and advisory services, among others. The Company owns a number of subsidiaries, such as Bandeirante Energia SA, Espirito Santo Centrais Eletricas SA, Energest SA and EDP GRID Gestao de Redes Inteligentes de Distribuicao SA.</t>
-  </si>
-  <si>
-    <t>ENEVA SA, formerly known as MPX Energia SA, is a Brazil-based company principally engaged in the energy sector. The Company’s activities are divided into four operational segments: Gas-powered Thermal Plants, involved in operation of gas thermal power plants in Parnaiba Complex, located in the State of Maranhao; Upstream, dedicated to the exploration, development, production and commercialization of oil and natural gas and its derivatives; Coal-powered Thermal Plants, engaged in the operation of coal thermal power plants located in the States of Maranhao and Ceara; and Commercialization of Energy, focused on the sale of energy generated by the Firm’s power plants. The Company operates by the number of subsidiaries, including Eneva Comercializadora de Energia Ltda, Centrais Termeletricas Sao Marcos SA and Parnaiba BV, among others.</t>
-  </si>
-  <si>
-    <t>Energisa SA is a Brazil-based holding company involved in the energy sector. Through its subsidiaries, the Company is mainly engaged in the distribution and marketing of electric energy. It distributes energy for residential, industrial, commercial and rural consumption. The Company operates in the states of Rio de Janeiro, Sao Paulo, Parana, Minas Gerais, Sergipe, Paraiba, Mato Grosso, Mato Grosso do Sul, Tocantins, Rondonia and Acre. In addition to entities engaged in the electric energy distribution, the Company's subsidiaries include Energisa Solucoes SA, which provides services related to generation and distribution of electric power; Energisa Servicos Aereos SA, which provides thermographic inspection services; and Energisa Planejamento e Corretagem Seguros Ltda, involved in the insurance brokerage, among others.</t>
-  </si>
-  <si>
-    <t>Enjoei SA, formerly known as Enjoei.com.br Atividades de Internet SA, is a Brazil-based company engaged in the field of e-commerce services. The Firm acts as an online marketplace operator, through the digital platform enjoei.com.br. The Company enables the users to sell and buy used goods, such as apparel, shoes, accessories, furniture, kitchen appliances, telephones, headphones, games and computers, among others. The customers create an account, upload pictures of products for sale, categorize them and provide description, price and other necessary information. The platform offers delivery and payment solutions, and additional functionalities as ability to chat and negotiate the price with the seller. Furthermore, the users can browse the content by filters, such as price, brand, color, freight and product condition.</t>
+    <t>Electro Aço Altona S.A., a casting and machining company, supplies parts in low, medium, and high carbon steel and alloys in Brazil. It offers alloyed irons for special applications, raw or machined parts, add-ons for equipment, steels and alloys resistant to abrasion, steels and alloys resistant to high temperatures, steels and alloys resistant to corrosion, alloyed irons, special alloys, and super alloys, as well as duplex and superduplex products. The company serves automotive, automakers machinery, heavy transport, power generation, mining, dredging, oil and gas, and offshore markets. It also exports its products to approximately 25 countries. The company was formerly known as Auerbach &amp; Werner and changed its name to Electro Aço Altona S.A. in 1933. Electro Aço Altona S.A. was founded in 1924 and is based in Blumenau, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Equatorial Maranhao Distribuidora de Energia SA, formerly Companhia Energetica do Maranhao Cemar, is a Brazil-based holding company investing in the local electric energy sector. The Company, through its subsidiaries, is active in the generation, distribution, transmission and marketing of electric power. The Company supplies electric power to the industrial, residential, commercial and rural sectors. The Company has a concession for the distribution of electric power in the municipalities of different Brazilian states. </t>
   </si>
   <si>
-    <t>Energisa Mato Grosso Distribuidora de Energia SA, formerly Centrais Eletricas Matogrossenses SA Cemat, is a Brazil-based company primarily engaged in electric power industry. The Company is involved in the distribution, transmission and generation of electrical energy. The Company operates a transmission and distribution network, as well as five thermoelectric generation plants, which are located in Colniza, Comodoro, Guariba, Paranorte and Rondolandia. The Company provides electric power for residential, industrial, commercial, rural, public lighting and public service consumers. As of December 31, 2011, the Company held a concession for the area of the entire Brazilian state of Mato Grosso, which totals 903,358 square kilometers, serving approximately 1.1 million customers in 141 municipalities.</t>
-  </si>
-  <si>
-    <t>Equatorial Energia SA (Equatorial) is a Brazil-based company engaged in the energy sector. The Company holds equity interest in other companies, all in the electric energy industry, mainly with operations related to generation or distribution of electric energy. The Company's activities are divided into four segments: Distribution, responsible for energy distribution in the state of Maranhao and Para, Brazil; Generation, generating electricity through thermoelectric plants; Services / Sale, offering trading electricity, billing services, as well as maintenance of electrical installations, among others; and Central Management, including corporate and administration operations. The Company operates through a number of subsidiaries, such as Companhia Energetica do Maranhao (CEMAR), Centrais Eletricas do Para SA (CELPA), Geradora de Energia do Norte SA (Getamar), Companhia Energetica do Piaui and Equatorial Solucoes SA.</t>
+    <t>Energisa Mato Grosso - Distribuidora de Energia S/A engages in the distribution of electricity. The company was formerly known as Centrais Elétricas Matogrossenses and changed its name to Energisa Mato Grosso - Distribuidora de Energia S/A in February 2015. The company was founded in 1958 and is headquartered in Cuiabá, Brazil. Energisa Mato Grosso - Distribuidora de Energia S/A is a subsidiary of Rede Energia Participações S.A.</t>
+  </si>
+  <si>
+    <t>Equatorial Energia S.A., through its subsidiaries, engages in the electricity generation, distribution, transmission, and sanitation operations in Brazil. It operates through Distribution, Transmission, Wind Generation, Services, Sanitation, and Other segments. The company generates energy from wind, solar, biomass, qualified co-generation, and hydroelectric plants. It also distributes electric energy in the 217 municipalities of Maranhão State with a concession area of approximately 332,000 square kilometers serving approximately 2.5 million consumers; and 144 municipalities of Pará State with a concession area covering 1,248,000 square kilometers serving approximately 2.6 million consumers. In addition, the company distributes electric energy to 224 municipalities of Piauí State with a concession area covering 251,000 square kilometers serving approximately 1.3 million consumers; 102 municipalities of Alagoas State with a concession area covering 27,848 square kilometers serving approximately 1.2 million consumers; 16 municipalities of Amapá State serving approximately 209,000 consumers; and 72 municipalities of Rio de Janeiro State serving approximately 1.8 million consumers. Equatorial Energia S.A. was founded in 1958 and is based in Brasília, Brazil.</t>
   </si>
   <si>
     <t>MPM Corporeos SA is a Brazil-based provider of personal care services. The Company is mainly involved in laser hair removal sector, serving customers in owned and franchised stores in all Brazilian states under the Espacolaser brand and in Argentina under the Definit brand. Its offer is aimed at women and men and includes depilation of 35 and 29 areas of the body, respectively. In addition, through Estudioface brand, the Firm provides facial aesthetics services and treatments, such as botulinum toxin (botox) injections, other filling, laser facial treatments and peeling, among others.</t>
   </si>
   <si>
-    <t>Manufatura de Brinquedos Estrela SA is a Brazil-based company primarily engaged in the manufacture and trade of toys. The Company’s product portfolio includes dolls, wooden toys, games, balls, radio-controlled helicopters and cars, railway models, play dough and toy cars, among others. The Company’s flagship brand is Estrela. As of December 31, 2011, the Company held a 99.99% stake in Gioex - Estrela Distribuidora Comercial Importadora e Exportadora Ltda, which is primarily involved in the trade, import and export of toys.</t>
-  </si>
-  <si>
-    <t>Eternit SA, formerly Industrias Eternit SA, is a Brazil-based company engaged in the manufacture and sale of construction materials made from fiber cement, cement, concrete, plaster, metal and plastic. The Company’s products include roof coverings and shapes made from fiber-cement and cement reinforced with synthetic fiber; metallic roof coverings; ceramic sanitary ware; wall panels; water tanks; water filters for pipes, and metallic shapes used in the construction of roofing and walls, among others. Additionally, the Company’s subsidiary Sama SA Mineracoes Associadas is engaged in the extraction and processing of chrysotile asbestos. As of December 31, 2011, the Company operated four plants located in the Brazilian states of Bahia, Goias, Parana and Rio de Janeiro, and had a number of subsidiaries, such as Engedis Distribuicao Ltda, Precon Goias Industrial Ltda and Wagner Ltda, among others. In February 2012, the Company entered in the segment of metal sanitary ware.</t>
-  </si>
-  <si>
-    <t>Eucatex SA Industria e Comercio is a Brazil-based company primarily engaged in the manufacture of wooden panels and paints. The Company produces and sells hardboard, medium density fiberboard (MDF), thin high density fiberboard (THDF), medium density particleboard (MDP), laminate flooring and doors, among others. Through its subsidiaries, the Company is also active in the production and sale of decorative paints and varnishes, forestry activities and electric energy distribution. As of December 31, 2011, the Company operated four industrial units and approximately 45,400 hectares of forest located in the Brazilian state of Sao Paulo. As of December 31, 2011, the Company's direct subsidiaries were Eucatex Tintas e Vernizes Ltda, Eucatex Distribuidora de Solventes Ltda, Eucatex of North America Inc, Tambore Ind e Com Prod Met Ltda, Eucatex Comercial e Logistica Ltda, Novo Prisma Agro-Florestal Ltda, Eucatex Imobiliaria Ltda and ECTX SA.</t>
+    <t>Manufatura de Brinquedos Estrela S.A. manufactures and sells toys in Brazil and internationally. It also publishes and distributes children’s books to public and private schools; and develops bilingual books and e-books. The company sells its products through e-commerce platform and physical stores. In addition, it sells various children's cosmetics through its own stores in shopping malls. The company was formerly known as Brinquedos Estrela and changed its name to Manufatura de Brinquedos Estrela S.A. in December 1994. Manufatura de Brinquedos Estrela S.A. was founded in 1937 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Eternit S.A. engages in roofing tiles business in China. The company offers fiber cement tiles, solar roof titles, and other parts. It provides constructive systems, such as cement sheets, panel wall, siding, and other accessories. Eternit S.A. was founded in 1940 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Eucatex S.A. Indústria e Comércio produces and sells hardboard, wood, and related materials in Brazil. The company provides laminate and vinyl floors, base boards, Eucafix systems, doors, accessories, partitions, MDF and MDP panels, T-HDF panels, high density wood fiber sheets, fiberboards, paint and varnishes, shelves, and other products. It also produces eucalyptus seedlings. The company primarily serves furniture and construction industries. It also exports its products to the United states and Latin America. Eucatex S.A. Indústria e Comércio was founded in 1951 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Even Construtora e Incorporadora SA is a Brazil-based company involved in the real estate sector. The Company focuses on the land identification, appraisal and acquisition; project planning; buildings construction and development, as well as promotion and sale of residential real estate properties. The Company provides services through two brand names: Open, which develops housing projects for low-income families, and Even, which offers residential real estate for middle and high-income families, as well as commercial projects. It mainly operates in the states of Sao Paulo, Rio de Janeiro and Rio Grande do Sul, Brazil. The Company controls numerous subsidiaries, such as Window Jardins Empreendimentos Imobiliarios SA, City Projects Empreendimentos Ltda, Vida Viva Santa Cruz Empreendimentos Imobiliarios SA, Westeven Empreendimentos Imobiliarios Ltda, and Norteven Empreendimentos Imobiliarios Ltda.</t>
   </si>
   <si>
-    <t>EZTEC Empreendimentos e Participacoes SA is a Brazil-based company involved in the real estate development sector. The Company focuses on the land acquisition and subdivision, project development, buildings construction and sale, as well as management and leasing of own properties, among others. In addition, it provides services related to civil engineering operations, such as supervision, research, projecting and other technical services. The Company's activities are divided into two business segments: Commercial, which develops office buildings, and Residential, which develops housing projects for low, middle and high-income customers. It primarily invests in lands located in the city and metropolitan area of Sao Paulo, Brazil.</t>
+    <t>EZTEC Empreendimentos e Participações S.A. engages in the engineering, construction, and real estate development activities in Brazil and internationally. The company provides manages and leases properties; construction of condominiums; and subdivision of land. It also engages in the provision of services related to construction, supervision, studies, and projects; and execution of civil engineering works and services. The company was founded in 1979 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Companhia de Ferro Ligas da Bahia Ferbasa is a Brazil-based company primarily involved in the production and marketing of ferroalloys. The Company divides its business into two main segments: Chromium Alloys, which is engaged in the manufacture and sale of high and low carbon chromium ferroalloys, and Silicon, which includes operations related to the production of silicon ferroalloys. In addition, the Company is involved in the chromite mining; manufacture and sale of quicklime and hydrated lime; reforestation and charcoal production, and economic utilization of solid waste generated in the process of ferroalloys production, including the manufacture and marketing of crushed slag. As of December 31, 2011, the Company’s subsidiaries included Mineracao Vale do Jacurici SA, Reflora - Reflorestadora e Agricola SA, Industria de Minerios Damacal Ltda and Silicio de Alta Pureza da Bahia SA - Silbasa.</t>
   </si>
   <si>
-    <t>Fertilizantes Heringer SA is a Brazil-based company primarily engaged in the production, marketing and distribution of fertilizers under the Heringer brand name. The Company organizes its business into two segments: Industrial, which constists of sulfuric acid and single super phosphate (SSP) production plant, and Mixing Plants segment, which includes fertilizer mixing industrial units. As of December 31, 2011, the Company operated 19 fertilizer mixing plants. The Company’s products are used in the crop production sector, including farming of cane, soybeans, corn and coffee, among others. Through its subsidiary Logfert Transportes SA, the Company is also involved in the road transport operations. On January 4, 2012, it acquired Maxifertil Fertilizantes Ltda, located in the municipality of Porto Alegre. On June 29, 2012, the Company completed the operation of merger by incorporation of its subsidiary Maxifertil Fertilizantes Ltda.</t>
-  </si>
-  <si>
-    <t>Unifique Telecomunicacoes SA, formerly known as TPA Telecomunicacoes Ltda is a Brazil-based company engaged in the telecommunications operator’ sectot. The Company offers solutions for homes and businesses, combining technology and customer service to offer fixed broadband services, fixed telephony services, high-definition pay-TV services. The Company also provides the wholesale services, including interconnection, Hosting, Bare Metal, Colocation, BaaS, DRaaS, Saas services, equipment leasing, OTT (Over The Top) services: Unify Play and PlayMaxi, and cellular telephony - Virtual Mobile Operator (MVNO). Located in the southern region of Brazil, the Company covers more than 1.7 million homes and has more than 23,000 km of fiber optic network.</t>
-  </si>
-  <si>
-    <t>Fleury SA is a Brazil-based company engaged in the provision of medical laboratory services. The Company’s activities are divided into three business lines: Patient Service Centers (PSC), B2B and Dental Diagnosis. The PCS division offers private medical diagnostics. The B2B division is responsible for clinical analysis and diagnostic imaging in partner hospitals, as well as tests for laboratories, hospitals and clinics throughout Brazil. The Dental Diagnosis division provides dental diagnostic imaging through Papaiz Associados Diagnosticos por Imagem SA, a joint venture with Odontoprev SA. The Company operates through several brands, such as Fleury Medicina e Saude, Clinica Felippe Mattoso e Weinmann, a+ Medicina Diagnostica, Diagnoson a+, Diagmax and Inlab, among others.</t>
-  </si>
-  <si>
-    <t>Fras Le SA is a Brazil-based company principally engaged in the manufacture of friction materials. The Company focuses on the design, production, commercialization, export and import of friction materials for motor vehicle brake systems. The Company's product line includes clutch facings, brake linings, brake shoes and brake pads for trucks, buses, cars, tractors, subways, lifts and aircrafts, among others. The Company's brand portfolio includes Fras-le and Lonaflex. Its activities are divided into two business segments: Automakers, which offers products for the automotive market, and Replacement, which provides friction materials for the spare parts market. The Company operates through a number of subsidiaries in the Americas, Europe, Asia and South Africa. The Company is controlled by Randon SA Implementos e Participacoes.</t>
-  </si>
-  <si>
-    <t>Metalfrio Solutions SA is a Brazil-based company involved in the production of plug-in commercial refrigerators and freezers. The Company's activities are divided into two business segments: Products and Services. The Products division is responsible for the manufacture and sale of domestic and commercial refrigerators and freezers. The Services division focuses on the maintenance and technical assistance for the products, sale of spare parts to authorized dealers and product customers, as well as logistics services. The Company distributes products under a number of brand names, such as Metalfrio, Derby, Caravell and Klimasan. It operates production plants in Europe and the Americas. The Company's subsidiaries include Metalfrio Solutions Sogutma Sanayi ve Ticaret Anonim Sirket, Metalfrio Solutions Inc, Begur Transportes Rodoviarios, Logistica e Servicos Ltda and Metalfrio Solutions Mexico SA de CV.</t>
+    <t>Fertilizantes Heringer S.A. engages in the production and sale of fertilizers in Brazil. The company offers basic fertilizers, NPK formulas, and specialty fertilizers. It also offers various services, such as incentive programs for soil analysis, technical lectures for rural producers, field days, and pre-and post-sale support services, as well as specialized technical guidance. The company was founded in 1968 and is headquartered in São Paulo, Brazil. Fertilizantes Heringer S.A. operated as a subsidiary of Eurochem Comercio de Produtos Quimicos Ltda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unifique Telecomunicações S.A. provides telecommunications services in Brazil. It offers fixed-line, data storage, data hosting, internet, and pay-TV equipment and services. The company provides SCM multimedia communications services; access to communication networks, portals, content, and Internet information services; and satellite pay television, cable television, microwave pay television, radio activity, data processing, application, internet hosting, and switched fixed telephony services. Unifique Telecomunicações S.A. was founded in 1997 and is headquartered in Timbo, Brazil._x000D_
+</t>
+  </si>
+  <si>
+    <t>Fleury S.A., together with its subsidiaries, provides medical services in the diagnostic, treatment, clinical analysis, health management, medical care, orthopedics, and ophthalmology areas in Brazil. The company operates through three segments: Diagnostic Medicine, Integrated Medicine, and Dental. It provides laboratory and imaging tests, genomics, health management and platform, diagnostic information, check-up and reference laboratory, clinic day, infusion center, orthopedics and ophthalmology, dental imaging tests, and diagnostic imaging services. The company also offers Saúde I, a digital healthcare platform that provides services, including scheduling and performing teleconsultations, and face-to-face consultations, as well as scheduling and accessing diagnostic test results, electronic medical record, and self-manage health issues. It operates customer service units and hospital-based units under the Fleury, Felippe Mattoso, Labs a+, Diagnoson a+, Papaiz, Serdil, LAFE, Instituto de Radiologia de Natal, Centro de Patologia Clínica, Diagmax, Santécorp, a+SP, CIP, Saha, Moacir Cunha, Vita, e Campana, Methodos, Pretti, Bioclinico, a+PE, Marcelo Magalhaes, Inlab, Weinmann, a+, a+BA, IRN, CPC, and a+PI brand names. The company was founded in 1926 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Fras-le S.A. develops, produces, and sells friction materials for braking systems and other products in Brazil. The company offers brake linings for commercial vehicles; brake pads for commercial vehicles, automobiles, and motorcycles; brake linings for automobiles and rail shoes; brake shoes for commercial vehicles and automobiles; and clutch linings, molded linings, universal sheets, and industrial products. It also provides brake discs, drums, wheel Hubs, master cylinders, servo brakes, repair kits, actuators, and check valves for the brake system; shock absorbers, shock absorbers kits, suspension bushing kits, pivots, busbar, trays, and ball joints for the suspension system, steering, and powertrain; pistons, valves, water pumps, oil pumps, fuel pumps, hoses, air filters, and gaskets for the engine; brake fluids, coolants, antifreeze, anticorrosive, additives, and lubricants; and cardan and accessories, bearings, crossheads, axles, shafts, repair kits, pinions, crowns, homokinetic joint gaskets, flanges, linkage bars, reaction bars, tie rod ends, steering bars, connection bars, CV joints, flanges, terminal bars, side steering, platelets, joints, riveters, rivets, dies, and iron and steel scraps. The company also exports its products to Europe, South America, and the Asia Pacific region. It serves OEMs and aftermarkets. The company was founded in 1954 and is headquartered in Caxias do Sul, Brazil.</t>
+  </si>
+  <si>
+    <t>Metalfrio Solutions S.A. manufactures, imports, and sells domestic and commercial refrigerators and freezers in Brazil and internationally. It provides horizontal freezers and refrigerators; vertical freezers for beverages, conservator for frozen goods, and glass door; horizontal glass for ice creams and frozen; optima vertical freezer for ice cream; coolers for soft drinks; subzero glass door used by beer brand; and beer maxx equipment. The company also offers maintenance and technical assistance for products sold by both the company and third parties; sells spare parts; and offers logistic services, as well as leases related goods and services. The company was founded in 1960 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Renar Macas Pomi Frutas SA - em Recuperacao Judicial, formerly Renar Macas SA is a Brazil-based company engaged in growing, trading, exporting and importing apples. The Company produces and sells fresh and processed apples, including such varieties as Gala, Royal Gala, Imperial Gala, Fuji and Fuji Suprema. The entire packaging, palletizing, traceability and loading process is carried out by Pomi Frutas SA. The Company sells its products via own brands: Lias, Malus Frai, Star Apple and Pomi Frutas. The classification and packaging of the products is carried out using a fully computerized operating system and a team of trained and qualified staff members. Pomi Frutas SA has one subsidiary, Pomifrai Fruticultura SA.</t>
@@ -2338,10 +2282,10 @@
     <t xml:space="preserve">Rio Paranapanema Energia SA, formerly Duke Energy International Geracao Paranapanema SA, is a Brazil-based company involved in the energy sector. The Company is engaged in the generation and commercialization of electric energy for industrial, residential and commercial consumption, among others. It operates eight hydroelectric power plants, with an installed capacity of 2,241 megawatts (MW): UHE Capivara, UHE Chavantes, UHE Jurumirim, UHE Salto Grande, UHE Taquarucu, UHE Rosana and 49.7% of the Canoas complex, formed by UHE Canoas I and II. It sells energy through bilateral contracts, auctions and on the spot market. In addition, the Company is engaged in production of gas. </t>
   </si>
   <si>
-    <t>Getnet Adquirência e Serviços Para Meios de Pagamento S.A. operates in the acquiring and services market for means of payment regulated by the Council National Monetary Council and the Central Bank of Brazil. The company engages in the provision of accreditation services for retailer and service providers establishments to accept credit and debit cards; capturing, transmission, and processing of data and information; and installation, uninstallation, monitoring, supply, maintenance, and leasing of equipment used in transaction capture networks, such as point-of-sales devices, as well as acts as a distributor of telecommunication operators for the commercialization of telephony and data recharge digital credits. It is also involved in the management of payments and receipts made to establishments accredited to its network; development and selling or licensing of software; selling or distributing products and services from entities that provide registry information; provision of technical, commercial, and logistic infrastructure services for the business related to the receipt of bills from dealers, banks, and other collection documents; and issuing electronic currency. The company was formerly known as Farthi Empreendimentos e Participações S.A. and changed its name to Getnet Adquirência e Serviços para Meios de Pagamento S.A. in August 2014. The company was founded in 2003 and is headquartered in São Paulo, Brazil. Getnet Adquirência e Serviços para Meios de Pagamento S.A. operates as a subsidiary of Banco Santander (Brasil) S.A.</t>
-  </si>
-  <si>
-    <t>Gafisa S.A. is a diversified national homebuilder. The Company's segments are Gafisa (for ventures targeted at high and medium income) and Tenda (for ventures targeted at low income). The Company's brands include Tenda, which serves the affordable entry-level housing segments, Gafisa, which offers a range of residential options to the mid to higher income segments and Alphaville (equity method investment), which focuses on the identification, development and sale of residential communities. In addition, it provides construction services to third parties on certain developments in the Gafisa segment where it retains an equity interest. Its real estate business activities include developments for sale of residential units, land subdivisions and commercial buildings; construction services, and sale of units through its brokerage subsidiaries, Gafisa Vendas Intermediacao Imobiliaria Ltda and Gafisa Vendas in Rio de Janeiro, jointly referred to as Gafisa Vendas.</t>
+    <t>Getnet Adquirência e Serviços Para Meios de Pagamento S.A. operates in the acquiring and services market for means of payment regulated by the Council National Monetary Council and the Central Bank of Brazil. The company engages in the provision of accreditation services for retailer and service providers establishments to accept credit and debit cards; capturing, transmission, and processing of data and information; and installation, uninstallation, monitoring, supply, maintenance, and leasing of equipment used in transaction capture networks, such as point-of-sales devices, as well as acts as a distributor of telecommunication operators for the commercialization of telephony and data recharge digital credits. It is also involved in the management of payments and receipts made to establishments accredited to its network; development and selling or licensing of software; selling or distributing products and services from entities that provide registry information; provision of technical, commercial, and logistic infrastructure services for the business related to the receipt of bills from dealers, banks, and other collection documents; and issuing electronic currency. The company was formerly known as Farthi Empreendimentos e Participações S.A. and changed its name to Getnet Adquirência e Serviços para Meios de Pagamento S.A. in August 2014. The company was founded in 2003 and is headquartered in São Paulo, Brazil. Getnet Adquirência e Serviços para Meios de Pagamento S.A. operates as a subsidiary of PagoNxt Merchant Solutions, S.L.</t>
+  </si>
+  <si>
+    <t>Gafisa S.A. operates as a homebuilder under the Gafisa brand name in Brazil. The company engages in the development, sale, and brokerage of residential units, such as luxury buildings with swimming pools, gyms, visitor parking, and other amenities for higher and middle-income customers; entry-level buildings and house units for middle-low-income customers; and commercial units. It also develops land subdivisions for sale; and provides construction, technical, and real estate management services to third parties. Gafisa S.A. was founded in 1954 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Gerdau SA is a Brazil-based manufacturer of steel products. The Company is engaged in the production and commercialization of steel products in general, through its mills located in Argentina, Brazil, Canada, Colombia, the United States, Mexico, Peru, the Dominican Republic, Uruguay and Venezuela. The Firm’s product portfolio includes crude steel; finished products for the construction industry, such as rebar, wire-rods, structural shapes, hot-rolled coils and heavy plates; finished industrial products, such as commercial rolled-steel bars, light profiles and wires; agricultural products, such as stakes, smooth wire and barbed-wire; and special steel items. The Company’s activities include also operations of iron ore mines located in the state of Minas Gerais.</t>
@@ -2353,11 +2297,11 @@
     <t>Grupo Mateus SA is a Brazil-based company engaged in the food distribution sector. The Company's activities are divided into two business lines: Wholesale and Retail. The Wholesale area focuses on self-service stores and delivery establishments, under the Mix Atacarejo and Armazem Mateus brand names, for wholesale customers. The Retail segment operates supermarkets under Mateus Supermercados and Hiper Mateus brand names, convenience shops under Camino brand name, appliance and furniture stores under Eletro Mateus brand name, as well as e-commerce platforms: Mateus Online, Canto do Chef and Super-Mercado do Futuro. The Company provides also financial services such as consumer credit solutions, through MateusCard and Crednosso cards.</t>
   </si>
   <si>
-    <t xml:space="preserve">Notre Dame Intermédica Participações S.A. provides preventive medicine programs in Brazil. The company offers preventive medicine programs for pregnant women and the elderly, as well as for patients with chronic diseases, such as hypertension, diabetes, obesity, back problems, asthma, bronchitis, and heart diseases; and oncology programs. It also provides health, dental, and occupational health plans. The company was formerly known as BCBH Participações S.A. and changed its name to Notre Dame Intermédica Participações S.A. on April 25, 2017. Notre Dame Intermédica Participações S.A. was founded in 1968 and is headquartered in São Paulo, Brazil. As of February 11, 2022, Notre Dame Intermédica Participações S.A. operates as a subsidiary of Hapvida Participações e Investimentos S.A.
+    <t xml:space="preserve">Notre Dame Intermédica Participações S.A. provides preventive medicine programs in Brazil. The company offers preventive medicine programs for pregnant women and the elderly, as well as for patients with chronic diseases, such as hypertension, diabetes, obesity, back problems, asthma, bronchitis, and heart diseases; and oncology programs. It also provides health, dental, and occupational health plans. The company was formerly known as BCBH Participações S.A. and changed its name to Notre Dame Intermédica Participações S.A. on April 25, 2017. Notre Dame Intermédica Participações S.A. was founded in 1968 and is headquartered in São Paulo, Brazil. As of February 11, 2022, Notre Dame Intermédica Participações S.A. operates as a subsidiary of Hapvida Participações e Investimentos S.A._x000D_
 </t>
   </si>
   <si>
-    <t>Metalurgica Gerdau SA, formerly Metalurgica Hugo Gerdau SA, is a Brazil-based company engaged in the steel production industry. The Company focuses on manufacturing long steel and flat steel items, principally through the process of fabrication in electrical furnaces from scrap metal and purchased pig iron, as well as by producing steel from iron ore in the blast furnace and by direct reduction. Its activities are divided into four segments: Operations in Brazil, Operations in North America, Operations in Latin America and Special Steel Unit. Its products are distributed in various sectors, such as civil construction, agriculture, industrial automotive and The Company operates production plants in Brazil, Argentina, Chile, Colombia, Mexico, Peru, Venezuela, the United States, Canada, Spain and India, among others.</t>
+    <t>Metalurgica Gerdau S.A., together with its subsidiaries, produces and supplies long and special steel products in Brazil and internationally. The company offers rebars, bars, profiles and drawn products, billets, blooms, slabs, wire rod, structural profiles, iron ore, heavy and light structural shapes, stainless steel, as well as square, round, and flat bars. The company was formerly known as METALÚRGICA HUGO GERDAU S.A and changed its name to Metalurgica Gerdau S.A. in June 1965. Metalurgica Gerdau S.A. is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Gol Linhas Aereas Inteligentes SA is a Brazil-based airline that provides scheduled air transportation for passengers and cargo to over 100 destinations in Brazil, South America, the Caribbean and the United States. The Company operates through two segments: Flight Transportation and Loyalty Program. The Flight Transportation segment operations originate from its subsidiary Gol Linhas Aereas SA (GLA) for the provision of air transportation services. This segment includes GOLLOG, the Company's cargo transportation and logistics business. The Firm operates a fleet of approximately 140 Boeing 737 aircrafts. The Loyalty program segment operations are represented by the SMILES coalition loyalty program, which enables clients to accumulate miles and redeem tickets for more than 700 locations worldwide.</t>
@@ -2366,16 +2310,16 @@
     <t>Companhia Celg de Participacoes CELGPar is a Brazil-based holding company principally engaged in the electric power industry. Through its subsidiaries, the Company is involved in the study, planning, design, building, operation and exploration of electrical energy generation, transmission and distribution systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">GP Investments, Ltd. is a Bermuda-based private equity and alternative investments company. The Company’s investment strategy includes private equity and real estate businesses. In private equity business, the Company invests to acquire control or joint control with the original owners with the objective to lead the invested company. In real estate business, the Company invests primarily at the asset level, directly in projects in the residential, office and retail segments. The Company’s investment portfolio includes Spice Private Equity Ltd., Grupo SBF, BR Properties, and 2TM Group. The Company has invested in approximately 15 sectors such as industry, health services, mobile resource management, retail, logistics, real estate/shopping malls, Internet and technology, hotel, telecommunication, utilities, education, entertainment/restaurants, consumer goods, human resources (HR) services, and oil and gas. </t>
+    <t>GP Investments, Ltd. is a private equity, venture capital and alternative investments firm specializing in leveraged acquisitions, distressed/vulture, buyouts, recapitalizations, industry consolidations, corporate divestitures, turnaround, growth capital, and Greenfield investments in mature, large-sized and mid-sized companies. The firm does not invest in start-ups, and sectors including technology, biotech, weapons, tobacco, and other industries that have negative social and environmental implications. The firm seeks to invest across a broad range of industry sectors including retail, internet and technology, telecommunications, consumer goods, logistics, real estate and shopping malls, health care services, industrial, entertainment and restaurants, education, human resources services, oil and gas, mobile resource management, hotels and utilities. It prefers to invest in companies based in Latin America, with a primary focus on Brazil. It acquires controlling or joint-control stakes in companies with annual revenue of more than $60 million and an average investment ticket between $100 million and $250 million. The firm does not invest more than 20 percent or 35 percent of capital in a single company or sector. The firm exits its investments through trade sales, IPOs, block trades and follow-on offerings. It also makes real estate investments in assets, directly in projects in the residential, office and retail segments. GP Investments, Ltd. was founded in 1993 and is based in São Paulo, Brazil with additional offices in Hamilton, Bermuda; New York, New York; London, United Kingdom and Mexico City, Mexico.</t>
   </si>
   <si>
     <t>Grendene SA is a Brazil-based company mainly engaged in the production and sale of synthetic footwear for domestic and foreign markets. The Company's activities are divided into two business segments: Footwear and Furniture. The Footwear division develops, manufactures, distributes and sells shoes for various uses and for all social classes, in the male, female, child and mass market segments. Its brand names portfolio includes Rider, Ipanema, Zaxi, Grendha, Grendene Kids and Melissa, among others. The Furniture division focuses on the sale, import and export of furniture and supplements made from plastic. The Company sells its products through commercial representatives, distributors and direct export. It operates a number of manufacturing plants in Brazil. It controls Grendene Argentina SA, MHL Calcados Ltda and Grendene USA Inc, among others.</t>
   </si>
   <si>
-    <t xml:space="preserve">General Shopping e Outlets do Brasil SA, formerly known as General Shopping Brasil SA, is a Brazil-based company primarily engaged in the operation of shopping centers. The Company’s main activities include the planning and management of shopping centers; lease of commercial premises; rental of advertising and promotional space, and administration of parking lots in shopping centers. Additionally, the Company and its subsidiaries are involved in the rental of equipment for electricity supply, as well as in the management of water supply. The Company has such subsidiaries as: Levian Participacoes e Empreendimentos Ltda, Atlas Participacoes Ltda and General Shopping Finance Limited, among others. </t>
-  </si>
-  <si>
-    <t>Guararapes Confeccoes SA is a Brazil-based company primarily engaged in the fashion industry. The Company is involved in the manufacture, wholesale, retail and export of clothing and fabrics, as well as in the import and wholesale of footwear, bath and table linens, perfumes and cosmetics, among others. The Company's activities are divided into three business segments: Retail, which focuses on selling apparel and other goods through stores network under the Lojas Riachuelo brand name; Finance, which offers consumer loans granted through credit cards, and Other, which includes commercial real estate rental and management, as well as road trucking, among others. The Company operates through a number of subsidiaries, such as Lojas Riachuelo SA, Midway Shopping Center Ltda, Midway SA - Credito Financiamento e Investimento and Transportadora Casa Verde Ltda.</t>
+    <t>General Shopping e Outlets do Brasil S.A. owns and manages various shopping centers in Brazil. It leases commercial, advertising, and promotional space; plans, manages, and operates shopping center and parking lots; and plans and leases electrical and water supply equipment. The company also provides access provider services to communications networks, multimedia communication, and voice over internet protocol services; leases security equipment and video cameras; and develops real estate properties and projects. In addition, it engages in the development and management of retail and wholesale companies, as well as acquisition, creation, and management of companies in retail sector, master franchises, and franchising companies; and purchase, sale, and lease of equipment for generation, transmission, and distribution of energy, as well as provision of installation, maintenance, and consulting services. Further, the company purchases, sells, leases, urbanizes, mortgages, develops, builds, and manages its own and third party real estate or jointly owned real estate properties; and leases water exploration, treatment, and distribution equipment. The company was formerly known as General Shopping Brasil S.A. The company was founded in 1989 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Guararapes Confecções S.A. engages in the manufacture, distribution, and retail of fashion clothes in Brazil. It also offers financial services, including interest-bearing installment sales, personal loans, and cash withdrawals; and financial products. In addition, it owns Shopping Midway Mall located in Natal. As of December 31, 2021, it operated a network of 364 stores. The company was founded in 1947 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Haga SA Industria e Comercio is a Brazil-based company primarily involved in the manufacture of iron and metal articles. The Company is engaged in the production, sale and export of locks, keys, hinges and padlocks for construction sector, as well as for marine, industrial and furniture industries. Haga sells its products under the brand name Haga. The Company’s products are organizes in various lines, such as Design, Inox, Futura, Classic, Standard and Colonial, among others. The Company has its industrial facilities in the city of Nova Friburgo, which is located in the state of Rio de Janeiro. As of December 31, 2011, its subsidiary was Fullmetal Industria e Comercio SA. On March 19, 2012, the Company's bakrupcy process was ended and all the liabilities were declared extinguished.</t>
@@ -2384,7 +2328,7 @@
     <t xml:space="preserve">Hapvida Participacoes e Investimentos SA (Hapvida) is a Brazil-based holding healthcare company. The Company and its subsidiaries main activities are the coverage of costs of medical, hospital and dental care of its associates, the provision of medical, hospital and dentistry services and examinations and diagnoses per image. Hapvida has different healthcare facilities such as hospitals, clinics or diagnostic imaging units. The Company operates in the Northeast of Brazil, in more than 10 states such as Alagoas, Amazonas, Bahia, Pernambuco, Rio Grande do Norte, Sergipe, among others. </t>
   </si>
   <si>
-    <t>Helbor Empreendimentos SA, formerly Helbor Empreendimentos Imobiliarios Ltda, is a Brazil-based company involved in the real estate sector. The Company is principally engaged in the development, acquisition, sale and management of residential and commercial real estate properties. The Company is presented in the domestic market in around ten states and the Federal District, covering approximately 31 Brazilian cities. The Company operates through a numerous subsidiaries, including SCP Helbor Resort Reserva do Mar, SCP Helbor Tendence, SCP Howa, SCP Coral Gables, SPE Capital Federal Investimentos Imobiliarios Ltda, SCP Edificio Helbor Home Flex Gonzaga and SCP Helbor Reserva do Itapety, among others.</t>
+    <t>Helbor Empreendimentos S.A. engages in the real estate development activities in Brazil. The company was formerly known as Helbor Empreendimentos Imobiliarios Ltda. Helbor Empreendimentos S.A. was founded in 1977 and is headquartered in Mogi das Cruzes, Brazil.</t>
   </si>
   <si>
     <t>HBR Realty Empreendimentos Imobiliarios SA is a Brazil-based company involved in the development and administration of nonresidential real estate located mainly in the state of Sao Paulo. The Company operates through four business divisions: ComVem, focused on commercial units built in stand-alone model or located on the ground floor of residential buildings, through partnerships with developers; HBR3A, dedicated to high-end office buildings; HBR Malls, engaged in the acquisition and management of shopping centers; and HBR Opportunities, which includes other assets, such as hotels, parking, and self-storage, among others. In addition, the Company provides consulting services for Real Estate Investment Trusts (REITs).</t>
@@ -2396,19 +2340,19 @@
     <t>Companhia Habitasul de Participacoes (formerly Habitasul Administracao e Participacoes Ltda) is a Brazil-based holding company principally active in the real estate sector. Through its subsidiaries, the Company is engaged in the purchase, sale, rental and management of real estate properties, as well as supervision of works, studies and projects related to real estate. It also offers services for the hospitality industry, such as management services for hotels, resorts and restaurants. Additionally, through its affiliated companies, the Company is active in the production of pulp, paper, packaging, wooden furniture and resins. As of December 31, 2010, the Company had a number of subsidiaries, including Habitasul Desenvolvimentos Imobiliarios SA, Habitasul Credito Imobiliario SA, Habitasul Comercio e Representacoes SA, JI Administracao Hoteleira Ltda, Jurere Praia Hotel Ltda and Consulplan - Consultoria e Planejamento Ltda, among others.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hercules SA Fabrica De Talheres (Hercules) is a Brazil-based company principally engaged in the manufacture, import, export and commercialization of tableware and kitchen utensils. The Company is structured into three segments: Plaza Hercules, manufacturing and selling utensils, tray, shears and bowl, among others; Herules Mundial, manufacturing and selling stamped knives, professional knives and forged knives; and Hercules, manufacturing and selling shears, serving tray sets, pans, flatware and appliances, among others. As of December 31, 2010 the Company operated through a coalition with Mundial SA, a company present in Brazil and overseas markets. </t>
+    <t>Hercules S.A - Fábrica de Talheres manufactures and sells cutlery products in Brazil. The company’s products include pots, knives, pans, tableware, and kitchen utensils. It sells its products under the Hercules brand name. The company was formerly known as Hércules Ltda. and changed its name to Hercules S.A - Fábrica de Talheres in July 1947. Hercules S.A - Fábrica de Talheres was founded in 1936 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Cia. Hering, together with its subsidiaries, produces and markets threads, fabrics, knitwear, textiles, and clothing products in Brazil and Internationally. It offers its products primarily under the Hering, Hering Kids, and DZARM. brand names through retail, franchise, own, and web stores. The company operates 778 stores. Cia. Hering was founded in 1880 and is headquartered in Blumenau, Brazil. As of September 17, 2021, Cia. Hering operates as a subsidiary of Grupo de Moda SOMA S.A..</t>
   </si>
   <si>
-    <t>Hoteis Othon SA - em Recuperacao Judicial, formerly known as Hoteis Othon SA, is a Brazil-based company engaged in the operation of hotels. The Corporate purpose of the Company is to operate in the hospitality market, providing services in the industry hotel covering accommodation, events and congresses, in the field of business and leisure tourism for Brazilian and foreign guests and corporate clients. The Company operates exclusively in the operating segment of Hotel Operations, whether acting with its own hotels, as well as managing third-party hotels. The Company also engages abroad, through contracts of management, being present in five countries: France, Portugal, United States, Argentina and Peru.</t>
+    <t>Hotéis Othon S.A. operates hotels in Brazil. It operates 12 hotels in the Rio Janeiro, São Paulo, Belo Horizonte, Salvador, Fortaleza, Natal and Recifel regions. The company was founded in 1943 and is based in Rio De Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Banco Voiter S.A. operates as a commercial bank in Brazil. The company operates through three segments: Commercial, Foreign Exchange, and Other. It offers current accounts, domestic collections, and Internet banking services. The company’s loans and financing portfolio comprises working capital loans, discount of receivables, overdraft accounts, production chain credit, credit assignment, bank guarantees, and export credit notes. It also offers export and import financing, foreign currency financing, import draft discounts, international guarantees, import letters of credit, and offshore loans. In addition, the company provides structured finance, such as real state products, capital markets, corporate finance, investment management, mergers and acquisitions, and syndications; and agribusiness financing in the areas of agro product certificates, agribusiness credit rights certificates, inventory financing, barter, and agribusiness receivables certificates. Further, it offers fixed income products, investment funds, and derivative products, as well as arbitrage services. Additionally, the company engages in the distribution of securities, financial advisory and corporate finance, agricultural securities, and operations. It serves large and midsized companies. The company was formerly known as Banco Indusval S.A. and changed its name to Banco Voiter S.A. in January 2022. Banco Voiter S.A. was founded in 1967 and is based in São Paulo, Brazil with additional offices in Campinas, Belo Horizonte, Cuiabá, Brazil, and Cayman Islands. Banco Voiter S.A. operates as a subsidiary of Nk 031 Empreendimentos E Participacoes S.A.</t>
   </si>
   <si>
-    <t>Infracommerce CXAAS SA is a Brazil-based digital solutions company for e-commerce. The Company's ecosystem of integrated digital solutions forms a white-label digital ecosystem for brands and industries to have control over their go-to-market digitization journeys through a consumer experience. The Company has operations in Mexico, Colombia, Peu, Chile, Argentina and Uruguay, and is responsible for the e-commerce operations of companies such as Ambev, Nike, Samsung, Motorola, Diageo, Unilever, among others. The Company's ecosystem of integrated digital solutions allows for a modular operation, comprising the following verticals: infra.digital, infra.shop, infra.data, infra.pay and infra.log. The verticals focus, respectively, on experience optimization, complete omnichannel technology, use of artificial intelligence and data, payment and credit solutions, and logistics efficiency.</t>
+    <t>Infracommerce CXaaS S.A. provides digital solutions for various brands and industries in Brazil, Mexico, Colombia, Peru, Chile, Argentina, Uruguay, and Latin America. It offers e-commerce platforms for B2C and B2B, e-commerce operation services, customer relationship management, and customer and seller care service. The company operates infra.digital, infra.shop, infra.data, infra.pay, and infra.log. It also provides omnichannel technology used in artificial and data intelligence, payment and credit solutions, and logistics. The company was founded in 2012 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>IGB Eletronica SA, formerly Gradiente Eletronica SA, is a Brazil-based company engaged in the production and retail of electronic devices. As of December 31, 2011, the Company was involved in the rental of its industrial and commercial real estate properties, manufacturing equipment and the brand name Gradiente to Companhia Brasileira de Tecnologia Digital, which is engaged in the production and sale of consumer electronics. As of December 31, 2011, the Company had two subsidiaries: Pokios Armazens Gerais Ltda and Compania Tilestar SA.</t>
@@ -2417,13 +2361,13 @@
     <t>As per the transaction announced on August 31, 2021, Iguatemi Empresa de Shopping Centers S.A. was acquired by Iguatemi S.A.. Iguatemi Empresa de Shopping Centers S.A. engages in planning, development, and management of regional shopping malls, outlets, and mixed-use real estate complexes with office towers in Brazil. The company is also involved in the rendering services of management of shopping malls and mixed-use real estate complexes; purchase and sale of property; exploration of short-stay parking lots; intermediation in the leasing of promotional spaces; and preparation of studies and projects, as well as planning in promotion and merchandising. As of January 22, 2021, it had interests in 14 malls, 2 premium outlets, 1 power center, and 3 commercial towers with a total GLA of 711 thousand square meters. The company was incorporated in 1979 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Iguatemi SA, formerly known as Jereissati Participacoes SA, is a Brazil-based holding company engaged in the real estate development sector. Through its subsidiary, Iguatemi Empresa de Shopping Centers SA, the Company is focused on the commercial exploration and planning of shopping centers, rendering of administration services of regional shopping centers and of mixed-use real estate complexes, purchase and sale of property, exploration of rotating parking lots, mediation in the leasing of promotional spaces, as well as preparation of studies, projects and planning in promotion and merchandising. The Company holds interests in several real estate units, including Shopping Center Iguatemi Sao Paulo, Shopping Center Iguatemi Campinas, Shopping Center Iguatemi Sao Carlos, JK Iguatemi, Shopping Patio Higienopolis, Praia de Belas Shopping Center, Shopping Center Iguatemi Brasilia and Galleria Shopping, among others.</t>
-  </si>
-  <si>
-    <t>Inepar SA Industria e Construcoes (Inepar) is a Brazil-based company primarily engaged in the provision of industrial construction services for the oil and gas sector. The Company is engaged in the production and supply of capital goods and equipment, as well as in the provision of solutions and services for industrial sectors. Inepar supplies equipment and services for generation, transmission and distribution of electric energy; exploration and processing of oil and gas; rail and subway transportation; and cargo handling infrastructure. On January 27, 2012, the Company incorporated Inepar Energia SA, which is engaged in the transmission, distribution, generation and commercialization of hydroelectric and thermoelectric energy. In April, 2012, the Company acquired a 50% stake in Companhia Brasileira de Diques, which is engaged in the operation of the shipyard Estaleiro Inhauma.</t>
-  </si>
-  <si>
-    <t>Intelbras SA Industria de Telecomunicacao Eletronica Brasileira is a Brazil-based company involved in the manufacture, development and sale of electronic equipment. The Company’s activities are divided into three operational segments: Security, Communication and Energy. The Security segment is focused on the electronic security, such as analog video surveillance equipment (CCTV), Internet protocol video surveillance (CCTV IP), access control and alarms and sensors against invasion and fire. The Communication segment is dedicated to voice, image and data communication, as well as to network infrastructure. The Energy segment is engaged in the supply of energy for electric and electronic equipment and consumers, in addition to power saving and nobreak devices for houses, companies and buildings. The Company sells its products mainly in Brazil and also exports them to other countries of South and Central Americas, Angola, Mozambique and Egypt.</t>
+    <t>Iguatemi S.A., together with its subsidiaries, operates shopping centers in Brazil. It designs, plans, develops, and manages shopping malls, outlets, and mixed-use real estate complexes, as well as office towers. The company operates a network of 14 shopping centers, 2 outlet stores, and 3 office towers with a total gross leased area of approximately 711,000 square meters. In addition, it provides economic, financial, tax advisory, and consulting services. The company was formerly known as Jereissati Participações S.A. and changed its name to Iguatemi S.A. in November 2021. The company was founded in 1946 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Inepar S.A. Indústria e Construções is in Reorganization. Inepar S.A. Indústria e Construções manufactures and supplies equipment and services for the generation, transmission, distribution, and consumption of electricity worldwide. The company is also involved in the exploration and processing of oil and gas; infrastructure for cargo handling; rail and subway transport; and implementation and expansion of infrastructure systems for telecommunications. Inepar S.A. Indústria e Construções was founded in 1953 and is based in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Intelbras S.A. - Indústria de Telecomunicação Eletrônica Brasileira provides safety, networks, communication, and energy related technology solutions for the corporate and residential markets in Brazil. The company’s electronic safety products and solutions include accessories, automation devices, alarms, storage, cameras, condominium communication, corporate access control, locks, video digital recorder, fire protection related, intercom, vehicle monitoring, sensors, emergency signaling, and software and applications; and networks products and solutions include racks, routers, corporate Wi-Fi, outdoor radios, optical fiber, switches, PoE injectors, signal repeaters, USB adapters, software and apps, and network cables. Its communication related products and solutions include webcams, wireless mouse and keyboards, antennas and converters, phone centrals, conference, gateways, headsets, radio communicators, smart box, smart control, smart speaker, software and applications, and phones; and energy related products and solutions, such as electric vehicle chargers, fonts, batteries, UPSs, electronic protectors, surge protectors, and illumination presence sensors, as well as access control and solar energy products. The company also exports its products to Latin America. It offers its products through retail sales and corporative resellers. The company was incorporated in 1976 and is headquartered in São José, Brazil.</t>
   </si>
   <si>
     <t>IRB Brasil Resseguros SA is a Brazil-based provider of reinsurance services. The Company is focused on reinsurance and retrocession operations in Brazil and abroad, with its branches in Argentina and London and offices in numerous cities around the world. It offers coverage for different types of risk related to Property, Agriculture, Financial Lines, Oil &amp; GAS, Transportation, Cargo, Infrastructure, Surety, Professional Liability, Events, Art, Live and Pension, among others. The Company owns several subsidiaries, such as IRB Asset Management SA, which manage the exclusive investment funds and IRB Investimentos e Participacoes Imobiliarias SA, which purchases, sells and develops real estate assets.</t>
@@ -2432,31 +2376,31 @@
     <t>Itautec S.A. - Grupo Itautec, a technology company, develops, manufactures, and markets banking and retail automation equipment for the computer and banking automation, commercial automation, and technological services markets in Brazil and internationally. The company also provides managed, infrastructure and network, outsourcing, and logistics and repair services; design and implement services for convergence solutions (VOIP and IP Telephony); consulting and guidance on the configuration and architecture of network through performance and simulation analysis; and technical support for various aspects of connectivity, including technology trends, strategic migration decisions, and network performance enhancement. In addition, the company undertakes network re-engineering and remote access projects; offers network security products; provides and installs the hardware and software required for the connection to provide the necessary security for data traffic using virtual private network, firewall, encryption, and authentication techniques. Further, it provides managed services, such as field, service desk, and support services. The company was formerly known as Itautec Philco S.A. - Grupo Itautec Philco and changed its name to Itautec S.A. - Grupo Itautec in January 2006. The company was founded in 1985 and is headquartered in São Paulo, Brazil. Itautec S.A. - Grupo Itautec operates as a subsidiary of Itaúsa - Investimentos Itaú S.A.</t>
   </si>
   <si>
-    <t>Itausa Investimentos Itau SA is a Brazil-based company primarily engaged in the banking sector. The Company's activities are divided into two business segments: Financial and Industrial. The Financial division focuses on managing Itau Unibanco Holding SA, a banking institution that offers financial products and services, such as loans, credit cards, current accounts, insurance policies, investing tools, securities brokerage, treasury and investment advice, to individual and corporate customers. The Industrial division is responsible for operating Itautec SA, which manufactures commercial and banking automation equipment, as well as provides information technology (IT) services; Duratex SA, which produces wood panels, bathroom porcelain and metal sanitary fittings, and Alpargatas, which produces footwear under Juntas, Havaianas e Dupe brands, among others.</t>
+    <t>Itaúsa S.A., through its subsidiaries, operates in the financial and industrial markets in Brazil and internationally. The company offers credit products and other financial services to individuals and corporate clients. It also manufactures and sells footwear, apparel, and textile items and related components, as well as leather, resin and natural or artificial articles. In addition, the company engages in the transportation of gas through gas pipelines to distribution companies, as well as private sanitation services. Further, it manufactures and sells bathroom fixtures, fittings, and showers; ceramic tiles, including floor and wall coatings under the Ceusa, Portinari, and Castelatto brands; and pine and eucalyptus wood panels primarily used in the manufacture of medium- and high-density wood panels under the Duratex and Durafloor brand. The company was formerly known as Itaúsa - Investimentos Itaú SA. Itaúsa S.A. was incorporated in 1966 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Itaú Unibanco Holding S.A. offers a range of financial products and services to individuals and corporate customers in Brazil and internationally. The company operates through three segments: Retail Banking, Wholesale Banking, and Activities with the Market + Corporation. It offers current account; loans; credit and debit cards; investment and commercial banking services; real estate lending services; financing and investment services; economic, financial and brokerage advisory; and leasing and foreign exchange services. The company also provides property and casualty insurance products covering loss, damage, or liabilities for assets or persons, as well as life insurance products covering death and personal accident. It serves retail customers, account and non-account holders, individuals and legal entities, high income clients, microenterprises, and small companies, as well as middle-market companies and high net worth clients. The company was formerly known as Itaú Unibanco Banco Múltiplo S.A. and changed its name to Itaú Unibanco Holding S.A. in April 2009. The company was incorporated in 1924 and is headquartered in São Paulo, Brazil. Itaú Unibanco Holding S.A. is a subsidiary of IUPAR - Itaú Unibanco Participações S.A.</t>
   </si>
   <si>
-    <t>Jalles Machado SA is a Brazil-based company mainly engaged in the production of sugar and ethanol. The Company’s activities are divided into two operational segments: Sugar-Energy and Natural Rubber. The Sugar-Energy segment is focused on the production of organic, white and Very High Polarization (VHP) sugar; anhydrous, hydrated and organic ethanol; and other derivatives from the sugarcane processing, such as cleaning products and dry yeast. The Sugar-Energy segment includes also cogeneration of electricity, using sugarcane bagasse as a source of thermal, mechanical and electric energy. The Natural Rubber segment consists on rubber tree cultivation and production of latex and its derivatives. The Company sells sugar and cleaning products under Itaja brand name.</t>
-  </si>
-  <si>
-    <t>JBS SA is a Brazil-based company engaged in the meat processing sector. The Company's activities are divided into five business segments: Brazil, Seara, JBS USA Beef, JBS USA Pork and PPC. The Brazil segment is responsible for the cattle processing; production and sale of byproducts, such as hides and leather; and production of products whose raw material comes from the slaughter by-products, such as biodiesel, collagen, and hygiene and cleaning. The Saera division focuses on the production and export of chicken and pork. The JBS USA Beef segment is engaged in beef, lamb and prepared foods production and distribution in the United States, Canada and Australia. The JBS USA Pork line is involved in the processing and distribution of pork. The PPC consists of operations of Pilgrims Pride Corp, which is engaged in chicken and pork processing. The Company operates in Brazil, the United States, Canada, Australia, the United Kingdom, France, Mexico, Argentina, and Paraguay, among others.</t>
+    <t>Jalles Machado S/A produces, markets, and exports sugar, ethanol, and other by-products from sugarcane. The company offers crystal and organic sugar; hydrated, anhydrous, industrial, and organic ethanol; cleaning products; and yeast. It also produces clean and renewable energy from cane bagasse and straw. The company was founded in 1980 and is headquartered in Goianésia, Brazil.</t>
+  </si>
+  <si>
+    <t>JBS S.A., together with its subsidiaries, engages in the processing of animal protein worldwide. The company trades in beef, pork, chicken, poultry, fish, and lamb products; cooked frozen meat; plant based products; and other food products. It produces and commercializes leather, steel cans, plastic resin, personal care and cleaning products, and collagen, as well as wet blue leather, semi-finished, and finished leather products. In addition, it is involved in transportation, cold storage, industrial waste management solutions, recycling, and produces and commercializes electric power. Further, the company engages in the production and commercialization of raw ham and cooked ham; purchases and sells soybeans, tallow, palm oil, and caustic soda; and operates distribution centers and harbors. Additionally, it produces beef jerky; offers cattle fattening and warehousing services; operates logistics; and trades in by products from processing. The company was formerly known as Friboi Ltda. JBS S.A. was founded in 1953 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Joao Fortes Engenharia SA, formerly Joao Fortes &amp; Companhia Ltda, is a Brazil-based company primarily engaged in the real estate sector. The Company is engaged in the design, planning, construction, incorporation, development, sale and rental of residential, commercial and industrial buildings, such as multi-family housing, shopping centers and hotels, among others. In addition, the Company is involved in projects and services in areas of electrical engineering, hydraulic engineering, irrigation, sanitation and agricultural engineering. As of December 31, 2011, the Company had a number of subsidiaries, including Alfa Port Empreendimentos Imobiliarios Ltda, CNR Empreendimento, Costabella Empreendimentos Imobiliarios Ltda and JFE Participacoes SA, among others.</t>
   </si>
   <si>
-    <t>JHSF Participacoes SA is a Brazil-based holding company engaged in the real estate industry. The Company’s activities are divided into four business segments: Real Estate Development, involved in in the development, construction, purchase and sale, as well as lease of residential and commercial properties; Recurring Income, focused on development, administration and operation of shopping centers; Hospitality and Gastronomy, engaged in the operation of hotels, restaurants and bars; and Executive Airport, involved in the operation of Sao Paulo Catarina Executive Airport. The Company operates through a number of subsidiaries, including JHSF Incorporacoes Ltda, Polonia Incorporacoes Ltda, Boa Vista de Desenvolvimento Imobiliario e Servicos de Concierge Ltda and Aveiro Incorporacoes Ltda, among others.</t>
+    <t>JHSF Participações S.A., through its subsidiaries, engages in the construction and operation of shopping malls. The company operates through: Recurring Income, Real Estate Business, Airport, and Hotels and Restaurants segments. It also engages in real estate development; purchase and sale of residential and commercial properties, as well as goods; leasing of commercial real estate; operation of hotel, gastronomy, and tourism activities; and operation and management of the airfield, as well as rendering of administration services. The company was incorporated in 2006 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Josapar Joaquim Oliveira SA Participacoes, formerly Joaquim Oliveira SA Participacoes (Josapar), is a Brazil-based company primarily engaged in the production and sale of food products. The Company manufactures rice, beans, semi-prepared meals, milk powder with isolated soy protein and fertilizer. Josapar trades its products under various brand names, including Arroz Tio Joao, Arroz Tio Mingote, Arroz Meu Biju, Feijao Meu Biju, Cozinha Facil Tio Joao, Cozinha e Sabor, Suprasoy, Supremo and Organo Mineral NPK1. Additionally, through its subsidiary Real Empreendimentos SA, the Company is active in the trade and management of real estate properties. It operates through Josapar International and Real Empreendimentos SA.</t>
   </si>
   <si>
-    <t>Simpar SA is a Brazil-based provider of financial investment services. It operates as a holding company for JSL Group. Through its subsidiaries, the Company provides services divided in seven segments: JSL Logistica, dedicated to the transportation and logistics sectors; Vamos, involved in leasing, buying, and selling trucks, machinery and new and used equipment; Movida, engaged in in the light vehicle rental and fleet management sector; CS Brasil, which provides services to public agencies and companies, including fleet management and outsourcing, urban passenger transport and urban cleaning services; Original Concessionarias, engaged in sale of Volkswagen, FIAT and Ford cars and parts; BBC, offering financial services, such as leasing, issuing and administration of credit cards and processing of electronic payments; and Holding and others, composed mainly by entities located abroad, used as a fundraising vehicles.</t>
-  </si>
-  <si>
-    <t>Kepler Weber SA, formerly Kepler Weber SA Industria Comercio Importacao e Exportacao, is a Brazil-based company principally engaged in the production of grain storage systems. Through its subsidiaries, the Company is involved in the development, manufacture and distribution of equipment for grain storage and conservation. The Company’s portfolio includes metal silos, flat bottom or hopper bottom, dryers, grain cleaning and pre-cleaning machines and grain conveyors, among others. The Company also develops and produces systems and equipment for port terminals and malt storages. Additionally, Kepler Weber provides spare parts and repair and maintenance services for its products. As of December 31, 2011, the Company’s subsidiaries were Kepler Weber Industrial SA and Kepler Weber Pecas e Servicos Ltda.</t>
+    <t>SIMPAR S.A., through its subsidiaries, provides light vehicle rental, and fleet management and outsourcing services in Brazil. It offers road cargo transport, urban distribution, commodities logistics, road freight logistics, internal logistics, and chartering and leasing, as well as warehouse services; car and vehicle rental services; trucks, machinery, and heavy equipment rental services; and mechanical, bodywork, and painting services. The company also sells new and used trucks, machinery and equipment, parts, and accessories; manages and outsources fleets of light and heavy vehicle to the public sector, municipal passenger transport, and urban cleaning sectors; and operates a digital financial services platform for truck drivers and digital applications. In addition, it provides brokerage services for automotive insurance; and bank financial services for leasing of vehicles and equipment, digital accounts, and issuance and management of cards. The company was founded in 1956 and is headquartered in São Paulo, Brazil. SIMPAR S.A. is a subsidiary of JSP Holding S.A.</t>
+  </si>
+  <si>
+    <t>Kepler Weber S.A. manufactures and sells grain storage and conservation systems in Brazil and internationally. It offers flat or elevated silos, dryers, cleaning machines and their components, bucket elevators, conveyor belts, sweep augers, chain conveyors, forked and pendular gutters, chains, galvanized sieves, control panels, zero-husk capture, as well as metallic structures, screw conveyors, dispatch hoppers, heat generators, and catwalks and structures. The company also provides industrial installations, port terminals, and spare parts, as well as technical assistance and support services. In addition, it offers engineering risk insurance. The company was founded in 1925 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Klabin S.A. and its subsidiaries operate in segments of the paper and pulp industry, supplying the domestic and foreign markets with wood, packaging paper, paper sacks, corrugated cardboard boxes and pulp. The Company's segments include Forestry, Paper, Conversion and Pulp. The Forestry segment involves operations relating to planting and growing pine and eucalyptus trees to supply its plants, and involves selling timber to third parties in the domestic market. The Paper segment involves the production and sale of cardboard, kraftliner and recycled paper rolls in the domestic and foreign markets. The Conversion segment involves the production and sale of corrugated cardboard boxes, corrugated cardboard and industrial sacks in the domestic and foreign markets. The Pulp segment includes the production and sale of short fiber bleached pulp, long fiber bleached pulp and fluff pulp in the domestic and foreign markets. The Company has over 20 industrial units in Brazil and Argentina.</t>
@@ -2465,7 +2409,7 @@
     <t>Lojas Americanas S.A. operates a chain of retail stores in Brazil. The company operates its stores under traditional, express, convenience, digital, and Ame Go formats. It offers products in various categories, such as housewares, toys, games, candies, perfumery, stationery, electronics, personal hygiene, apparel, computers, home appliances, cellphones, furniture, domestic utensils, books, CDs, DVDs, portable appliances, and sports and leisure products; bed, bath, and dining products; and consumer financing and digital payments. As of December 31, 2019, the company operated approximately 1,700 stores in 739 cities. It also offers products online through Americanas.com, Submarino, Shoptime, Sou Barato, and Ame digital brands. Lojas Americanas S.A.was founded in 1929 and is headquartered in Rio de Janeiro, Brazil. As of January 21, 2022, Lojas Americanas S.A. operates as a subsidiary of Americanas S.A.</t>
   </si>
   <si>
-    <t>Lavvi Empreendimentos Imobiliarios Ltda is a Brazil-based company engaged in the development and sale of residential real estate units in the City of Sao Paulo. The Firm acts in high standard segment, offering apartments with exclusive services. The Company is a joint venture formed between Cyrela and RH Empreendimentos Imobiliarios Ltda.</t>
+    <t>Lavvi Empreendimentos Imobiliários S.A. develops and builds residential and non-residential properties in Brazil. It offers properties under the Lavvi brand name. The company was incorporated in 2016 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Companhia de Locação das Américas engages in the rental of national and imported vehicles in Brazil. It is also involved in the purchase and resale of pre-owned vehicles; and fleet management and franchise management business. As of March 31, 2020, its fleet consisted of 169,149 vehicles. The company was founded in 2008 and is headquartered in São Paulo, Brazil.</t>
@@ -2480,16 +2424,16 @@
     <t>Linx S.A., through its subsidiaries, provides management software solutions for the retail market in Brazil and internationally. It offers enterprise resource planning (ERP), and point of sale or point of service (POS) management software; and connectivity, electronic funds transfer, e-commerce, customer relationship management, order management system, and payment methods solutions. The company also provides telecommunication services, such as transmission of voice, data, image, and sound through services of network and circuit, telephony, and other systems, including the Internet. In addition, it offers technical support, advisory, and training services; and operates cloud platform. Further, the company develops and sells POS, automation software, and electronic payment solutions, as well as promotion engine for retail chains in the principal Latin American markets. Additionally, it offers Software as a Service solutions for micro and small retailers; and ERP solutions and services for footwear retail. The company also operates white label platform for online sales solutions for small and medium-sized supermarkets; and payroll management software and human capital management for medium-sized companies. The company was formerly known as LMI S.A. and changed its name to Linx S.A. in September 2004. Linx S.A. was founded in 1985 and is headquartered in Sao Paulo, Brazil. As of July 1, 2021, Linx S.A. operates as a subsidiary of Stne Participacoes S.A..</t>
   </si>
   <si>
-    <t>Eletrobras Participacoes SA Eletropar - ELETROPAR (ELETROPAR), formerly Light Participacoes SA - LIGHTPAR, is a Brazil-based company involved in the electric energy sector. Through participations held in other companies, ELETROPAR is engaged in the transmission, distribution and marketing of electric energy; generation of electric energy through hydroelectric plants, wind turbines and thermoelectric power stations, and operation of flood control system. As of December 31, 2011, the Company held stakes in Companhia de Transmissao de Energia Eletrica Paulista SA - CTEEP, Eletropaulo Metropolitana Eletricidade de Sao Paulo SA - ELETROPAULO, Empresa Metropolitana de Aguas e Energia SA - EMAE, EDP Energias do Brasil SA - ENERGIAS DO BRASIL and CPFL Energia SA - CPFL Energia.</t>
-  </si>
-  <si>
-    <t>Lojas Quero-Quero SA owns and operates home improvement retail stores in small and mid-sized towns across Rio Grande do Sul. The Company was founded in 1967 and is located in Cachoeirinha, Brazil.</t>
+    <t>Eletrobrás Participações S.A. - Eletropar participates in electric energy and other companies in Brazil. It also provides telecommunication services. The company was formerly known as Light Participações S.A – LIGHTPAR and changed its name to Eletrobrás Participações S.A. - Eletropar in September 2008. The company was founded in 1996 and is headquartered in Rio De Janeiro, Brazil. Eletrobrás Participações S.A. - Eletropar is a subsidiary of Centrais Elétricas Brasileiras S.A. – Eletrobras.</t>
+  </si>
+  <si>
+    <t>Lojas Quero-Quero S.A. engages in the general retail trade activities in Brazil. It offers building materials, household appliances, and furniture. The company also provides credit card, extended warranties, and financial services. Lojas Quero-Quero S.A. was founded in 1967 and is headquartered in Cachoeirinha, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Log Commercial Properties E Participacoes SA is a Brazil-based company, which is engaged in the development, construction and leasing of commercial properties, such as objects of logistic sector, homebuilding, industrial and commercial objects and others. The Company is active domestically and abroad in numerous cities, including: Rio de Janeiro, Sao Paulo, Goias, Bahia, Ceara and Parana among others, as well as has a portfolio of more than 1.5 million m2, with projected operations nationwide. </t>
   </si>
   <si>
-    <t>Log-in Logistica Intermodal SA, formerly Docenave Navegacao Vale do Rio Doce SA, is a Brazil-based company that plans, manages and operates cargo handling solutions through cabotage, complemented by road services. The Company operates an interconnected network, which includes port handling and door-to-door transportation, through an intermodal network that covers Brazil and the Southern Common Market region (Mercosur). The Company's activities are divided into three areas: Coastal Shipping, offering maritime transportation in ports in the Brazilian coast and Mercosur, integrated to services contracted for road short-distance transportation; Port Terminal, providing management and operation of a container port terminal, the Vila Velha Terminal (TVV), in the state of Espirito Santo, Brazil, and Intermodal Terminals, including ground intermodal terminals integrated to services offered by Coastal Shipping area.</t>
+    <t>Log-in Logística Intermodal S.A. provides integrated logistics solutions for handling and transporting containers door-to-door. It operates in Integrated Logistics Solutions, Port terminal, and Road Cargo Transport segments. The Integrated Logistics Solutions segment offers container transport services all around the Brazilian coast and in Mercosu; shuttle services that connect the ports of Santos, Rio de Janeiro, and Vitória; vehicle transport services; and warehousing, separation, and cross-docking services. The Port Terminal segment offers container loading and unloading operations, as well as cargo and vehicle handling. The Road Cargo Transport segment provides road transport solutions; and distribution and storage centers. The company was incorporated in 1973 and is headquartered in Rio de Janeiro, Brazil. Log-In Logística Intermodal S.A. operates as a subsidiary of Sas Shipping Agencies Services SÀRl.</t>
   </si>
   <si>
     <t>LPS Brasil - Consultoria de Imoveis SA (LPS Brasil) is a Brazil-based company engaged in the provision of real estate services. The Company’s main activities include intermediation services in purchase and sale of real estate properties, real estate consultancy and technical advice. The Company is also involved in the operation and promotion of financial products and services in the real estate market. LPS Brasil divides its business into three sectors: Primary Market, engaged in the sale of new properties; Secondary Market, active in the resale of real estate, and Financing Promotion, involved in the promotion and provision of financial products and services related to the real estate brokerage. As of December 31, 2011, its subsidiaries included LPS Minas Gerais Consultoria de Imoveis Ltda, LPS Eduardo, EBC - Solucoes Imobiliarias Ltda, Habitcasa Consultoria de Imoveis Ltda, and Pronto Erwin Maack Consultoria de Imoveis SA, among others.</t>
@@ -2498,7 +2442,7 @@
     <t>Lojas Renner SA is a Brazil-based company primarily engaged in the retail of apparel and fashion accessories. The Company's activities are divided in two segments: Retail and Financial. The Retail division focuses on sale of women's, men's and children's garment items, underwear and shoes, sportswear, as well as perfumery, cosmetics, toiletry products, correlated, watches and home and decoration accessories. The Financial segment is involved in the provision of financial services, such as intermediation of financial services with charges, personal loans and insurances brokerage. It operates under Lojas Renner, Camicado and Youcom brand names. The Company operates through a number of subsidiaries, including Dromegon Participacoes Ltda, Renner Administradora de Cartoes de Credito Ltda, and Maxmix Comercial Ltda, among others.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lupatech SA, formerly Valmicro Industria e Comercio de Valvulas SA, is a Brazil-based company primarily engaged in the production of equipment for the oil and gas sector. The Company operates through two business segments: Products and Services. In the Products segment, the Company is involved in the manufacture of anchoring ropes for deepwater platforms; manual and automated valves used in the exploration, production, transportation and refining of oil and hydrocarbon chain; completion equipment for oil wells; fiber optic sensors and vehicular natural gas compressors; coatings for drilling and production tubes, and industrial valves for the chemical, pharmaceutical, pulp and paper, food and construction machinery, among others. In the Services segment, the Company provides offshore services, which include cleaning, repairing and maintenance of oil wells, as well as well intervention, coating, inspection of pipes and rental of equipment. </t>
+    <t>Lupatech S.A. provides equipment for the oil and gas sector in Brazil and internationally. It manufactures industrial valves; valves for oil and gas; synthetic fiber ropes for anchoring oil platforms and various other applications; and composite material artifacts, such as poles and tubular sleeves for coating oil pipelines. The company was formerly known as Valmicro Indústria e Comércio de Válvulas S.A. and changed its name to Lupatech S.A. in March 1993. Lupatech S.A. was founded in 1980 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Trevisa Investimentos SA is a Brazil-based company primarily engaged in the water transportation sector. As of December 31, 2011, the Company had two subsidiaries, Navegacao Alianca Ltda and Trevo Florestal Ltda, and one affiliated company, Trevisa Operadora Portuaria Ltda. Through the subsidiary Navegacao Alianca Ltda, the Company is involved in the provision of water freight transportation services through a fleet of 15 vessels, with a total static capacity of 50,000 tons, as well as in the operation of a shipyard in the Brazilian city of Taquari. Navegacao Alianca Ltda is mainly active in the transport of fertilizers, wheat, wood chips and soybean. Through its subsidiary Trevo Florestal Ltda, the Company is engaged in the regional reforestation sector, including pine and eucalyptus forests in the Brazilian state of Rio Grande do Sul, as well as in the production of biomass from forest residues. Additionally, it is active in the leasing of commercial real estate properties.</t>
@@ -2507,13 +2451,13 @@
     <t>Livetech da Bahia Industria e Comercio SA (WDC Networks) is a Brazil- based company that provides equipment and solutions for Telecom, Information Technology (IT), and Solar Energy that serves a wide range of customers nationally and in Colombia, in the United States and Panama. The Company developed an equipment leasing business model, transforming Capex into Opex, known as TaaS (Technology as a Service). The Company provides services and products, including broadband infrastructure, surveillance cameras, access control systems, cybersecurity, data center, automation, and solar energy generators.</t>
   </si>
   <si>
-    <t>Locaweb Servicos de Internet SA is a Brazil-based provider of Business-to-Business (B2B) technology solutions. The Company’s activities are divided into two operating segments: Be Online/SaaS and Commerce. Be Online/SaaS division offers services of hosting, hosting reseller, domain registration, cloud computing and dedicated servers, as well as solutions related to email accounts, email marketing campaigns and Internet Protocol (IP) communication, through brands Locaweb, Locaweb Corp, All iN, KingHost, Cluster2Go and Delivery Direto. Commerce division is engaged in facilitating online retail operations, providing e-commerce platforms and payment solutions, through brands Tray, Tray Corp and Yapay. The Company owns several subsidiaries, such as ITCapital Servicos Tecnologia Ltda, Ananke Participacoes SA and LwK Hosting Participacoes Ltda.</t>
-  </si>
-  <si>
-    <t>Cemepe Investimentos SA, formerly Companhia Marcopolo de Participacoes, is a Brazil-based investment holding company. The Company participates in other companies as a shareholder and it provides technical, financial and administrative consultancy services. As of December 31, 2011, the Company held a stake in STAM Participacoes Ltda. As of May 24, 2012, Cemisa Participacoes Ltda held a 56.80% stake in the Company.</t>
-  </si>
-  <si>
-    <t>Hospital Mater Dei SA is a Brazil-based company that is part of the Mater Dei Health Network, an integrated platform for the provision of hospital and cancer services, one of the largest hospitals in Minas Gerais in terms of number of private beds, also operating in the states of Bahia, Para and Goias. The Company has hospital beds distributed in its four units strategically located in the metropolitan region of Belo Horizonte and in Belem, in addition to hospital beds in the Hospital de Salvador/BA, Hospital Santa Genoveva in Uberlandia/MG, Hospital Premium in Goiania/GO and Hospital EMEC in Feira de Santana/BA. The Company provides services to several independent and self-managed health plan operators, such as: Allianz, Amil, Bacen, Bradesco Saude, Caixa Economica Federal, Care Plus, Cassi, Copass, FCA Saude, Golden Cross, IPSM, Sul America, Vale, among many others.</t>
+    <t>Locaweb Serviços de Internet S.A. offers hosting, software licensing, and technical support services in Brazil. It operates in two segments, Be Online and Software as a Service (Be Online &amp; SaaS), and Commerce. The company offers website and VPS hosting, wordpress hosting, domain register, and SSL locaweb services; cloud computing solutions; dedicated servers; SQL server database management solutions; and SSL locaweb solutions. Locaweb Serviços de Internet S.A. was founded in 1998 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Cemepe Investimentos S.A., through its subsidiaries, manages its own and third-parties’ resources. It also provides technical, financial, and administrative assistance services. The company was formerly known as Companhia Marcopolo de Participações and changed its name to Cemepe Investimentos S.A. in April 1993. Cemepe Investimentos S.A. was incorporated in 1991 and is based in Rio De Janeiro, Brazil. Cemepe Investimentos S.A. operates as a subsidiary of Cemisa Participações Ltda.</t>
+  </si>
+  <si>
+    <t>Hospital Mater Dei S.A. provides health services in Brazil. The company offers hospital, outpatient, laboratory, oncology, diagnostic, medical appointments, exams, surgeries, and other services. Hospital Mater Dei S.A. was founded in 1973 and is headquartered in Belo Horizonte, Brazil. Hospital Mater Dei S.A. is a subsidiary of JSS Empreendimentos e Administração LTDA.</t>
   </si>
   <si>
     <t>Mobly SA is a Brazil-based company engaged in the furniture industry. The Firm acts as a retailer of furniture, including sofas, tables, wardrobes, racks, beds, mattresses, office chairs, benches and outdoor furniture, as well as decorative accessories, housewares and finishing materials. Its assortment consists of both own brand and third party products. The Company operates mainly through an e-commerce platform, which consist of a mobile application and a website. The platform allows Mobly SA to reach customers in all regions of Brazil, with distribution centers in the states of Sao Paulo, Santa Catarina and Minas Gerais. In addition, the Firm has several physical stores, including outlets, located in the state of Sao Paulo.</t>
@@ -2525,7 +2469,7 @@
     <t>Moura Dubeux Engenharia S.A. provides real estate development services in Brazil. It engages in the purchase and sale of properties; rental and split of land allotment; real estate construction of properties; and management and administration of own or third parties real properties. The company develops flats, hotels, resorts, and residential buildings; and offers technical construction management and advisory services to the condominiums, as well as engineering services. Moura Dubeux Engenharia S.A. was founded in 1983 and is based in Recife, Brazil.</t>
   </si>
   <si>
-    <t>International Meal Company Alimentacao SA, formerly known as RA Catering Ltda, is a Brazil-based company engaged in fast-food restaurant sector. The Company is active in the operation of restaurants, bars and cafes on motorways, airports, and shopping malls. The Company also provides catering services for airlines. It has operations in Latin America. The Company operates shops in shopping centers under the brand names Viena, Viena Express, Grano, Viena K Express, Viena Cafe, V Cafe and Viena Snacks, on highways under the banner Frango Assado, and at airports under the brands Aeromeals, Black Coffee, Brunella and Bistrot Mosaico, among others.</t>
+    <t>International Meal Company Alimentação S.A., together with its subsidiaries, operates restaurants, bars, and cafes that offers food and beverages in Brazil, Colombia, and the United States. The company also supplies meals for airlines; operates food courts at service stations and restaurant chains along highways; sells fuel for vehicles; provides services to franchisees of the KFC and Pizza Hut brands; and subleases stores and spaces for promotional and commercial purposes in its network of stores, as well as provides general services. The company operates its restaurants under the Frango Assado, Viena, Brunella, J&amp;C Delicias, Olive Garden, Margaritaville, KFC, Pizza Hut, Carl’s Jr., Sports Drinks ‘N’ Snacks, Espresso Mineiro, Grab ‘N’ Fly, Black Coffee, Eat &amp; Co, Batata Inglesa, and RA Catering brand names. International Meal Company Alimentação S.A. was incorporated in 1965 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Melnick Even Desenvolvimento Imobiliario SA is a Brazil-based company engaged in the development, construction and sale of residential and non-residential real estate units in the State of Rio Grande do Sul. The Firm acts in high standard segment, offering houses, apartments and commercial spaces, as well as lots in residential areas.</t>
@@ -2537,28 +2481,28 @@
     <t xml:space="preserve">Mangels Industrial SA (Mangels) is a Brazil-based company engaged in the manufacture of metal products. The Company divides its business into four segments: Steel, Wheels, Cylinders and Galvanizing. In the Steel segment, the Company is involved in the production of steel strips and stamped parts for the automotive, home appliances and civil engineering sectors, among others. In the Wheels segment, it produces aluminum wheels for automobile manufacturers. In the Cylinders segment, Mangels is engaged in the production of cylinders for liquefied petroleum gas (LPG), compressed air and fuel tanks for trucks and buses. In the Galvanizing segment, it is mainly active in the production of highway guardrails and industrial flooring, as well as in the provision of hot dip galvanizing services for steel parts. On November 1, 2013 the Company filed a bankruptcy request to the District of the Capital of Sao Paulo State. </t>
   </si>
   <si>
-    <t>Magazine Luiza SA is a Brazil-based company principally engaged in the retail sector. The Company's activities are divided into four business lines: Retail, through physical stores and E-commerce sells various consumer goods, including home appliances, electronics, furniture, cosmetics, baby care accessories, toys and sport articles, among others; Luizacred, which offers products such as the credit cards, consumer credits, personal loans, payroll loans; Luizaseg, offering insurance and extended product's warranty; and Consortium Management, providing customers access to its so-called letters of credit through Consorcio Luiza. The Company owns several subsidiaries, such as Magalog Servicos Logisticos Ltda and Campos Floridos Comercio de Cosmeticos Ltda.</t>
-  </si>
-  <si>
-    <t>Mills Estruturas e Servicos de Engenharia SA is a Brazil-based company primarily engaged in the commercial equipment rental. The Company's activities are divided into two business units: Construction and Rental. The Construction division operates in the heavy construction market and offers construction works and services, including formworks and props, as well as access to non-mechanized equipment, mast climbing platforms and scaffolds for the residential and office building construction sector. The Rental division provides leasing and sale of scissor lifts and telescope handlers for construction, trade and manufacturing markets, among others. The Company operates numerous branches across Brazil.</t>
-  </si>
-  <si>
-    <t>Multilaser Industrial SA is a Brazil-based diversified consumer goods company. The Company acts on developing, manufacturing, distributing, selling and after-sales service of various products in different areas such as tablets, smartphones, notebooks, pen drives, memory chips, computer accessories, small appliances, connected home (Internet of Things - IoT), household items, tools, accessories and sports equipment, health instruments, telecommunications networks, accessories and automotive products, audio and video, electronic security, toys, stationery, pets and childcare. The Company's products are sold in a number of physical points of sale owned by third parties, in several marketplaces such as Mercado Livre, and in seven of the Company's virtual stores (e-commerce), in addition to other points of sale that purchase products from the Company from retail/distributor customers.</t>
+    <t>Magazine Luiza S.A. engages in the retail sale of consumer goods. It operates through Retail, Financial Operations, Insurance Operations, and Other Services segments. The company also grants credit and provides extended warranties for its products. In addition, it is involved in the provision of consortium management services; and e-commerce of perfumes, cosmetics, sports, and fashion products, as well as product delivery management and software development services. Further, the company provides integration, logistics, and technological solutions; and manages relation between merchants and marketplaces. The company was founded in 1957 and is headquartered in Franca, Brazil. Magazine Luiza S.A. is a subsidiary of LTD Administração e Participação S.A.</t>
+  </si>
+  <si>
+    <t>Mills Locação, Serviços e Logística S.A. operates as a machinery and equipment rental company in Brazil. The company rents, sells, imports, and exports steel and aluminum tubular structures, and shoring and access equipment for construction works, as well as reusable concrete formworks; develops related engineering projects; and provides supervisory and optional assembly services. It also sells, rents, and distributes aerial work platforms and telescopic handlers, and parts and components; and offers technical assistance and maintenance services. In addition, the company engages in the rental, assembly, and disassembling of access tubular scaffolding in industrial areas; and performance of industrial painting, sandblasting, heat insulation, and boilermaker and refractory services, as well as other related services. Its products are used in hydroelectric plants, highways, constructions, railways, bridges, and façade restoration applications. The company was formerly known as Mills Estruturas e Serviços de Engenharia S.A. and changed its name to Mills Locação, Serviços e Logística S.A. in July 2022. Mills Locação, Serviços e Logística S.A. was founded in 1952 and is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Multilaser Industrial S.A. develops, manufactures, distributes, and sells electronic products in Brazil. It offers small appliances, such as coffee makers, kettles, electric oven and fryers, electric cookers, sandwich makers, mixers, shake blenders, food warmers, omelet makers, coifs, food processors, grills, vacuum cleaners, circulators, heaters, fans, irons, vaporizers, drinking fountains, popcorn makers, cellars, ice machines, drill and screwdrivers, orbital sanders, angle grinders, and jig saws. The company also provides speakers, sound bars, home theatres, headphones, cables, and accessories; smartphones and cell phones; computer and notebooks, tablets, information technology accessories, networks, and security and energy products; paper, printing supplies, sticky notepads, staplers and holes, office supplies, organizers, digitizing tables, electronic waste bins, glues, and books; household items; and toys. In addition, it offers sports and leisure products, including scooters, bikes, skateboards, hoverboards, fitness and pilates, drones, smartwatches, action cameras, GPS for bikes, cycling accessories, aquatics, and summer and outdoor products; automotive products and accessories; health products, such as protection masks, aprons, caps, gloves, micronebuilizers, stethoscopes, ECG electrodes, and other products; and audio, screens and video, projectors, DVD, and tv box; health and wellness; beauty and perfumery; and pets and childcare products, as well as products for gamers. The company was founded in 1988 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>MMX Mineração e Metálicos S.A. engages in the research and development, and extraction of minerals. It also sells iron ore. In addition, the company is involved in logistics business; and port operation activities. MMX Mineração e Metálicos S.A. was founded in 1998 and is based in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
-    <t>Mundial SA Produtos de Consumo, formerly Eberle SA, is a Brazil-based company primarily engaged in the manufacture of apparel and personal care products. The Company divides its business into four segments: Personal Care, Fashion, Syllent and Other Companies. In the Personal Care segment, it is involved in the manufacture and distribution of manicure and personal care products, including nail polishes, nail scissors, hair razors and brushes for makeup, among others. In the Fashion segment, it is principally active in the production and sale of metal and plastic items for clothing and footwear. In the Syllent segment, the Company is engaged in the manufacture and marketing of water motor pump. In the Other Companies segment, it is involved in the manufacture and marketing of kitchen knives, cutlery and crockery for general use, as well as in the production and sale of articles for professional craft work, such as scissors.</t>
-  </si>
-  <si>
-    <t>Minupar Participacoes SA, formerly Minuano - Exportacao Participacao e Administracao Ltda, is a Brazil-based holding company primarily engaged in the food processing. The Company divides its business into three main segments: Processing Services; Sausages and Processed, and Refrigerated. In the Processing Services segment, the Company is involved in the provision of food processing services to third parties, including poultry slaughter and deboning; production of animal feed, and hatching eggs, among others. In the Sausages and Processed, it is engaged in the processing and sale of sausages and eggs. In the Refrigerated segment, it is involved in the slaughter of its own poultry. The Company’s products are distributed in Brazil and exported to the Middle East, Europe, Asia, Africa, Central and South America. As of December 31, 2011, the Company operated six plants located in Brazilian states of Rio Grande do Sul and Santa Catarina.</t>
+    <t>Mundial S.A. - Produtos de Consumo manufactures and sells personal care products in Brazil and internationally. The company operates through Personal Care, Cosmetics, Metal Fasteners, Food Service, Crafts, and Pump Solutions segments. It offers cuticle and nail pliers, clippers, nail and hair scissors and eyebrow tweezers, cuticle pliers, nail polishes, and other personal beauty items under the Impala brand; and buttons and eyelets, and leather and plastic shoes metallic ornamental articles, and metallic and plastic articles and components under the Eberle brand. The company also manufactures and sells professional knives for slaughterhouses and butchers, cutlery, pans, knives, tableware, and household utensils under the private label and licensed brands; and traditional cutting and sewing scissors to school and handicraft scissors. In addition, it manufactures and sells water pumps under the Syllent brand. Mundial S.A. - Produtos de Consumo was founded in 1896 and is headquartered in Sao Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Minupar Participações S.A., through its subsidiaries, engages in the production, slaughtering, and commercialization of poultry in Brazil. The company operates through Industrialized and Slaughterhouse Services segments. It is also involved in the industrialization and commercialization of processed meat products. In addition, the company engages in the egg and chick production; farms accommodation; and feed production activities. The company also exports its products to Africa, East Europe, Central America, Asia, and Oceania. Minupar Participações S.A. was incorporated in 1984 and is based in Lajeado, Brazil.</t>
   </si>
   <si>
     <t>Monteiro Aranha SA (MASA) is a Brazil-based holding company engaged in financial, real estate and industrial sectors. Through its subsidiaries, the Company is involved in the management of investment funds; participation in the real estate development; insurance brokerage and administration services; provision of consulting and administration services in the area of real estate investments; development, construction, sale, rental and management of real estate properties; provision of services in the area of telecommunications; distribution of liquefied petroleum gas, fuels and lubricants; production and sale of chemicals; liquid bulk storage; petroleum refining, and forestry, wood supply and production of paper products. As of December 31, 2011, the Company had four subsidiaries: Masa Corretagem de Seguros SC Ltda, Monteiro Aranha Gestao de Investimentos Imobiliarios SA, Timbutuva Empreendimentos Ltda and Oslo Fundo de Investimentos em Quotas de Fundo de Investimento Multimercado.</t>
   </si>
   <si>
-    <t>Banco Modal SA is a Brazil-based investment banking company. It provides an investment platform that gives the customers access to both banking and digital services. The Company’s offering includes various type of insurance: life insurance, home and travel insurance. The Company is also a provider of PIX, a Brazilian instant payment method, as well as debit and credit cards, and Open Banking, a service that enables third-party payment service and financial service providers to access Banco Modal’s clients banking information. The Company has several subsidiaries, including Hum Bilhao Educacao Financeira Ltda, KC Tecnologia Servicos Imobiliarios e de Internet, Empreendimentos e Participacoes SA, Galapos Consultoria e Participacoes Ltda as well as Modalmais Treinamento e Desenvolvimento Profissional Ltda.</t>
+    <t>Banco Modal S.A. provides various digital banking products and services in Brazil. It offers various investment options, structuring and distribution securities, financial intermediation, and foreign exchange products, as well as hedge transactions for customers. The company also provides advisory and consulting services for marketable securities; and invests in the real estate sector. Banco Modal S.A. was founded in 1995 and is headquartered in Rio de Janeiro, Brazil. As per the transaction announced on January 6, 2022, Banco Modal S.A. operates as a subsidiary of XP Inc..</t>
   </si>
   <si>
     <t>Mosaico Tecnologia ao Consumidor S.A. engages in the placement of publicity and advertisements through its own and third-party websites. The company also provides related, intermediation, and agency services; engages in licensing services of internet pages and content in the form of text, audio, and video for distribution via the internet and related means; and involves in the creation, management, and assignment of own and third-party databases. It operates as a digital platform for e-commerce, where it indicates stores that advertise products and redirect users to the stores’ website, where the consumer makes the purchase. The company operates under Zoom, Buscapé, Bondfaro, and Quebarato brands. The company was formerly known as Mosaico Negócios de Internet S.A. and changed its name to Mosaico Tecnologia ao Consumidor S.A. in August 2020. Mosaico Tecnologia ao Consumidor S.A. was founded in 1995 and is based in Rio de Janeiro, Brazil. As of March 18, 2022, Mosaico Tecnologia ao Consumidor S.A. operates as a subsidiary of Banco Pan S.A.</t>
@@ -2570,7 +2514,7 @@
     <t>Marfrig Global Foods SA, formerly Marfrig Alimentos SA, is a Brazil-based company primarily engaged in the processing and distribution of meat. The Company's activities are divided into two operating segments: Marfrig Beef and Keystone. The Marfrig Beef segment is responsible for the slaughter, manufacture, distribution, import, export and marketing of beef and lamb meat. The Keystone division focuses on producing and developing multi-protein foods to serve global restaurant chains, including McDonald's, Subway, ConAgra Foods, Campbell's Soup, KFC, Taco Bell, Wendy's, Heinz, and Burger King, among others. It retails meat under a range of brand names, such as Pampeano, La Morocha, Montana, Hamby, Bernina, Bassi, GJ, Angus, South Lamb, as well as Tacuarembo. The Company operates worldwide in the Americas, Asia, Europe and Oceania.</t>
   </si>
   <si>
-    <t>MRS Logistica SA (MRS) is a Brazil-based company engaged in the transportation services. The company focuses on the public service of freight railroad transportation. The Company is active in the control, operation and monitoring of the Southeastern Federal Railroad Network, connecting the Brazilian states of Minas Gerais, Rio de Janeiro and Sao Paulo, as well as ports of Rio de Janeiro, Guaiba, Itaguai and Santos. MRS Logistica SA provides rail cargo transportation, including ore, finished steel products, cement, bauxite, pulp, green coke, containers and agricultural commodities, among others. MRS Logistica SA is also engaged in the integrated logistics, which involves planning, multimodality and defined transit time.</t>
+    <t>MRS Logística S.A. is a logistics operator that manages a rail network in Brazil. It transports containers; cement; bauxite; agricultural; coke; coal; iron ore; and steel products, such as iron ore, coal, and coke. The company was founded in 1996 and is based in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>MRV Engenharia e Participacoes SA is a Brazil-based company engaged in the real estate development sector. The Company's activities are divided into three business segments: Real estate development (Residential), which is active in the development, construction and sale of own and third-party real estate; Investment property (LOG), which focuses on the construction and rental, under operating leases, of industrial warehouses, shopping malls and strip malls, as well as subdivision and sale of industrial land, and Urban land subdivisions (Urbamais), which is responsible for the development and sale of residential and commercial urban land subdivisions. The Company’s project developments and construction works are carried out directly by the Company or through its partnerships and special purpose entities. Its subsidiaries include MDI Desenvolvimento Imobiliario Ltda, MRV Construcoes Ltda and Urbamais Propriedades e Participacoes SA, among others.</t>
@@ -2582,22 +2526,22 @@
     <t>Metalgráfica Iguaçu S.A. manufactures and sells metal containers for the packaging of food products in Brazil and internationally. It primarily offers steel cans. The company was formerly known as Metalgrafica Merhy S.A. and changed its name to Metalgrafica Iguaçu S.A. in May 1970. The company was founded in 1951 and is headquartered in Ponta Grossa, Brazil. As of November 25, 2021, Metalgráfica Iguaçu S.A. operates as a subsidiary of Companhia Metalúrgica Prada.</t>
   </si>
   <si>
-    <t>Mitre Realty Empreendimentos e Participacoes SA (Mitre Realty) is a Brazil-based construction company. The Firm is engaged in the development, construction and sale of residential real estate units in the City of Sao Paulo. Its products are divided into two lines: Raizes, which is dedicated for middle-class customers and Haus Mitre, which is targeted to upper middle-class customers. The Company’s portfolio consists on more than 20 buildings offering apartments with exclusive services, points of access and common areas. Mitre Realty owns numerous subsidiaries, such as Amaro Bezerra Empreendimentos e Participacoes Ltda, Mitre Le Champs Empreendimentos e Participacoes Ltda, Mitre Vendas Corretagem de Imoveis Ltda and MJF Construcoes Ltda, among others.</t>
+    <t>Mitre Realty Empreendimentos e Participações S.A., together with its subsidiaries engages in the development, construction, and sale of residential and commercial real estate properties. The company was founded in 2005 and is headquartered in Sao Paulo, Brazil.</t>
   </si>
   <si>
     <t>METISA Metalurgica Timboense SA is a Brazil-based company primarily involved in the production of steel parts for industrial and agricultural machinery. The Company’s products include parts for agricultural equipment, parts for tractors, blades for the construction sector, stone-cutting blades, railway accessories, items for road equipment, washers, hand tools, truck accessories and other steel products. The manufacture process consists of hot processing of steel, heat treatment and finishing operations. Metisa sells its products to other companies, which use them to produce machines, as well as on the spare parts market. As of December 31, 2011, the Company wholly owned METISA Florestal e Energetica SA, which is engaged in the reforestation and commercial exploitation of forest products.</t>
   </si>
   <si>
-    <t>Multiplan Empreendimentos Imobiliarios SA is a Brazil-based company primarily engaged in the real estate sector. The Company's activities are divided into four business segments: Rental, Real estate, Projects and Management. The Rental division focuses on leasing of shopping malls and their parking lots. The Real estate division includes sale of properties, such as multifamily homes, built in the surroundings of shopping malls. The Projects division specializes in the planning, development and construction of commercial centers for lease. The Management division primarily offers management services to storeowners. The Company holds and administers numerous shopping malls in Brazil, such as BH Shopping, BarraShopping, RibeiraoShopping, MorumbiShopping, ParkShopping, DiamondMall, Shopping Analia Franco, BarraShopping Sul, New York City Center and Shopping Santa Ursula.</t>
+    <t>Multiplan Empreendimentos Imobiliários S.A. engages in the planning, development, construction, and sale of real estate projects in Brazil. The company develops residential or commercial properties, including urban shopping malls. It is also involved in the purchase and sale of real estate properties, as well as acquisition and disposal of real estate rights, and its operation through leasing. In addition, the company provides management and administrative services for own or third party shopping malls; technical advisory and support services concerning real estate matters; and civil construction, construction works execution, and engineering and related services. Further, it engages in the planning, development, management, promotion, and intermediation of real estate projects; import and export of goods and services related to its activities; generation and sale of electric power; and acquisition of ownership interests and share control in other entities. The company was founded in 1974 and is based in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Wetzel SA, formerly Metalurgica Wetzel SA, is a Brazil-based company active in the manufacture and commercialization of aluminum and iron components and parts for motor vehicles. Wetzel SA divides its business into three divisions: Aluminum, Iron and Electro-Technical. In the Aluminum division, the Company is engaged in the manufacture of aluminum parts for the automotive industry, through the process of aluminum smelting. In the Iron division, it produces various iron products for truck manufactures, farm machinery producers and manufacturers of insulators for transmission and power distribution lines. In the Electro-Technical division, the Company is active in the production and sale of aluminum and thermoplastic products for low voltage electrical installations, explosion-proof and lighting equipment. As of December 31, 2011, Wetzel SA had two subsidiaries: Foundry Engineers and Wetzel Univolt Industria de Plasticos Ltda.</t>
   </si>
   <si>
-    <t>Iochpe-Maxion S.A. is engaged in the production of automotive wheels. The Company is a producer of automotive structural components in the Americas, and a producer of railway equipment in Brazil. Its operations are focused on the automotive segment, and divided into the wheels and structural component segments. The Company operates through three divisions: Maxion Wheels, Maxion Structural Components and AmstedMaxion. At Maxion Wheels, the Company produces and sells a range of steel wheels for light and commercial vehicles, and agricultural machinery and aluminum wheels for light vehicles. At Maxion Structural Components, it produces side rails, cross members and full frames for commercial vehicles and structural components for light vehicles. At AmstedMaxion (a joint venture), the Company produces freight cars, railway wheels and castings, as well as industrial castings. The Company's and its subsidiaries' operations are carried out in over 30 units located in Brazil and abroad.</t>
-  </si>
-  <si>
-    <t>Neoenergia SA is a Brazil-based holding company primarily engaged in the electric utilities sector. The Company is involved in the distribution, transmission, generation and marketing of electrical energy. The Company’s subsidiaries include Companhia de Eletricidade do Estado da Bahia Coelba (COELBA), which is active in the distribution of electrical energy in the Brazilian State of Bahia; Companhia Energetica de Pernambuco CELPE, engaged in the distribution of electricity in the State of Pernambuco; Companhia Energetica do Rio Grande do Norte COSERN, which distributes electrical energy in the State of Rio Grande do Norte; Afluente Geracao de Energia Eletrica SA, active in the generation of energy through hydroelectric power plants, Termopernambuco SA, which is involved in the power generation through a thermoelectric power plant, and Elektro Holding SA, which focuses on the electric energy distribution in the States of Sao Paulo and Mato Grosso do Sul, among others.</t>
+    <t>Iochpe-Maxion S.A. produces and sells automotive wheels and structural components for commercial and light vehicles in North America, South America, Europe, Asia, and internationally. It operates in two divisions, Maxion Wheels and Maxion Structural Components. The company offers heavy steel wheels; light steel wheels for automobiles, pick-ups, and SUVs, as well as light and medium commercial vehicles; wheels for agricultural machinery; and light aluminum wheels for automobiles. It also provides heavy structural components, including frames, side members, and cross members. In addition, the company offers light and automotive structural components, such as stampings for passenger vehicles, handbrake levers, pedal and welded assemblies, structural parts, and other automotive components. Further, it produces railway wheels, freight cars, and castings, as well as industrial castings. The company was founded in 1918 and is headquartered in Cruzeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Neoenergia S.A. generates, transmits, distributes, trades in, and commercializes electric energy in Brazil. The company operates hydroelectric plants, wind farms, transmission lines, solar farm, and substations; and distributes electricity in the states of Bahia, Pernambuco, Rio Grande do Norte, São Paulo, and Mato Grosso do Sul. The company was founded in 1997 and is based in Rio de Janeiro, Brazil. Neoenergia S.A. operates as a subsidiary of Iberdrola Energía, S.A.U.</t>
   </si>
   <si>
     <t>Neogrid Participacoes SA (Neogrid) is a Brazil-based company engaged in the technology sector. The Company develops software for the management and synchronization of supply chains, connecting manufacturers, distributors, logistics operators, retailers, financial institutions and government. Through the digital platform, the Firm provides solutions for companies from several industries, such as agribusiness, consumer goods, pharmacy, electronics, construction and fashion, among others. In addition, Neogrid offers technical IT advisory, training and support services, installation, configuration and maintenance of software and databases. The Company owns a number of subsidiaries in Brazil, the Netherlands, the United States and the United Kingdom.</t>
@@ -2612,76 +2556,70 @@
     <t>Nutriplant Industria e Comercio SA (Nutriplant) is a Brazil-based company primarily engaged in the production, import, export and sale of micronutrients and intermediate products for fertilizers. The Company divides its business into two segments: FTE, which includes micronutrients in the form of powder or granulated, and Foliar Micronutrients, which comprise soluble inorganic salts in solid form or in concentrated solutions. It operates one industrial complex placed in Paulinia, in the Brazilian state of Sao Paulo, which is composed of one factory of soil micronutrients and one production plant of foliar micronutrients. As of December 31, 2011, the Company had the capacity to produce approximately 55,000 tons of micronutrients per year. As of May 31, 2012, the Company’s major shareholder was Tripto Participacoes Ltda.</t>
   </si>
   <si>
-    <t>Odontoprev SA is a Brazil-based company primarily engaged in the provision of dental care services. The Company is involved in the management, sale and provision of private dental care plans and services. It offers services to individual and corporate customers. The Company organizes its dental care services into three main segments: Collective Pre-paid Plans, Collective Post-paid Plans and Individual Pre-paid Plans. Through its indirect subsidiary Easy Software Ltda, the Company is also active in the development of computer software for the dental industry. Odontoprev SA holds shares in various direct subsidiaries, such as Clidec - Clinica Dentaria Especializada Cura Dar's Ltda, Odontoprev Servicos Ltda, Garcia Pedrosa Ltda and Adcon Administradora de Convenios Odontologicos Ltd. Furthermore, It is a subsidiary of Bradesco Saude SA, a unit of Banco Bradesco SA's Bradesco Seguros e Previdencia SA.</t>
+    <t>Odontoprev S.A. provides private dental plans in Brazil and internationally. The company operates through Corporate, Small and Medium-Enterprise, Individual, and Other segments. It manages and sells dental care plans to corporations and/or individuals; provides commercial advisory, consulting, and business management services; and develops and licenses software programs. The company also retails and wholesales sanitizers, drugs, medicines, pharmaceutical inputs, and related items; offers warehousing, storage, loading, organization, custody of goods, technical, and administrative programming services, as well as general management of goods and business; and provides services of collecting, sending or delivering mail, documents, and objects or goods. In addition, it offers services related to accidents, diseases, and health insurance; and financial, actuarial, administrative, and commercial and risk management services. The company was incorporated in 1987 and is headquartered in Barueri, Brazil.Odontoprev S.A. operates as a subsidiary of Bradesco Saúde S.A.</t>
   </si>
   <si>
     <t xml:space="preserve">Ouro Fino Saude Animal Participacoes S.A., also known as Ourofino, is a Brazil-based company engaged in the animal health market business sector in Latin America. The Company manufactures veterinary products using scientific technology in the Company's laboratories. The Company's products are divided into six sectors: Wholesale, Birds, Cattle, Equine, Pet and Pigs. The Wholesale area is divided into four lines: Anti-Mastiticos, producing antibiotics killing bacteria and lumps; Antimicrobial, which focuses on the treatment of bacterial infectious diseases; Ectoparasiticides, concentrated on insect repellent products, and Endectocides, which is the treatment and control of internal and external diseases of cattle, sheep and swine parasites. There is also one additional line of products divided for additives, biological, inoculants, diagnostic kit, probiotics, silage and other supplements, among others. </t>
   </si>
   <si>
-    <t>Oi SA em Recuperacao Judicial, formerly Oi S.A., is an integrated telecommunications service provider in Brazil. The Company is a switched fixed-line telephony services (STFC) concessionaire. It is engaged in the provision of STFC as a local and intraregional long-distance carrier. Its segments include Residential Services, Personal Mobility, and SMEs/Corporate. It offers a range of integrated telecommunications services that include fixed and mobile, broadband, pay television (TV), data transmission and Internet provider services. The Company's Residential Services segment is focused on the sale of fixed telephony services, including voice services, data communication services (broadband), and pay TV. The Personal Mobility segment is focused on the sale of mobile telephony services to subscription and prepaid customers, and mobile broadband customer. The SMEs/Corporate segment includes corporate solutions offered to its small, medium-sized, and large corporate customers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega Energia SA, formerly NK 124 Empreendimentos e Participacoes SA is a Brazil-based holding company. Its mission is to empower businesses and people through clean, cheap and simple energy, ensuring cost reduction and contributing to a low-carbon economy. Through its subsidiaries, including Omega Geracao SA and Omega Desenvolvimento SA, the Company is engaged in renewable electric power generation. Omega Desenvolvimento SA’s projects are engaged in wind and solar power generation, that is generated through Assurua Solar, Delta 10, Delta 4, Morada do Sol and Kuara projects. Omega Geracao SA’s projects comprise wind, hydro and solar power generation. The generation takes place through Serra das Agulhas, Delta Maranhao, Ventos da Bahia 1 e 2, Assurua, Pirapora and Pipoca projects. </t>
+    <t>Oi S.A., together with its subsidiaries, provides telecommunication services in Brazil and internationally. The company offers fixed telephony services; domestic and international long-distance services; and maintenance and repair services. It also provides call center and telemarketing, Internet, network, and Wi-Fi Internet services; and financial, and payment and credit system services, as well as consulting services. In addition, it engages in the investment management activities. The company was formerly known as Brasil Telecom S.A. and changed its name to Oi S.A. in February 2012. Oi S.A. was founded in 1998 and is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Omega Energia S.A. generates and sells renewable energy. It generates through electricity through wind, water, and solar sources. As of December 31, 2021, the company operated 79 projects with a total installed capacity of 1,863.2 megawatts. The company was formerly known as Omega Geração S.A. and changed its name to Omega Energia S.A. in December 2021. Omega Energia S.A. was founded in 2008 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Oceanpact Servicos Maritimos SA is a Brazil-based provider of maritime services. The Company’s activities are divided into three business units: Environment, Subsea and Logistics and Engineering. The Environment division is dedicated to protection services, oceanographic surveys, environmental licensing and studies, operational safety and environmental remediation. The Subsea unit is focused on geophysics, geotechnics, inspection, repair and maintenance services, as well as on support to construction and decommissioning of offshore developments. The Logistics and Engineering division provides services related to maritime logistics, offshore support bases, port and coastal engineering, civil and industrial construction, maritime and ports works, dredging and facilities and industrial cleaning. The Company serves customers mainly in the oil and gas, energy and telecommunications sectors.</t>
   </si>
   <si>
-    <t>Orizon Valorizacao de Residuos SA is a Brazil-based company engaged in the waste treatment sector. The Company’s activities are divided into four segments: Final disposal of solid waste; Energy, biogas and reduced emissions certificates; Waste processing; and Environmental engineering. Through the Final disposal of solid waste segment, the Firm manages waste treatment and disposal plants. The Energy, biogas and reduced emissions certificates segment is focused on the development of bioenergetic plants for sourcing and treating gases from decomposition of waste and is also responsible for trading carbon credits on the free market. The Waste processing segment develops plants for the processing of industry materials, for the recycling of solid urban waste and for the direct burning of waste for power generation. The Environmental engineering segment provides services of the recovery of degraded areas, environmental remediation and monitoring, among others.</t>
+    <t>Orizon Valorização de Resíduos S.A. operates as a waste treatment and disposal company. Its Final Disposal of Solid Waste business treats and disposes waste. The company’s Energy, Biogas &amp; Carbon Credits Units business captures and treats gases from the decomposition of waste for the sale or reutilization of methane gas. This business also produces energy from biogas-fueled power plant; and trades in carbon credit. Its Waste Processing and Industrialization business develops plants for processing materials from the industrial sector, recycling solid urban waste, and the direct burning of waste for energy generation. The company’s Environmental Engineering business offers services in the areas of recovery of degraded areas, remediation of contaminated areas, environmental diagnosis and monitoring, waste management, and the cleaning of oil industry tanks. The company was formerly known as Haztec Investimentos e Participações S.A. and changed its name to Orizon Valorização de Resíduos S.A. in August 2020. Orizon Valorização de Resíduos S.A. was founded in 1999 and is based in São Paulo, Brazil. Orizon Valorização de Resíduos S.A. subsidiary of Inovatec Participações S.A.</t>
   </si>
   <si>
     <t>OSX Brasil SA, formerly EBX Brasil SA, is a Brazil-based holding company involved in the oil and gas sector. The Company provides equipment and services to the offshore oil and gas industries. The Company operates in three sectors: Naval Construction, Chartering of Exploration and Production (E&amp;P) Units, and Services of Operation and Maintenance (O&amp;M). In the Naval Construction sector, the Company is involved in the construction, assembly and integration of E&amp;P units, such as fixed and floating production platforms and drilling rigs. The Company's Chartering sector focuses on the charter of E&amp;P units to companies in the oil and gas sector. In the Services of O&amp;M sector, the Company offers services and solutions for its customers in the oil and gas industry. In November, 2013, the Court of Capital of Rio de Janeiro State approved bankruptcy proceedings of the Company and its subsidiaries, OSX Construcao Naval SA and OSX Servicos Operacionais Ltda.</t>
   </si>
   <si>
-    <t>Instituto Hermes Pardini S.A., together with its subsidiaries, provides medical, dental, laboratory research, clinical analysis, and supplementary diagnostic and therapeutic services in Brazil. The company offers precision medicine, medical imaging, and unprecedented differentials in the field of forensic toxicology, occupational medicine, and clinical medicine, as well as sample collection services for clinical analysis tests, imaging tests, and vaccines. In addition, it engages in the resale of laboratory test supplies; personalized medicine diagnosis; and pathological anatomy business. The company primarily operates through Hermes Pardini, Padrão, Progenética, Diagnóstika, Cemedi, Centro de Medicina, Ecoar, Labclass Hermes Pardini, DLE, Toxicologia Pardini, Solução, APC, CLINICA DE IMAGEM, and Saúde Mob brand names. It serves hospitals, clinics, laboratories, and other companies in the health care sector. Instituto Hermes Pardini S.A. was founded in 1959 and is based in Belo Horizonte, Brazil.</t>
+    <t>Instituto Hermes Pardini S.A., together with its subsidiaries, provides medical, dental, laboratory research, clinical analysis, and supplementary diagnostic and therapeutic services in Brazil. The company offers precision medicine, medical imaging, and unprecedented differentials in the field of forensic toxicology, occupational medicine, and clinical medicine, as well as sample collection services for clinical analysis tests, imaging tests, and vaccines. In addition, it engages in the resale of laboratory test supplies; personalized medicine diagnosis; and pathological anatomy business. The company primarily operates through Hermes Pardini, Padrão, Progenética, Diagnóstika, Cemedi, Centro de Medicina, Ecoar, Labclass Hermes Pardini, DLE, Toxicologia Pardini, Solução, APC, CLINICA DE IMAGEM, and Saúde Mob brand names. It serves hospitals, clinics, laboratories, and other companies in the health care sector. Instituto Hermes Pardini S.A. was founded in 1959 and is based in Belo Horizonte, Brazil. As of April 28, 2023, Instituto Hermes Pardini S.A. operates as a subsidiary of Fleury S.A.</t>
   </si>
   <si>
     <t>Panatlantica SA is a Brazil-based company engaged in the steel industry. The Company is involved in the production, trade, import, export and processing of steel and other metals. The Company's products include cold-rolled strips, strapping bands, sheets and coils, blanks, slit strips and profiles, among others. Additionally, the Company provides steel cutting services through two different processes: slitting, which cuts the steel with rotating shears to form coils, and cut-to-length, which cuts it in flat sheets. The Company operates through an industrial plant located in Glorinha, in the Brazilian state of Rio Grande do Sul. As of Decmeber 31, 2011, the Company had two subsidiaries: Panatlantica Catarinense SA and Tubospan SA. On August 26, 2013, the Company signed a contract for the acquisition of Atkore International Industria e Comercio de Aco e Materiais Electricos Ltda.</t>
   </si>
   <si>
-    <t>Companhia Brasileira de Distribuicao is a Brazil-based company engaged in the retail sector. The Firm, directly or through its subsidiaries, is engaged in the distribution of food, clothing, home appliances, electronics and other items through its chain of hypermarkets, supermarkets, specialized stores and department stores. The Company's activities are divided into three segments: Retail, Exito Group and Other Businesses. The Retail segment focuses on the banners Pao de Acucar, Minuto Pao de Acucar, Extra Hiper, Extra Supermercado and Mini Extra, among others. It also includes the operation of gas stations and drugstores. The Exito Group segment consists of the operation of stores in Colombia, Uruguay and Argentina. The Other Businesses segment includes complementary businesses, such as the real estate, credit card, travel, insurance, mobile and money transfer, royalties, financial services, marketing and other services.</t>
-  </si>
-  <si>
-    <t>Companhia Brasileira de Distribuição engages in the retail of food, clothing, home appliances, electronics, and other products through its chain of supermarkets, specialized stores, and department stores in Brazil. It operates in Brazilian Retail, Grupo Éxito, and Other Businesses segments. The company sells non-perishables, beverages, fruits, vegetables, meat, breads, cold cuts, dairy products, cleaning products, disposable products, and personal care products; and home appliances and other non-food products, such as clothing and baby items, shoes and accessories, household articles, books, magazines, CDs and DVDs, stationery, toys, sports and camping gears, furniture, mobile phones, mattresses, pet products, and gardening equipment and tools, as well as electronic products, including personal computers, software, computer accessories, and sound and image systems. It also offers medications and cosmetics at its drugstores; and non-food products at gas stations, as well as rents commercial spaces and e-commerce sales. The company operates its supermarkets under the banners of Pão de Açúcar, Extra Supermercado, Mercado Extra, and Compre Bem; hypermarkets under the banner of Extra Hiper; and proximity stores under the banners of Mini Extra, Minuto Pão de Açúcar, Pão de Açúcar Adega, and Aliados Minimercado; and gas stations and drugstores under the banners of Extra and Pão de Açúcar, as well as sells its products through its Websites. As of December 31, 2021, it operated 667 stores, 74 gas stations, and 68 drugstores in 16 Brazilian states and the Federal District, as well as 15 distribution centers and warehouses across Brazil. The company was founded in 1948 and is headquartered in São Paulo, Brazil. Companhia Brasileira de Distribuição operates as a subsidiary of Casino, Guichard-Perrachon S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDG Realty SA Empreendimentos e Participacoes (PDG) is a Brazil-based holding company engaged in the real estate market. The Company’s main activity is holding ownership interest in other companies that operate in the real estate sector, as a shareholder, consortium member or through other types of investments. Through its subsidiaries, the Company is engaged in the planning, design, construction, marketing and sale of real estate properties, including apartments, single-family houses and offices. Additionally, the Company is involved in the acquisition and subdivision of land. As of December 31, 2011, the Company’s subsidiaries included Agre Empreendimentos Imobiliarios SA, CHL Desenvolvimento Imobiliario SA, Goldfarb Incorporacoes e Construcoes SA, Ecolife Butanta Empreendimentos Imobiliarios SA and Amazon Empreendimentos Imobiliarios Ltda, among others. </t>
+    <t>Companhia Brasileira de Distribuição engages in the retail of food, clothing, home appliances, electronics, and other products through its chain of supermarkets, specialized stores, and department stores in Brazil. The company sells non-perishables, beverages, fruits, vegetables, meat, breads, cold cuts, dairy products, cleaning products, disposable products, and personal care products; and home appliances and other non-food products, such as clothing and baby items, shoes and accessories, household articles, books, magazines, CDs and DVDs, stationery, toys, sports and camping gears, furniture, mobile phones, mattresses, pet products, and gardening equipment and tools, as well as electronic products, including personal computers, software, computer accessories, and sound and image systems. It also offers medications and cosmetics at its drugstores; and non-food products at gas stations, as well as rents commercial spaces and e-commerce sales. The company operates its supermarkets under the banners of Pão de Açúcar, Extra Supermercado, Mercado Extra, and Compre Bem; hypermarkets under the banner of Extra Hiper; and proximity stores under the banners of Mini Extra, Minuto Pão de Açúcar, Pão de Açúcar Adega, and Aliados Minimercado; and gas stations and drugstores under the banners of Extra and Pão de Açúcar, as well as sells its products through its Websites. The company was founded in 1948 and is headquartered in São Paulo, Brazil. Companhia Brasileira de Distribuição operates as a subsidiary of Casino, Guichard-Perrachon S.A.</t>
+  </si>
+  <si>
+    <t>PDG Realty S.A. Empreendimentos e Participações engages in real estate business in Brazil. The company is involved with the acquisition of land development; real estate development; and construction and sale of residential and commercial units, and land plots. It also offers digital solutions; and services related to operations in the secondary market of residential mortgages and credits. In addition, it acquires and securitizes residential mortgage credits and credits from real estate operations and financing; issues certificates of real estate receivables; and conducts hedge operations in derivative markets to cover risks in its portfolio of residential mortgages and real estate loans. The company was founded in 2003 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Companhia de Participacoes Alianca da Bahia is a Brazil-based holding company engaged in the real estate, agriculture, healthcare and engineering services sectors. As of December 31, 2011, the Company had four subsidiaries: Agropastoril Vila Real SA, which is engaged in the raising, breeding, selection, fattening, purchase and sale of cattle and other species, as well as in cocoa cultivation and extraction of palm fiber; Hospital Alianca SA, which is active in the provision of medical and hospital services, as well as construction of hospital and complementary facilities; Companhia Agro Pecuaria Barro Vermelho Ltda, which is involved in the exploitation of agricultural and natural resources, as well as industrialization and commercialization of raw material, and Alianca da Bahia Construtora e Imobiliaria Ltda, which is a provider of services in the areas of civil engineering, urbanization and landscaping, among others.</t>
   </si>
   <si>
-    <t>Petroleo Brasileiro S.A.-Petrobras specializes in the oil, natural gas and energy industry. The Company is engaged in prospecting, drilling, refining, processing, trading and transporting crude oil from producing onshore and offshore oil fields and from shale or other rocks. Its segments include Exploration and Production, which covers the activities of exploration, development and production of crude oil, natural gas liquid and natural gas; Refining, Transportation and Marketing, which covers the refining, logistics, transport and trading of crude oil and oil products activities, exporting of ethanol, and extraction and processing of shale; Gas and Power, which is engaged in transportation and trading of natural gas produced in Brazil and imported natural gas; Biofuels, which covers the activities of production of biodiesel and its co-products, and ethanol-related activities; Distribution, which includes the activities of its subsidiary Petrobras Distribuidora S.A., and Corporate.</t>
+    <t>Petróleo Brasileiro S.A. - Petrobras explores, produces, and sells oil and gas in Brazil and internationally. The company operates through Exploration and Production; Refining, Transportation and Marketing; and Gas and Power. It also engages in prospecting, drilling, refining, processing, trading, and transporting crude oil from producing onshore and offshore oil fields, and shale or other rocks, as well as oil products, natural gas, and other liquid hydrocarbons. The Exploration and Production segment explores, develops, and produces crude oil, natural gas liquids, and natural gas primarily for supplies to the domestic refineries. The Refining, Transportation and Marketing segment engages in the refining, logistics, transport, marketing, and trading of crude oil and oil products; exportation of ethanol; and extraction and processing of shale, as well as holding interests in petrochemical companies. The Gas and Power segment is involved in the logistic and trading of natural gas and electricity; transportation and trading of LNG; generation of electricity through thermoelectric power plants; holding interests in transportation and distribution of natural gas; and fertilizer production and natural gas processing business. In addition, the company produces biodiesel and its co-products, and ethanol; and distributes oil products. Further, it engages in research, development, production, transport, distribution, and trading of energy. Petróleo Brasileiro S.A. - Petrobras was incorporated in 1953 and is headquartered in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Pet Center Comercio e Participacoes SA is a Brazil-based company engaged in pet industry. The Firm acts mainly as a retailer of pet feeds and supplies, such as toys, beds, clothes, bowls, litter, aquariums, medications and vitamins, among others. It operates through digital platform and physical stores, located in 13 states and Federal District. The Company also provides veterinary services in clinics and hospitals, as well as animal hygiene and aesthetics services in stores. In addition, the Firm organizes pet-related events, such as fashion shows and contests, and promotes dog and cat adoptions. The Company is controlled by WP XI A Fundo de Investimento em Participacoes Multiestrategia.</t>
   </si>
   <si>
-    <t>Profarma Distribuidora de Produtos Farmaceuticos SA is a Brazil-based company primarily engaged in the wholesale trading of drugs. The Company's activities are divided into two segments: Pharmaceutical Distribution and Retail. The Pharmaceutical Distribution division is responsible for the wholesale of medicines and personal care and beauty products to pharmaceutical retailers. The Retail division focuses on the management of a pharmacies network under a number of brand names, such as Drogasmil and Tamoio. Its products range includes prescription drugs, over-the-counter (OTC) generics, personal hygiene articles and cosmetics, vaccines, dermatological products and hospital pharmaceuticals, among others. The Company's subsidiaries include Farmadacta Informatica Ltda, Promovendas Representacoes Ltda, Interagile Propaganda e Promocoes Ltda and Locafarma Solucoes de Transportes e Logistica Ltda, among others.</t>
-  </si>
-  <si>
-    <t>Empreendimentos Pague Menos SA is a Brazil-based company primarily engaged in the drug retail sector. Through a drugstore chain, the Company sells medicines, perfumes, personal care and household products, cosmetics, as well as grocery goods, among others. Additionally, It offers a range of financial services, such as bill collection and credit card issuing. The Company also operates a call center that provides information related to drugs usage.</t>
+    <t>Profarma Distribuidora de Produtos Farmacêuticos S.A., together with its subsidiaries, engages in the distribution and retail sale of pharmaceutical products in Brazil. The company operates through two segments, Distribution and Retail segments. It provides medicines, human drugs, personal hygiene, veterinary, perfumery, and cosmetic and beauty products. The company operates retail stores under the Drogasmil, Farmalife, Tamoio, and Rede Rosário brands. Profarma Distribuidora de Produtos Farmacêuticos S.A. was incorporated in 1961 and is headquartered in Rio De Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Empreendimentos Pague Menos S.A. operates a chain of pharmacies in Brazil. The company offers medicines and health care products in the areas of paediatrics, oncology, psychiatry, urology, orthopedics, dermatology, contraception, pediatric endocrinology, assisted reproduction, geriatric, gastrointestinal and hepatic, pain, fever, and inflammation, diabetes, and endocrinology. It also provides personal care and beauty products, including deodorant, intimate care, and oral hygiene, as well as foot, hair, face, and hand care products; dermo-cosmetics; and repellent, diaper, cloth, and food products, as well as other accessories for moms and babies. In addition, the company offers clothing and accessories, supplements, first aid, food and drink, utilities, and others; and cereals, fibers, vitamins and minerals, first aid, and herbal medicines and natural products. Empreendimentos Pague Menos S.A. was incorporated in 1981 and is headquartered in Fortaleza, Brazil.</t>
   </si>
   <si>
     <t>Banco Pine SA is a Brazil-based bank engaged in the provision of commercial banking products. The Bank specializes in the provision of financial services for enterprises, such as various types of credit, credit cards, trade financing, guarantees, investment banking, assets and wealth management, financial advisory services, treasury products and pension funds, among others. As of December 31, 2011, the Company had a number of subsidiaries, including Pine Investimentos Distribuidora de Titulos e Valores Mobiliarios Ltda (Pine Investimentos), BP Empreendimentos e Participacoes SA (BP Empreendimentos), BP Promotora de Servicos Bancarios Ltda (BP Promotora), Pine Corretora de Seguros Ltda (Pine Corretora) and Pine Assessoria e Consultoria Ltda (Pine Assessoria).</t>
   </si>
   <si>
-    <t>Plascar Participacoes Industriais SA (Plascar), formerly OSA SA Organizacao Sistemas e Aplicacoes, is a Brazil-based holding company engaged in the automotive industry. Through its subsidiary Plascar Ltda, the Company manufactures and sells pieces and parts related to internal and external finishing of automotive vehicles. The Company's product line includes bumpers, instrument panels, air diffusers, cup holders, side doors, door pockets and carpets, among others. Additionally, the Company is involved in the manufacture of non-automotive products, such as supermarket trolleys, multipurpose boxes, ecological pallets and furniture. As of December 31, 2011, the Company operated five manufacturing plants located in the cities of Jundiai and Pindamonhangaba, in the state of Sao Paulo, and Varginha, Betim and Camanducaia, in the state of Minas Gerais.</t>
-  </si>
-  <si>
-    <t>Plano &amp; Plano Desenvolvimento Imobiliario SA is a Brazil-based company engaged in the real estate development sector. The Company engages its activities in developing and building of real estate projects, which include the provision of construction services, real estate advisory services (brokerage), through Plano &amp; Sales Consultoria de Imoveis Ltda. The Company also focuses on the development and construction of low-income housing, which fall mainly under the federal government housing program Casa Verde e Amarela. The Company operates in an integrated manner, executing all stages of development of its undertakings, comprising prospecting and building up a land bank, incorporation, construction and sales.</t>
+    <t>Plascar Participações Industriais S.A., through its subsidiary, manufactures and sells internal and external finishing of motor vehicles in Brazil. The company’s products include bumpers, dashboards, air diffusers, cup holders, parcel racks, door trim panels, and other components. Plascar Participações Industriais S.A. was founded in 1963 and is headquartered in Jundiaí, Brazil. Plascar Participações Industriais S.A. is a subsidiary of Padua IV Participações S.A.</t>
+  </si>
+  <si>
+    <t>Plano &amp; Plano Desenvolvimento Imobiliário S.A., through its subsidiaries develops, constructs, and sells real estate projects in the São Paulo Metropolitan Region. It also provides construction, supervision, studies, projects, and the execution of civil engineering works. The company was founded in 1997 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Paranapanema S.A. is an independent producer of primary copper. The Company's activities include the production and trade of electrolytic copper, its by-products and related services, as well as semi-manufactured copper and its alloys products. The Company's products for the copper industry include cathode, rod, drawn wire, tubes and connections, rolled, wire, bar and profile, flexible cable, sulfuric acid, granulated slag and oleum. The Company has approximately three industrial plants, located in the Industrial Complex of Camacari, Dias d'Avila; in Santo Andre, and in Serra. The Company offers rods, such as copper rod and drilled square iron bar; wires, such as copper and brass wires, and drawn bare wire, and fitting, such as accessories, ELUMAPLAST connections, flanged connections and weldable connections. The Primary Copper Unit, located in Dias d'Avila, is engaged in casting and refinement of electrolytic copper under the Caraiba brand, and metallurgy of semi-finished.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dimed SA Distribuidora de Medicamentos, formerly Panvel SA Drogarias e Farmacias, is a Brazil-based company principally engaged in the sale of drugs. The Company, along with its subsidiaries, sells, distributes, imports, exports and produces a variety of products, including drugs, perfumes, cosmetics, dermo-cosmetics, personal care products, dietary supplements, and fitness, orthopedic and physiotherapy accessories. It organizes its business into two main segments: Medicine and Perfumery. The Company provides retail and wholesale distribution. The Company owns distribution centers in Brazilian states of Rio Grande do Sul, Santa Catarina, Parana, Goias and Espirito Santo, as well as over 280 stores in states of Rio Grande do Sul, Santa Catarina and Parana. </t>
-  </si>
-  <si>
     <t>Dimed S.A. Distribuidora de Medicamentos sells medicines, perfumeries, personal care and beauty products, cosmetics, and dermocosmetics in Brazil. It operates in Retail and Wholesale segments. The company offers products through distribution centers in the states of Rio Grande do Sul, Paraná, and Espírito Santo. It operates 517 stores in Rio Grande do Sul, Santa Catarina, Paraná, and São Paulo. The company was formerly known as Panvel S.A. Drogarias e Farmacias and changed its name to Dimed S.A. Distribuidora de Medicamentos in April 2000. The company is headquartered in Eldorado do Sul, Brazil.</t>
   </si>
   <si>
-    <t>Marcopolo SA, formerly Marcopolo SA - Carrocerias e Onibus, is a Brazil-based company primarily engaged in the manufacture of buses. The Company's activities are divided into two business segments: Industrial and Finance. The Industrial division focuses on designing, producing and distributing bus bodies and spare parts. Its product lines comprise a range of models, including coaches, intercity, urban and micro buses, as well as light commercial vehicles (LCVs), which are marketed under the Volare brand name. The Finance division is responsible for financing transactions through Banco Moneo. Its financial products include personal and commercial credits, leasing with purchase option, short-term loans and credit lines. The Company operates through a number of subsidiaries in Brazil, Argentina, Mexico, Canada, South Africa and China, among others.</t>
+    <t>Marcopolo S.A. engages in manufacture and sale of buses, motor vehicles, and agricultural and industrial machinery in Brazil, Africa, Argentina, Australia, China, the United Arab Emirates, and Mexico. It operates through Industrial and Financial segments. The company offers intercity, urban, and micro buses; and bus bodies, parts, components, and accessories. It is also involved in trading and distribution of motor vehicle parts and accessories; assembling, import, export, and sale of refrigeration and air conditioning equipment; manufacturing and sale of polyurethane foam, molded parts, and their derivatives; and the provision of technical services regarding foreign trade, as well as banking and transportation services. The company was founded in 1949 and is headquartered in Caxias do Sul, Brazil.</t>
   </si>
   <si>
     <t>Positivo Tecnologia SA, formerly Positivo Informatica SA is a Brazil-based technology company, specializing in the development and manufacture of hardware-based technology. The Company is mainly engaged in the industrialization, trading and development of projects in the Information Technology (IT) area; industrialization, sale and lease of software and hardware; as well as sale of IT equipment, such as all-in-one computers, notebooks, netbooks and tablets, educational software systems and a range of Internet Things (IoT) products. Positivo Tecnologia is also active in the mobile phone market, offering smartphones and feature phones. The Company operates through three main segments, Retail, Government and Corporate. Positivo Tecnologia SA has several subsidiaries, including Positivo Argentina SRL, Crounal SA and Positivo Distribuicao e Comercio Ltda.</t>
@@ -2693,16 +2631,16 @@
     <t>PPLA Participations Ltd is an investment company. The Company is focused on investing in equity positions, including several investments overseas and some investments in Brazil. The Company’s business units include Principal Investments and Private Equity. The Company’s business unit Principal Investments is engaged in equity investments in a range of financial instruments, including investments in merchant banking and real estate investments mainly in Brazil as well as investments in several financial instruments in the global market. Its business unit Private Equity is engaged in the management of private equity funds, which are investments in privately-held or publicly-held companies for which shares cannot be freely traded on stock exchanges, with capital financed by qualified third-party investors and by the Company itself.</t>
   </si>
   <si>
-    <t>Petro Rio SA, formerly known as HRT Participacoes em Petroleo SA, is a Brazil-based holding company engaged in the oil and gas industry. Through its subsidiaries, the Company is mainly involved in the exploration and production (E&amp;P) of oil and natural gas in Brazil and overseas. The Firm focuses on managing reserves and redeveloping mature production fields located on land (onshore) and in the sea (offshore). The Company’s activities include also discovering fields of oil or/and natural gas through seismic and geological studies, evaluation of discoveries, development of projects and implementation of the necessary infrastructure and commercialization of products. The Company operates through a number of subsidiaries, including Brasoil Manati Exploracao Petrolifera SA, Petro Rio Internacional SA and Petro Rio O&amp;G Exploracao e Producao de Petroleo Ltda, among others.</t>
-  </si>
-  <si>
-    <t>Priner Servicos Industriais SA is a Brazil-based company, which is engaged in the industrial services and maintenance sector. The Company operates throughout Brazil providing services in the petrochemical, pulp and paper, steel, offshore, naval and mining sectors. The Company’s solutions are: Access, Habitat, Thermal Insulation and Industrial Paintwork. Its Access solutions offering include: up system, Web Deck, scaffolding system and rope access. Its Habitat solutions offering include: safe and economic, flexibility and certifications. Its Thermal Insulation solutions offering include: conventional, removable and reusable, as well as Passive Fire Protection (PFP). Its Industrial Paintwork solutions offering include: asset preservation, customized design as well as technical staff.</t>
+    <t>Prio S.A., together with its subsidiaries, engages in the exploration, development, and production of oil and natural gas properties in Brazil and internationally. It holds a 100% interest in the Polvo Field covering approximately 134 square kilometres located in the southern portion of the Campos Basin, Rio de Janeiro; and the Frade Field that consists of approximately 154 kilometres located in the northern region of the Campos Basin, Rio de Janeiro. The company also holds interest in the Manati Field that comprises approximately 76 square kilometres located in the Camumu Basin, on the coast of the State of Bahia. In addition, it imports, exports, refines, sells, and distributes oil, natural gas, fuels, and oil by-products; and engages in the generation, sale, and distribution of electric power, as well as holds interests in other companies. The company was formerly known as Petro Rio S.A. and changed its name to Prio S.A. in May 2023. Prio S.A. was incorporated in 2009 and is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Priner Serviços Industriais S.A. provides industrial services and rental services in the petrochemical, pulp and paper, steel, offshore, naval, mining and infrastructure sectors in Brazil. The company provides access solutions, including docking scaffolding, prinerup, linkdeck, rope access, and prinerdeck; and pressurized habitat solutions, such as offshore oil production platforms, refineries, industrial plants, and petrochemical terminals. It also offers inspection solutions, including non-destructive testing, manufacturing inspection and expediting, welding engineering, consulting in end, data book, training, and tank inspections; thermal insulation solutions for conservation and operational risk reduction; and industrial painting for the preservation of property lines, equipment, and metal structures. In addition, the company operates in industrial maintenance and assembly market of large onshore and offshore industrial plants; leasing scaffolding, special access equipment; and pressurized cabins; offshore industrial painting and surface treatment market; and manufacturing of removable and reusable insulators for thermal insulation, acoustic insulation and passive fire protection for industrial equipment, as well as trade, import, and export of insulating products and installation of self-made products. Priner Serviços Industriais S.A. was formerly known as Mills SI Serviços Industriais S/A and changed its name to Priner Serviços Industriais S.A. in 2016. The company was founded in 1982 and is based in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Porto Seguro SA is a Brazil-based company primarily engaged in the automobile insurance sector. The Company's activities are divided into six business segments: Car insurance, which offers automobile insurance products; Health insurance and plans, which provides health and dental insurance policies and healthcare plans; Life insurance and pension plan, which includes life insurance products and management of pension plans; Other insurance, which provides other non-life insurance policies; Financing, which is involved in the credit transactions, and Other, which mainly includes insurance services provided in Uruguay. In addition, the Company offers a range of services not related to insurance activity, such as electronic protection and surveillance and distribution of automotive parts. The Company is controlled by Porto Seguro Itau-Unibanco Participacoes SA.</t>
   </si>
   <si>
-    <t>PBG SA, formerly Portobello SA, is a Brazil-based company primarily engaged in the production and commercialization of ceramic products. The Company’s portfolio includes flooring, technical and enameled porcelain tiles, decorative pieces, mosaics, products for the coating of internal walls and external facades, among others. Through its subsidiaries, the Company is also involved in the administration of network of franchise stores, under brand names Portobello Shop and Emporio Portobello, specializing in ceramic tiles. Additionally, the Company is active in the provision of complementary services in the construction materials area. The Company’s subsidiaries include Portobello America Inc, PBTech Comercio e Servicos de Revestimentos Ceramicos Ltda, Portobello Shop SA and Mineracao Portobello Ltda.</t>
+    <t>PBG S.A. manufactures, exports, and sells ceramic and porcelain products in Brazil and internationally. The company offers floor tiles, technical porcelain and enameled tiles, decorated and special pieces, mosaic tiles, and products for indoor walls and outdoor façades, as well as supplementary services in the sector of civil construction materials. It sells its products through a network of Portobello Shop retail chain, home centers, and development and construction companies. PBG S.A. offers tiles through approximately 143 store. The company was formerly known as Portobello S.A. and changed its name to PBG S.A. in December 2015. PBG S.A. was incorporated in 1977 and is headquartered in Tijucas, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Pettenati SA Industria Textil is a Brazil-based company engaged in the textile industry. The Company is primarily active in the manufacture, marketing and export of mesh finished fabrics and clothing articles. Its portfolio includes a range of dyed and printed fabrics. The Company’s product lines include Softs, Plushs, Half Meshes, Viscose and Sport Lines, among others. The Company’s fabrics production is performed in two plants, one located in Caxias do Sul in the Brazilian state of Rio Grande do Sul, and one in El Salvador. The Company operates also an industrial unit in Caxias do Sul, Brazil, which is active in the manufacture of apparel products. As of June 30, 2012, it held a 70.20% stake in Pettenati Centro America SA de CV. </t>
@@ -2714,43 +2652,40 @@
     <t>Raia Drogasil SA is a Brazil-based company engaged in retail sales of medications, specialty medicines, perfumery, personal care and beauty products, cosmetics and dermocosmetics. The Company’s sales are carried out by over 860 stores, located in the states of Sao Paulo, Minas Gerais, Rio de Janeiro, Parana, Goias, Espirito Santo, Santa Catarina, Rio Grande do Sul, Bahia, Mato Grosso and Mato Grosso do Sul and in the Distrito Federal. The Company operates through a range of subsidiaries, such as Raia SA and 4-Bio Medicamentos SA.</t>
   </si>
   <si>
-    <t>Rumo SA is a Brazil-based company primarily engaged in the cargo transportation sector. Through its subsidiaries, the Company operates in the rail transportation segment in the Southern and the Midwest regions of Brazil, with rail network that consists of five concessions with approximately 13,500 km of railroad tracks. Rumo SA manages also transshipment terminals located in the states of Mato Grosso, Sao Paulo, Parana, and Rio Grande do Sul, as well as port elevation in terminal in Porto de Santos. In addition, through Brado Logistica e Participacoes SA, it is engaged in container operations. The Company offers transportation of agricultural commodities, fuel and final goods, intermodal freight transport, integrated warehousing services, port operations and handling of merchandises, among others.</t>
+    <t>Rumo S.A., through its subsidiaries, provides rail transportation services. The company operates through three segments: North Operations, South Operations, and Container Operations. The North Operations segment engages in the railway, highway, and transshipment operations. The South Operations segment comprises of railway operations and transshipment activities. The Container Operations segment is involved in the container logistics and operations. The company offers logistics services primarily for exporting commodities, including integrated solution for transportation, handling, storage, and shipping from the production centers to the principal ports in the south and southeast of Brazil. Rumo S.A. was founded in 2008 and is headquartered in Curitiba, Brazil.</t>
   </si>
   <si>
     <t>Raízen S.A. operates as an integrated energy company in Brazil, Argentina, Paraguay, rest of Latin America, North America, Asia, Europe, and internationally. It operates in three segments: Marketing and Services, Sugar, and Renewable. The Marketing and Services segment trades in and sells fossil and renewable fuels through a franchised network of service stations under the Shell brand. Its Sugar segment engages in the origination, production, sale, and trading of sugar. The Renewable segment originates, produces, sells, and trades in ethanol; produces and sells bioenergy; resells and trades in electric power; and produces and sells solar energy and biogas. Raízen S.A. company was founded in 2011 and is headquartered in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
-    <t>Irani Papel e Embalagem SA, formerly known as Celulose Irani SA, (Irani) is a Brazil-based company primarily engaged in the paper industry. The Company’s activities are divided into three business lines: Corrugated Carboard Packaging segment (PO Packaging), which manufactures boxes and sheets of corrugated cardboard; Packaging Paper segment, which produces high- and low-weight Kraft paper and recycled paper; RS Forest and Resins segment, through which the Company cultivates pine, sells wood and produces resin extracted from pine, which is used as a raw material for the production of tar and turpentine. Irani owns several subsidiaries, such as Iraflor Comercio de Madeiras Ltda, Irani Geracao de Energia Sustentavel Ltda, HGE Geracao de Energia Sustentavel SA and Hsul Florestal SA.</t>
-  </si>
-  <si>
-    <t>Irani Papel e Embalagem S.A. manufactures and sells paper for production of packaging products in Brazil and internationally. The company also offers boxes and sheets of white and recycled paper, kraft paper, and corrugated sheets. In addition, it offers forestry services and resins. The company was founded in 1941 and is headquartered in Porto Alegre, Brazil.</t>
-  </si>
-  <si>
-    <t>Randon SA Implementos e Participacoes, formerly Randon Participacoes SA, is a Brazil-based company primarily engaged in the manufacture of heavy vehicles and parts. The Company's activities are divided into three business segments: Railway wagons and vehicles, which focuses on the production and distribution of various wagon types, such as hopper, gondola, platform, tank, sider and telescopic, as well as off-road trucks, truck bodies, trailers and semi-trailers; Automotive parts, which is responsible for the manufacture and marketing of automobile components for suspension, brake and transmission system, among others, and Services, which provides services related to the administration of consortium groups for the purchase of durable goods, as well as financing services for the Company's customers. It operates a distribution network in Latin America and Africa. The Company is a subsidiary of Dramd Partiicipacoes e Administracao Ltda.</t>
-  </si>
-  <si>
-    <t>Recrusul SA is a Brazil-based company primarily engaged in the production of specialized semi-trailers and tanks. The Company divides its business into two segments: Road Implements, and Industrial Refrigeration and Technical Assistance. Through the Road Implements segment, the Company is active in the production of refrigerated semi-trailers; tanks for transportation of fuels; stainless steel tanks for chemicals, petrochemicals and food in general, and silos for food, cement and construction industries, among others. In the Refrigeration and Technical Assistance segment, the Company is engaged in the provision of customized solutions for industrial equipment, such as evaporators, liquid separators and tanks, evaporative condensers, insulates panels, freezing tunnels and insulated doors. As of December 31, 2011, the Company's subsidiaries were Refrima SA, Refrisa SA and Recrusul Turismo Ltda.</t>
+    <t>Irani Papel e Embalagem S.A. manufactures and sells paperboard and packaging papers in Brazil and internationally. The company offers corrugated cardboards, papers, and kraft and recycled papers. It also it provides forestry services and resins. The company was founded in 1941 and is headquartered in Porto Alegre, Brazil.</t>
+  </si>
+  <si>
+    <t>Randon S.A. Implementos e Participações develops and sells transportation solutions. It operates through three segments: Vehicles and Implements, Auto Parts, and Services. The company manufactures and sells truck bodies, trailers, and semitrailers in the areas of bulk, tankers, dry cargos, tippers, silos, refrigerators, sugarcane, forestry, sider models, load everything, and vans; and hopper, gondola, tank, general cargo, platform, telescopic, and others. It also provides railroad cars, off-road trucks, backhoe loaders and other road implements, and special vehicles; sells spare parts and components; and produces and sells friction materials, suspensions, axles, brake, and coupling and rolling systems, as well as products and components for motion control and vehicle testing. In addition, the company provides financial and digital services; and develops and manages experimental research projects and technological solutions in automation and industrial robotics. It operates sales and service network in approximately 120 countries, including Brazil, Argentina, India, Uruguay, Holland, Colombia, Peru, Chile, Mexico, Canada, the United States, Africa, and Mercosur. The company was formerly known as Randon Participações S.A. and changed its name to Randon S.A. Implementos e Participações in November 2003. Randon S.A. Implementos e Participações was founded in 1949 and is headquartered in Caxias do Sul, Brazil.</t>
+  </si>
+  <si>
+    <t>Recrusul S/A manufactures and sells transport and industrial refrigeration equipment in Brazil and internationally. It offers truck trailers and tractors. Recrusul S/A was founded in 1954 and is based in Sapucaia do Sul, Brazil.</t>
   </si>
   <si>
     <t>RNI Negocios Imobiliarios SA, formerly Rodobens Negocios Imobiliarios SA, is a Brazil-based company engaged in the real sector. The Company is active in the purchase and sale of real estate properties; subdivision of land; development and construction of real estate properties; provision of services to third parties, and management of own or third party mortgage receivables portfolio. The Company has a number of subsidiaries, including Moradas Rodobens Incorporadora Imobiliaria - Lages III - SPE Ltda, Rodobens Incorporadora Imobiliaria 318 - SPE Ltda, Rodobens Moradas Incorporadora Imobiliaria - Pacatuba I - SPE Ltda, Sistema Facil Campinas I SPE Ltda, Sistema Facil Tambore 8 Villaggio SPE Ltda and Terra Nova Residence XVIII - SPE Ltda.</t>
   </si>
   <si>
-    <t>Rede D'Or Sao Luiz SA is a Brazil-based company engaged in the hospitals operation. The Company provides treatment in a number of areas, such as oncology, surgery, gynecology, cardiology, dietetics, neurology, dermatology, as well as pediatrics. Furthermore, the Company offers diagnostic services, scientific research and education partnerships, as well as learning programs for professionals, including doctors, nurses and psychologists. Its hospitals are located in the states of Rio de Janeiro, Sao Paulo, Pernambuco, Bahia, Sergipe, Maranhao, Parana, Ceara and Federal District, among others. Additionally, the Company operates a network of oncological clinics and analysis and imaging laboratories.</t>
-  </si>
-  <si>
-    <t>PetroReconcavo SA is a Brazil-based independent oil and gas operator. The Company specializes in the operation, development and revitalization of mature fields in onshore oil and gas basins. The Company has 155.9 MMboe of 2P (working interest) gross reserves. The Company is advancing in the creation of conditions for access to essential infrastructure for the flow and processing of natural gas by contracting services in the tolling modality, which allows it to directly access the national gas market. The Company's business model is based on purchasing (or providing operating services) concessions for mature onshore fields, operating these fields, revitalizing them and extending their reserves.</t>
-  </si>
-  <si>
-    <t>Rede Energia Participacoes SA, formerly Rede Energia SA, is a Brazil-based holding company engaged in the electrical energy sector. Together with its subsidiaries, the Company is active in the generation, distribution and commercialization of electrical energy, as well as other activities related to electricity sector. It operates in the generation sector through the hydroelectric power plant Guapore, owned by the subsidiary Tangara Energia SA, located in municipalities of Vale de Sao Domingos and Pontes e Lacerda, in the Brazilian state of Mato Grosso. The Company operates in the distribution sector through nine companies, including Centrais Eletricas Matogrossenses SA, among others. Through the subsidiary Rede Comercializadora de Energia SA, the Company is active in the intermediation and negotiation of energy contracts with generators, suppliers and free consumers. The Company’s subsidiary, Rede Eletricidade e Servicos SA, provides services related to the electrical energy sector.</t>
-  </si>
-  <si>
-    <t>Localiza Rent a Car SA (Localiza) is a Brazil-based company primarily involved in the car and fleet rental. The Company divides its business into three sectors: Car Rental division, which is responsible for car rental through its own agencies; Fleet Rental division, which is engaged in rental of fleet vehicles to corporations for long-term periods, and Franchising division, which is active in the administration and granting of franchise rights to use the Company’s brand, including the transfer of knowledge necessary for the operation of the business. Through its subsidiary Prime Prestadora de Servicos SA, the Company is also involved in the intermediation in the sale of cars previously used in its rental operations. As of December 31, 2011, the Company’s network, including domestic and foreign franchisees, comprised 449 branches in 314 cities in Brazil and 47 branches in 27 cities in seven other countries of South America.</t>
+    <t>Rede D'Or São Luiz S.A. operates a network of hospitals in Brazil. The company provides services in the medical areas; and diagnosis and treatment on cancer. It operates own hospitals, 3 hospitals administered, and oncology clinics, as well as provides other services, such as blood bank, dialysis, and outpatient clinics of various specialties in the states of Rio de Janeiro, São Paulo, Pernambuco, Maranhão, Bahia, Sergipe, Paraná, Ceará, Minas Gerais, Mato Grosso do Sul, Paraíba and in the Federal District; and has a robot assisted surgery facilities. In addition, it offers health and dental insurance; health and dental plans, and health and wellness solutions; and life insurance, private pension, and asset management solutions. The company was formerly known as Hospital Maternidade São Luiz S.A. Rede D'Or São Luiz S.A. was founded in 1977 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Petroreconcavo S.A. engages in the exploration and production of oil and natural gas in Brazil. The company was founded in 1999 and is headquartered in Mata De Sao Joao, Brazil.</t>
+  </si>
+  <si>
+    <t>Rede Energia Participações S.A., through its subsidiaries, engages in the generation, distribution, and commercialization of electricity in Brazil. The company is also involved in the construction, operation, maintenance, and services related to generation and distribution of electric energy. It offers its electricity to residential, industrial, commercial, rural, government, and public sector customers. The company was incorporated in 1969 and is headquartered in Cataguases, Brazil.</t>
+  </si>
+  <si>
+    <t>Localiza Rent a Car S.A. engages in car and fleet rental business. The company is also involved in granting franchises; sale of decommissioned and used cars; provision of sundry automotive, and travel and tourism services; and managing claims for insurance companies, as well as provision of tracking and telemetry services. It operates car rental agencies in Brazil, Argentina, Colombia, Ecuador, and Paraguay. The company serves individuals and legal entities. Localiza Rent a Car S.A. was founded in 1973 and is headquartered in Belo Horizonte, Brazil.</t>
   </si>
   <si>
     <t>Cosan Logística S.A. was acquired by Cosan S.A. Cosan Logística S.A. provides transport and elevation logistics services for the export of commodities in Brazil. The company’s activities include integrated transport, handling, storage, and shipment from the production centers to the southern and southeast ports. It also engages in the container logistics and other container operations, as well as cargo transportation, and port operation of distribution terminals and other related activities. In addition, the company is involved in the operation of terminals for transshipment and export of sugar and grains in the Port of Santos. Further, it operates in railway and road transportation business. The company was formerly known as Cosan Infraestrutura S.A. and changed its name to Cosan Logística S.A. in July 2014. The company was incorporated in 2014 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Renova Energia SA is a Brazil-based company that operates in the development, implementation and operation of power generation projects from renewable sources, including wind, small hydroelectric power plants (PCHs) and solar, as well as trading of energy and related activities. The Company is engaged in generating and trading electric power in all its forms; producing fuel from natural and renewable sources; providing logistics services to environmental advisory firms; providing advisory services for energy solutions related to the generation, trading, transmission and other businesses involving alternative energies; providing engineering, construction, logistics, study development and project services related to energy generation plants, as well as its implementation, operation, maintenance and exploration, manufacturing and trading of pieces and equipment for the generation, transmission and distribution of energy.</t>
+    <t>Renova Energia S.A. develops, implements, and operates projects for the generation of energy from renewable sources in Brazil. It operates wind farms, hydroelectric power plants, and solar energy projects. The company was founded in 2001 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Industrias Romi SA is a Brazil-based company engaged in the production, sale, import and export of machine tools and plastic processing machines. The Company's product line includes metal cutting machines, metal removal equipments, conventional engine lathes and machining center, plastic injection molding machines, blow machines, rough, ductile and vermicular castings, among others. The Company's main customers are from automotive, agricultural machinery, capital goods, consumer goods, tooling and hydraulic equipment sectors. It exports its products mainly to the United States, Latin America and Europe. The Company operates several industrial plants. The Company’s subsidiaries included Rominor Comercio, Empreendimentos e Participacoes SA, Romi Machine Tools Ltd, Interocean Comercio Importadora e Exportadora SA and Romi Europa GmbH, among others. On September 18, 2013, it sold certain assets of Romi Italia Srl to Scout One Srl, as well as Sandretto brand and intellectual property.</t>
@@ -2771,19 +2706,19 @@
     <t>Metalurgica Riosulense SA is a Brazil-based company involved in the automotive industry. The Company is primarily active in the manufacture of parts and accessories for motor vehicles, through the process of casting of ferrous and non ferrous metals. The Company’s portfolio includes chassis brackets; adapters; carters; connections; manifolds; pulleys; wheel hubs; rocker arms; piston and rings; water pumps; injector sleeves; bearings and bearing covers; crankshaft rings; engine valves and brackets; valve guides, guide reamers, seats and springs; hydraulic tappets; camshafts, and cylinder liners, among others. The Company sells its products to automobile manufacturers, as well as on the spare parts aftermarket.</t>
   </si>
   <si>
-    <t>Banco Santander Brasil SA is a Brazil-based bank. The Bank operates through two segments: Retail and Wholesale. The Retail segment provides financial services to individuals, as well as to small and medium-sized enterprises. The Wholesale segment focuses on large corporations and capital markets. Together with its subsidiaries, the Bank offers a range of financial services, including consumer, commercial and investment banking services, lending and financing, mortgage lending, leasing, credit card operations and foreign exchange. The Bank is also engaged in the asset management, capitalization, securities brokerage, insurance brokerage and pension plans operations. The Company has a number of subsidiaries, such as Santander Corretora de Cambio e Valores Mobiliarios SA, Banco Bandepe SA and Sancap Investimentos e Participacoes SA, among others.</t>
-  </si>
-  <si>
-    <t>Companhia de Saneamento do Parana Sanepar, formerly Companhia de Agua e Esgotos do Parana - Agepar, is a Brazil-based company active in the provision of basic sanitation services. The Company is primarily engaged in the water distribution, as well as in the collection and treatment of sewage. The Company is also involved in the studies, projects and expansion of water distribution networks, collection networks and sewage treatment infrastructure. Additionally, Companhia de Saneamento do Parana Sanepar provides collecting and processing of solid waste. In addition, it provides consulting services and technical assistance. The Company collaborates with agencies, governmental and municipal state entities. Companhia de Saneamento do Parana Sanepar operates in 346 municipalities.</t>
-  </si>
-  <si>
-    <t>Grupo SBF SA is a Brazil-based company engaged in the apparel and clothing industry. The Company is specialized in the retailing of clothes through a network of stores, as well as through its Internet Website. The Company offers different kind of products dividing them into: sports, men, women, children, shoes, accessories, equipment and supplements, among others. The Company also offers its outlet products, in a special section where it offers old-session products with a discount in the price. It retails through more than 180 stores in regions like Espirito Santo, Sao Paulo, Amazonas, Rio de Janeiro, within the Brazilian territory. It also operates an online personal trainer services called Bora.</t>
+    <t>Banco Santander (Brasil) S.A., together with its subsidiaries, provides various banking products and services to individuals, small and medium enterprises, and corporate customers in Brazil and internationally. The company operates through, Commercial Banking and Global Wholesale Banking segments. It offers deposits and other bank funding instruments; debit and credit cards; digital prepaid solutions; payment platform; loyalty programs; employee benefit vouchers; payroll loans; digital lending and online debt renegotiation platform; mortgages; home equity financing products; consumer credit; and local loans, commercial and trade finance, guarantees, structured loans, and cash management and funding solutions, as well as on-lending transfer services. It also provides financing and financial advisory services related to projects, origination and distribution of fixed income securities in the debt capital markets, financing of acquisitions and syndicated loans, other structured financing arrangements, and subordinated debts; and advisory services for mergers and acquisitions, and equity capital markets transactions. In addition, the company structures and offers foreign exchange, derivative, and investment products for institutional investors, and corporate and retail customers; and provides market making services. Further, it offers instant payment services; range of products and services focused on the agribusiness sector; and microfinance services, as well as digital trading platform. Additionally, it provides its financial services and products to its customers through multichannel distribution network comprising branches, mini-branches, ATMs, call centers, Internet banking, and mobile banking. Banco Santander (Brasil) S.A. was incorporated in 1985 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Companhia de Saneamento do Paraná - SANEPAR provides sanitation services in Brazil. The company is involved in the water treatment and distribution; and collection and treatment of sewage and solid waste, as well as study, project, and construction work of facilities. It also offers advisory and technical assistance services for related activities. The company provides sanitary services in 325 municipalities of Paraná and Santa Catarina. It serves federal, state, municipal agencies, and other entities. The company was founded in 1963 and is headquartered in Curitiba, Brazil.</t>
+  </si>
+  <si>
+    <t>Grupo SBF S.A. engages in the retail and wholesale of sports and leisure products in Brazil. The company offers footwear, clothing, equipment, and accessories. It also provides logistics services; and organizing races and sporting events under the Xterra and Uphill brands. In addition, the company engages in the advertising films and audiovisual production businesses. Further, it operates dance platform and sports channel network. The company sells sports and leisure products through physical stores and e-commerce channels. Grupo SBF S.A. was founded in 1981 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Companhia de Saneamento Básico do Estado de São Paulo – SABESP provides basic and environmental sanitation services in the São Paulo State, Brazil. The company supplies treated water and sewage services to residential, commercial, and industrial private customers, as well as public. As of December 31, 2022, it provided water services through 10.1 million water connections; and sewage services through 8.6 million sewage connections in 375 municipalities of the São Paulo State. The company was founded in 1954 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Sao Carlos Empreendimentos e Participacoes SA is a Brazil-based company principally engaged in the commercial real estate sector. The Company is involved in the management of its own or third party real estate properties, leasing of property and operation of parking lots. The Company's real estate portfolio includes office buildings, distribution centers and street stores, located in the states of Sao Paulo, Rio de Janeiro, Minas Gerais and Rio Grande do Sul. As of December 31, 2011, the Company's subsidiaries included 253 Participacoes Ltda, SC Corretora de Imoveis Ltda, SC Varejo Grande SP Empreendimentos e Participacoes Ltda, Top Center Empreendimentos e Participacoes Ltda and SC Sul Empreendimentos e Participacoes Ltda, among others. In November, 2013, the Company concluded sale of property Brazilian Financial Center to Fundo de Investimento Imobiliario FII Prime Portfolio and it received BRL 250 million.</t>
+    <t>São Carlos Empreendimentos e Participações S.A. engages in the investment and management of commercial real estate projects in the States of São Paulo and Rio de Janeiro. Its property portfolio comprises office buildings and convenience centers. The company also leases properties. São Carlos Empreendimentos e Participações S.A. was incorporated in 1985 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Somos Educação S.A. operates as an education company in Brazil. It publishes books and collections containing pedagogical orientation; children’s books; text books; and educational and paradidactical products of Brazilian and international authors, as well as offers a portfolio of learning systems. The company also offers Leader in Me, a program for behavioral change in educators, children, and adolescents; PROFS, a teacher training program; AppProva, a platform that helps high school students to prepare for exams; and Plurall, a platform for student academic assistance, as well as provides technical and higher education services. In addition, it operates proprietary schools; and Red Balloon, an English school for children and teens ages 3 to 17. The company was formerly known as Abril Educação S.A. and changed its name to Somos Educação S.A. in July 2015. Somos Educação S.A. was founded in 2010 and is based in São Paulo, Brazil. Somos Educação S.A. operates as a subsidiary of Saber Serviços Educacionais S.A.</t>
@@ -2792,13 +2727,13 @@
     <t>Ser Educacional SA is a Brazil-based company principally engaged in the education sector. The Company focuses on developing post-secondary, vocational and higher education institutions. The Company provides undergraduate, graduate, master’s degree and doctoral degree courses, Master of Business Administration (MBA) programs and vocational trainings. In addition, it manages research institutes that develop educational, scientific, political, economic and social projects. The Company also organizes national and international conferences in various areas, such as business administration, law, tourism, communications, information technology, health and education. The Company's education network is located in over10 Brazilian states amd consists of universities, colleges and a university center.</t>
   </si>
   <si>
-    <t>Sequoia Logistica e Transportes Ltda is a Brazil-based company active in the logistic industry. The Company operates in the logistics services for the clients, based on the integrated logistics and inventory and distribution management segment. The Company’s segment are Educational, E-commerce, Fashion and retail.</t>
+    <t>Sequoia Logística e Transportes S.A. provides logistics, warehouse, transportation, supply chain, and operation management services. The company was founded in 1996 and is headquartered in Embu Das Artes, Brazil.</t>
   </si>
   <si>
     <t>Springs Global Participacoes SA is a Brazil-based company engaged in the textile industry. The Company focuses on spinning, weaving, finishing and manufacturing of home textile products, mainly bed and bath textile articles, such as tablecloths, bed sheets, pillowcases, mattress pads, blankets, towels, shower curtains and bath accessories. The Company offers its products under various brand names, including MMartan, Casas Moyses, Artex, Santista, Springmaid, Fantasia, Arco Iris and Wabasso, among others. The Company operates production facilities in Brazil, Argentina and the United States, as well as distributes products in the United States, Canada, Brazil and Argentina. It controls a numed of subsidiaries, such as Springs Global US Inc, Coteminas SA, Ammo Varejo Ltda and American Sportswear Ltda. It is owned by Companhia de Tecidos Norte de Minas COTEMINAS.</t>
   </si>
   <si>
-    <t>T4F Entretenimento SA, formerly CIE Brasil SA, is a Brazil-based public company which engages in the Live Entertainment Sector. The Company is active in the administration, promotion, organization, production, agency, programming and implementation of activities related to live entertainment, such as sports, arts, culture, concerts and shows, as well as in the administration and operation of venues, such as theaters, gymnasiums and stadiums. The Company operates different levels of live entertainment value chain, including: venue operation; ticketing; food, beverage and merchandise sales; and corporate sponsorships. Nowadays, the Company operates Teatro Opera Orbis Seguros, in Buenos Aires, and Teatro Renault, in Sao Paulo.</t>
+    <t>T4F Entretenimento S.A. operates as a live entertainment company in South America. The company offers a range of artistic and cultural content. It also promotes and sells tickets for shows and events, such as live music events; produces family events, and theater; operates venue; operates in ticketing industry under the Tickets for Fun and Ticketek brands; sells food, beverage, and merchandise; and offers corporate sponsorship services comprising event promotions. The company was founded in 1983 and is based in Sao Paulo, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Schulz SA is a Brazil-based company engaged in the production of industrial machinery and equipment. The Company divides its business into two segments: the Compressor Division and the Automotive Division. The Company’s product portfolio include metallurgical goods; air compressors in general; air compressors and vacuum pumps for the health sector; pneumatic and electrical hand tools; fastening, clamping and cutting hand tools; machinery, tools, fixtures and accessories for metal spraying and working; materials for excavation and soil penetration; pressure water cleaners; pumps and motor pumps for water pumping, and mechanical, hydraulic and electrical equipment, among others. The Company is also active in the marketing of lubricating oils and greases. Additionally, it provides services of cutting and painting of castings, as well as services of installation, maintenance, technical assistance and rental of the Company’s products. </t>
@@ -2810,10 +2745,10 @@
     <t>Saraiva Livreiros S.A. - em Recuperação Judicial retails books and stationery products. The company also offers office supplies, electronic games, software, toys, gift cards, and prepaid cards. It sells its products through stores and e-commerce platform. Saraiva Livreiros S.A. - em Recuperação Judicial was founded in 1914 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Smartfit Escola de Ginastica e Danca SA is a Brazil-based company engaged in the fitness sector. The Firm manages, operates and maintains a fitness gym network based in Brazil, as well as in Peru, Mexico, Colombia, Chile, Argentina, Paraguay, Equador, Guatemala, Panama and Dominican Republic. The Company offers a variety of equipment including rowing machines, treadmills and muscle-building equipment. Furthermore, it offers different services among which are a variety of classes, such as dance classes, yoga and group trainings. The Firm’s activities are divided into three business lines: High Value/Low Price, which includes gyms under Smart Fit brand name; Premium, which operates gyms under Bio Ritmo and O2 brand names; and Other/New Businesses, which comprises royalties charged to franchisees and new models and fitness brands that the Company is developing.</t>
-  </si>
-  <si>
-    <t>Smiles Fidelidade S.A. provides loyalty programs to financial institutions, retail and entertainment customers, airline partners, and individuals. The company focuses on the development and management of the loyalty program; the sale of redemption rights of awards; and the creation and management of individual and corporate database. It also operates travel agency. The company was formerly known as Webjet Participações S.A. The company was founded in 1994 and is headquartered in Barueri, Brazil. Smiles Fidelidade S.A. is a subsidiary of Gol Linhas Aéreas Inteligentes S.A.</t>
+    <t>Smartfit Escola de Ginástica e Dança S.A. operates a network of Smart Fit gyms in Latin America. The company also offers digital fitness services. The company was founded in 1996 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Smiles Fidelidade S.A. provides loyalty programs to financial institutions, retail and entertainment customers, airline partners, and individuals. The company focuses on the development and management of the loyalty program; the sale of redemption rights of awards; and the creation and management of individual and corporate database. It also operates travel agency. The company was formerly known as Webjet Participações S.A. The company was founded in 1994 and is headquartered in Barueri, Brazil. Smiles Fidelidade S.A. operates as a subsidiary of Gol Linhas Aéreas S.A.</t>
   </si>
   <si>
     <t>São Martinho S.A., together with its subsidiaries, engages in the production and sale of sugar, ethanol, and other sugarcane byproducts in Brazil. The company operates through Sugar, Ethanol, Electric Power, Real Estate Business, Yeast, and Other Products segment. It offers a range of raw sugar; hydrated ethanol, which is used in tanks of cars; anhydrous ethanol that is used as a gasoline additive in gasoline-powered vehicles; and industrial ethanol, which is primarily used in the production of paints, cosmetics, and alcoholic beverages. The company also generates electricity from sugarcane bagasse; and provides byproducts, including yeast used in animal feed, as well as fusel oil, which is used as a solvent and pure amyl ethanol. In addition, it is involved in the cultivation of sugarcane; development, rental, and sale of real estate properties; import and export of goods, products, and raw materials; development of land through agricultural lease and partnerships; exploitation of real estate and mining enterprises; and provision of general product storage services. The company was founded in 1914 and is based in São Paulo, Brazil. São Martinho S.A. is a subsidiary of LJN Participações S.A.</t>
@@ -2825,7 +2760,7 @@
     <t>Boa Safra Sementes SA is a Brazil-based company that operates in the seed sales market. The Company has a portfolio of soybean, corn and bean seeds, offering treatments with chemical and genetic components. The Company has Seed Processing Units (SBU). Processing and processing consist of cleaning, drying, standardizing and separating the seeds. Industrial Seed Treatment consists of two types: addition of chemical components that can vary according to customer demand (IST 1st Generation), and IST 1st Generation plus a five-molecule compound (IST Complete). This treatment offers a higher level of productivity, safety, efficiency and precision of the crop through the control of the spectrum of pests and initial diseases, in addition to the maintenance of the plant stand. Customers can choose to purchase processed seeds or seeds processed and treated with IST 1st Generation or IST Complete.</t>
   </si>
   <si>
-    <t>Grupo de Moda SOMA SA, formerly known RBX Rio Comercio de Roupas SA is a Brazil-based company active in the fashion industry. The Company operates a platform of exclusive fashion brands, such as Fabula, a children's clothing retailer that offers garments for boys, girls and infants; Foxton, a Brazilian retailer of clothes, footwear, and accessories; Maria Filo, a fashion brand with women’s clothing, jewelry and bags in its offering, Off Premium, a brand that offers female and masculine fashion, as well as Hering, a fashion brand that offers sport clothes, among others. The Company has several subsidiaries, including Plantage Rio, Inc, Cidade Maravilhosa Industria e Comercio de Roupas SA, SOMA Ventures Participacoes Ltda as well as ByNV Comercio Varejista de Artigos do Vestuario SA.</t>
+    <t>Grupo de Moda SOMA S.A. manufactures and sells clothing products in Brazil. The company operates through stores, as well as an e-commerce site. It offers clothing under the Animale, Farm, Fabula, A.Brand, Foxton, Cris Barros, and Off Premium brands. Grupo de Moda SOMA S.A. was founded in 2010 and is based in Rio De Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Sondotecnica Engenharia de Solos SA is a Brazil-based company engaged in the provision of services in the engineering sector. The Company is active in technical and economic consultancy, preparation of engineering projects, development of master plans, consulting, inspection and supervision of project execution, construction management and other services related to engineering sector. The Company’s portfolio includes services for various segments, such as transport, sanitation, hydraulics, environment, electricity, oil and gas and special projects. As of December 31, 2011, the Company operated through two subsidiaries, including a wholly owned Sondotecnica International Co and Sondotecnica Tecnologia Ltda, in which it held a 96.63% stake.</t>
@@ -2834,16 +2769,13 @@
     <t>Springer S/A, together with its subsidiaries, engages in the engineering, manufacturing, industrialization, and commercialization of plastic injection products for food and beverage industry in Brazil. It offers laminated, rigid, semi-rigid, and flexible plastics; and resins, emulsions, and granulated products. The company was formerly known as Springer Refrigeração S.A. and changed its name to Springer S/A in July 1985. Springer S/A was founded in 1934 and is headquartered in Cotia, Brazil.</t>
   </si>
   <si>
-    <t>Sinqia SA, formerly Senior Solution SA is a Brazil-based company primarily involved in the information technology (IT) sector. The Company offers IT solutions for various financial institutions, including banks, insurance companies, pension plans administrators and asset managers, among others. The Company's services range is divided into four areas: Software, which develops IT systems related to trading, control, management and processing operations; Services, which consists of software factory and development of custom projects; Outsourcing, which provides human resources specialized in the IT sector, and Consulting, which includes planning and assembly of new businesses, organizational performance analysis, as well as process engineering, among others. The Company operates through a number of subsidiaries, such as Senior Solution Consultoria em Informatica Ltda, Controlpart Consultoria e Participacoes Ltda and Aquarius Tecnologia e Informatica Ltda.</t>
+    <t>Sinqia S.A. operates as a technology provider for the financial industry in Brazil. The company operates financial institution platform for regulatory/accounting, credit, SPB/PIX, exchange, core banking, and open banking; fintech platform for credit, digital banks/wallet, PIX/PSTI, digital onboarding, digital signature, and negotiation; asset platform for FIDC, custody portal, and controllership; pension platform; and consortia platform. It also provides digital transformation and business design service. The company was formerly known as Senior Solution S.A. and changed its name to Sinqia S.A. in February 2019. The company was incorporated in 1996 and is headquartered in Sao Paulo, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Santos Brasil Participacoes SA is a Brazil-based holding company that provides logistics services. Through its subsidiaries, the Company manages and operates port facilities and provides integrated logistics for cargo transportation. The Company operates in three business areas: Port Container Terminals sector, which includes port operators engaged in loading and unloading container ships and bonded warehouses providing the storage of cargo handled in their docks; Logistics sector, which offers distribution center and transportation services, and Vehicles Terminal, which provides loading and unloading of vehicles and cars warehousing. The Company’s three container terminals are located in the states of Sao Paulo, Para and Santa Catarina. </t>
   </si>
   <si>
-    <t>Sul América S.A., through its subsidiaries, engages in the insurance business in Brazil. The company operates through Health, Life and Private Pension, Asset Management, and Other segments. It offers health and dental insurance, health and dental administrative services, healthcare and well-being solutions, life and personal accident insurance, private pension, and asset management. The company was founded in 1895 and is headquartered in Rio de Janeiro, Brazil. As of December 21, 2022, Sul América S.A. operates as a subsidiary of Rede D'Or São Luiz S.A.</t>
-  </si>
-  <si>
-    <t>Sul America SA is a Brazil-based company engaged in the insurance sector. The Company provides health and life insurance services for individuals and small, medium and large-sized companies. Its offer includes a range of solutions, such as health and dental, Administrative Services Only (ASO), wellness, personal accidents, life, travel and private pension. The Firm is involved also in the asset management segment. The Company operates through Saepar Servicos e Participacoes SA, which holds a number of subsidiaries, such as Sul America Companhia de Seguro Saude, Sul America Capitalizacao SA Sulacap and Sul America Investimentos Gestora de Recursos SA, among others. It is controlled by Sulasapar Participacoes SA.</t>
+    <t>Sul América S.A., through its subsidiaries, engages in the insurance business in Brazil. The company offers health and dental insurance, managed health and dental administrative services, health and well-being solutions, personal insurance, private pension, and asset management services. The company was founded in 1895 and is headquartered in Rio de Janeiro, Brazil. Sul América S.A. operates as a subsidiary of Rede D'Or São Luiz S.A.</t>
   </si>
   <si>
     <t>Suzano S.A. produces and sells eucalyptus pulp and paper products in Brazil and internationally. It operates through Pulp and Paper segments. The company offers coated and uncoated printing and writing papers, paperboards, tissue papers, and market and fluff pulps; and lignin. It also engages in the research, development, and production of biofuel; operation of port terminals; power generation and distribution business; commercialization of equipment and parts; industrialization, commercialization, and exporting of pulp and standing wood; road freight transport; biotechnology research and development; and commercialization of paper and computer materials. In addition, the company is involved in the business office, production packaging, and financial fundraising activities; research, development, production, commercialization, and distribution of wood-based textile fibers, yarns, and filaments produced from cellulose and microfibrillated cellulose; and research and development of wood raw materials for the textile industry. Suzano S.A. was formerly known as Suzano Papel e Celulose S.A. and changed its name to Suzano S.A. in April 2019. The company was founded in 1924 and is headquartered in Salvador, Brazil.</t>
@@ -2852,22 +2784,22 @@
     <t>The SYN PROP &amp; TECH is a leading Brazilian Company of real estate acquisition, lease, sales, development and operation. The Company focuses in the segments of high-end corporate buildings and shopping malls, with investments mainly in the states of São Paulo, Rio de Janeiro, and is part of projects located in Minas Gerais, Goiás and Bahia. With over 16 years of experience in the segment, SYN is the result of the spin-off in 2007 of the activities related to commercial real estate of Cyrela Brazil Realty. The Company has knowledge and experience in several technical aspects of performance and occupation, which leads to assets with a high standard of quality and sophistication, helping the Company to consistently achieve occupancy rates higher than those verified in the market. Currently, SYN has around 244,000 sqm in leasing areas under its operation. In the segments of Triple A and Class A Corporate Buildings, the Company’s portfolio includes 15 operating properties, totaling a leasing area of around 105,000 square meters, held exclusively by SYN. SYN is part of 7 ventures in shopping malls, directly managing 6 of them, which total around 142,000 square meters of ABL under its operation.</t>
   </si>
   <si>
-    <t>Transmissora Alianca de Energia Eletrica SA (Taesa) is a Brazil-based company involved in the electricity transmission. The Company specializes in the implementation, operation and maintenance of electric power transmission lines comprising the basic grid of the National Interconnected System (SIN). The Company holds approximately 40 transmission concessions in Brazil. In addition, it provides planning studies of transmission infrastructure, chemical analysis of materials, engineering services and technical support, among others. The Company operates through a number of subsidiaries, such as Nordeste Transmissora de Energia SA, Novatrans Energia SA, Miracema Transmissora de Energia SA and Sul Transmissora de Energia SA.</t>
+    <t>Transmissora Aliança de Energia Elétrica S.A. implements, operates, and maintains electric power transmission facilities in Brazil. It operates approximately a total length of 15,130 kilometers (km) of transmission lines, which include 12,362 km of transmission lines in operation and 1,746 km of lines under construction; and 108 substations with voltage ranging from 230 and 525kV. The company was founded in 2000 is headquartered in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Taurus Armas SA, formerly known as Forjas Taurus SA, is a Brazil-based company primarily engaged in the production of short weapons. The Company divides its operational segments into Weapons, Helmets and Others. The Weapons segment manufactures and distributes revolvers, civil and military pistols and ammunition, as well as custom metal pieces, such as motorcycle parts. The Helmets segment is involved in the production of helmets for motorcyclists. The Others segment includes the manufacturing and marketing of glasses, plastic injected products, such as waste containers, tools for construction, mechanics and gardening and Metal Injection Molding (MIM), used in various industries, such as automotive, electronic or oil, among others. The Company, together with its subsidiaries, operate multiples manufacturing plants located in the Brazilian state of Rio Grande do Sul, the state of Parana, the state of Bahia and in the United States. </t>
   </si>
   <si>
-    <t>Tecnosolo Engenharia SA is a Brazil-based company active in the civil engineering sector. In engineering consultancy, it is active in the design, supervision, inspection and management of construction projects. In the area of construction, its portfolio includes various real estate developments, such as sport arenas, office buildings, river drains, roads, refineries and dams, among others. In the sector of special engineering services, it provides surveys, special foundations, slopes contentions, groundwater lowering, superficial and deep drainage, control of settlements, soils and materials testing, among others. In the area of environment, it provides environmental management services, environmental impact assessment, design of reforestation, recovery of degraded areas and environmental diagnostics. In the area of information technology, it undertakes geomarketing work and develops geographic information systems. In April 2014, it established Tecnosolo Servicos de Engenharia SA.</t>
+    <t>Tecnosolo Engenharia S.A. provides construction and engineering services in Brazil. The company constructs irrigation and drainage, dams, hydraulic works and water resources, water/sewer sanitation, highways, railways, airports, ports, waterways, residential/commercial/industry/sports buildings, energy generation/transmission/distribution, stabilizations, bridges and viaducts, tunnels, subway, mining, petrochemical, systems/GIS/geomarketing, environment, and landscaping projects. It also offers engineering consulting services in the areas of basic studies/preliminary studies, feasibility studies inspection, pre-project management, and supervision, as well as executive, legal, and basic projects. In addition, the company provides engineering services for technological controls, soil tests, instrumentations, geological, geotechnical, and geophysical investigations, settlement controls, topography, root pile and pressure-anchoring, deep drainage, lowering of groundwater structural, reinforcement and recovery, protection of slopes, diaphragm walls, waterproofing, drilling, shoring of foundation pits, injections, rock dismantling, and tie rods lining load tests. Tecnosolo Engenharia S.A. was founded in 1957 and is based in Rio de Janeiro, Brazil.</t>
   </si>
   <si>
     <t>Tecnisa SA is a Brazil-based company involved in the real estate sector. The Company and its subsidiaries are engaged in the development, construction, leasing, management, purchase and sale of residential and commercial real estate properties and lands. In addition, the Company offers consulting services related to real estate market. The Company develops, sells and builds residential and commercial projects with an integrated business model. The Company operates from the land acquisition until financing part of its customers. In addition, the Company offers consulting services related to real estate market. It operates in the Brazilian market. The Company focuses on the region of Sao Paulo (main market), followed by Brasilia and Curitiba.</t>
   </si>
   <si>
-    <t>Technos SA, formerly GMT Participacoes SA, is a Brazil-based company primarily engaged in the manufacture and marketing of watches. Through its subsidiary Technos da Amazonia Industria e Comercio SA, the Company produces and sells watches under brand names Technos and Mariner. It also holds a license for manufacturing wristwatches under brand names Mormaii, Seiko and Euro. The Company operates an industrial plant located in Zona Franca de Manaus, in the Brazilian state of Amazonas. Technos SA distributes its products in Brazil through a network of stores and service centers. As of December 31, 2011, the Company’s major shareholder was Fundo de Investimento e Participacoes GMT, which held a 58.38% stake in Technos SA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teka Tecelagem Kuehnrich SA (Teka) is a Brazil-based company active in the textile industry. The Company is engaged in the production, import and export of household textile products. Its product portfolio includes bath and beach towels, sheet sets, bathrobes, curtains and tablecloths, among others. The Company offers its products under the brand name Teka. It operates through three industrial units in Brazil, which are located in the cities of Indaial, Artur Nogueira and Itapira, as well as through subsidiaries in Argentina, Paraguay, Germany and Austria. The Company’s subsidiaries were Tecelagem Kuehnrich, Cerro Azul Participacoes e Administracao Ltda, Teka Paraguay, Teka Europalager and Salerna Holding Gmbh. On October 30, 2013, the Company announces further details on bankruptcy process; its plan for judicial recovery was approved by the Judge of the Second Civil Court of Blumenau. </t>
+    <t>Technos S.A., together with its subsidiaries, engages in the manufacturing and wholesale distribution of wristwatches. The company also provides technical assistance services for watches. It sells watches through retail stores, as well as websites under the Technos, Mormaii, Michael Kors, Touch, Allora, Fossil, Euro, and Condor brands. Technos S.A. was founded in 1956 and is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Teka Tecelagem Kuehnrich S.A. engages in textiles business. It offers beds, tables, and bath articles. The company was founded in 1926 and is headquartered in Blumenau, Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">Telecomunicacoes Brasileiras SA Telebras is a Brazil-based holding company engaged in the telecommunications sector. The Company controlled a number of concessionaires of public telecommunications services until May 22, 1998. After a split up of the Company into 12 parts, it no longer had operating revenue-generating assets. On May 13, 2010, the Company began its organizational restructuring. In the fiscal year 2011, the Company was involved in the implementation of projects related to the support of the operations of Programa Nacional de Banda Larga (National Broadband Program), which aims to popularize the provision of broadband Internet access by the year 2014. As of December 31, 2011, the Company was controlled by Ministry of Communications of the Brazilian Federal Government, which held 89.88% of ordinary shares in the Company and 72.67% of the total capital. </t>
@@ -2885,10 +2817,10 @@
     <t>Tegma Gestao Logistica SA is a Brazil-based company engaged in the transportation sector. The Company is primarily involved in logistic services for the automotive industry. In addition, it provides transportation services for companies active in other areas, including fuel, agribusiness, pulp and paper, chemical, telecommunications and electronics industry. The Company also provides warehousing services. Additionally, the Company provides inspection services for imported vehicles. Through its subsidiary Direct Logistica Integrada SA, the Company offers courier services. As of December 31, 2011, the Company’s subsidiaries were Tegmax Comercio e Servicos Automotivos Ltda, TGI Comercio Atacadista de Pecas Automotivas Ltda, Tegma Cargas Especiais Ltda, Tegma Logistica Integrada SA, PDI Comercio e Industria e Servicos Ltda, Direct Logistica Integrada SA and Niyati Empreendimentos e Participacoes Ltda. On February 1, 2012, the Company completed the aquisition of LTD Transportes Ltda.</t>
   </si>
   <si>
-    <t>AES Brasil Operações S.A. engages in the renewable electricity generation activities in Brazil. It generates electricity through hydroelectric, wind, and solar power plants. The company is based in São Paulo, Brazil. AES Brasil Operações S.A. is a subsidiary of AES Brasil Energia S.A.</t>
-  </si>
-  <si>
-    <t>Tim SA, formerly known as a Intelig Telecomunicacoes Ltda, is a Brazil-based telecommunications company. The Company offers mobile voice and data services, broadband Internet access, value-added services and other telecommunications services and products. The Company offers a complete portfolio for individuals and corporate solutions for small, medium, and large companies. In addition to traditional voice and data services, the Company offers a fixed-line broadband service, TIM Live, WTTx technology through the Ultrafibra service and IoT solutions. The Company also offers a variety of digital content and services in its package portfolio. The Company is controlled by Tim Brasil Servicos e Participacoes SA.</t>
+    <t>AES Brasil Operações S.A. engages in the renewable electricity generation activities in Brazil. It generates electricity through hydroelectric, wind, and solar power plants. The company was incorporated in 1994 is based in Bauru, Brazil. AES Brasil Operações S.A. operates as a subsidiary of AES Brasil Energia S.A.</t>
+  </si>
+  <si>
+    <t>TIM S.A., a telecommunications company, provides mobile voice, data, and broadband services in Brazil. The company offers in mobile, landline, long-distance, and data transmission services. It also offers ultra-broadband, digital content, and tailored packages services. The company serves individuals and corporates, as well as small, medium, and large companies. TIM S.A is founded in 2013 and is based in Rio de Janeiro, Brazil. The company operates as a subsidiary of TIM Brasil Serviços e Participações S.A.</t>
   </si>
   <si>
     <t>Totvs SA is a Brazil-based company engaged in the information technology (IT) sector. The Company focuses on developing integrated management software solutions, collaboration and productivity platforms, as well as on consulting services. The Company mainly provides enterprise resource planning (ERP) applications, which electronically integrate the strategic and operational levels of a user company. It offers ERP software in various areas, such as administration, education, finance, industrial, human resources, customer service and logistics. The Company operates in Brazil, Argentina, Colombia, Mexico, Portugal and the United States, among others. It controls a number of subsidiaries, including Solucoes em Software e Servicos TTS Ltda, Datasul Argentina SA and Neolog Consultoria e Sistemas SA.</t>
@@ -2897,7 +2829,7 @@
     <t>Tec Toy S/A manufactures and sells digital and electronic products in Brazil. It offers video games, high-tech toys, smartphones, cameras, keyboards, backpacks, smartwatches, headsets, sound boxes, gaming consoles and joysticks, mouses, power banks, USB connectors, mega drives, and master systems. The company was founded in 1987 and is based in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>TPI Triunfo Participacoes e Investimentos SA (Triunfo) is a Brazil-based holding company primarily engaged in the operation of highways. The Company divides its business into four main segments: Highway Concessions, Ports Administration, Coastal Shipping and Energy. In the Highway Concessions segment, Triunfo is active in the management, toll collection, maintenance and conservation of roads. In the Port Administration segment, it is active in the port operation and warehousing services. In the Coastal Shipping segment, the Company is mainly involved in the cargo water transportation and navigation services. In the Energy segment, it is engaged in the generation and transmission of electric power. Triunfo owns a number of subsidiaries, including Empresa Concessionaria de Rodovias do Norte SA and Transbrasiliana Concessionaria de Rodovia SA, among others. On August 26, 2014 the Company has acquired Fundo de Investimento em Participacoes Constantinopla.</t>
+    <t>Triunfo Participações e Investimentos S.A., through its subsidiaries, engages in the infrastructure business in Brazil. It provides toll road concessionaires, highway operation, upkeep, and maintenance services. The company also offers monitoring and pavement evaluation services; and airport management services. In addition, it engages in the operation and maintenance of hydroelectric power plants. The company was founded in 1999 and is headquartered in São Paulo, Brazil. Triunfo Participações e Investimentos S.A. is a subsidiary of THP - Triunfo Holding de Participações S.A.</t>
   </si>
   <si>
     <t>Tc SA, formerly known as Tc Traders Club SA, is a Brazil-based company that offers a platform for financial education, data analysis and market intelligence. The Company's main mission is to democratize the financial market, by offering a complete platform for investors, with space for discussions and investment ideas, supported by real-time data, dedicated educational content and appropriate analytical tools, benefiting from the potential of technology, by the structural change of the financial investment market and leveraged by the power of the network effect. The TC mobile application can be downloaded for free from the App Store and Google Play. The Company has several subsidiaries, including Economatica Software de Apoio a Investidores Ltda, and Pandhora Investimentos Ltda.</t>
@@ -2906,7 +2838,7 @@
     <t>Trisul SA is a Brazil-based company involved in the real estate sector. It was founded as a result of a merger between two companies: Incosul Incorporacao e Construcao Ltda and Tricury Construcoes e Participacoes Ltda. Together with its subsidiaries, the Company is principally engaged in the construction, purchase, sale and lease of residential buildings, as well as in the acquisition and subdivision of land. It mainly operates in the Brazilian state of Sao Paulo. The Company develops its operations in such cities as Sao Paulo, Santos, Guarulhos and Ribeirao Preto, among others. Trisul Life and Trisul Lar, the main products developed by the Company, consist of residential units ranging in size from 45 to 65 square meters. As of December 31, 2011, Trisul SA had a number of subsidiaries, including Tricury Construcoes e Participacoes Ltda, Incosul Incorporacao e Construcao Ltda and Ribeirao VIII Empreendimentos Imobiliarios Ltda, among others.</t>
   </si>
   <si>
-    <t>CTEEP-Companhia de Transmissao de Energia Eletrica Paulista is a private public utility concession company engaged in the transmission of energy in Brazil. The Company has investments in reinforcement, new connections and modernization projects. The Company has an installed transformation capacity of approximately 55,700 Mega Volt Ampere (MVA), with over 18,500 kilometers of transmission lines, approximately 25,800 kilometers of circuits, over 2,350 kilometers of optical fiber cables owned by the company and approximately 120 substations with tensions of approximately 550 Kilovolt (Kv). The Company, through its subsidiaries, operates in Brazilian states, including Rio Grande do Sul, Santa Catarina, Parana, Sao Paulo, Minas Gerais, Espirito Santo, Rondonia, Mato Grosso, Mato Grosso do Sul, Goias, Tocantins, Maranhao, Piaui, Paraiba, Pernambuco and Alagoas.</t>
+    <t>CTEEP - Companhia de Transmissão de Energia Elétrica Paulista S.A. engages in the electric power transmission business in Brazil. As of December 31, 2022, it had a total installed transformation capacity of 84,000 MVA together with transmission lines of 21, 0000 kilometers; 30, 0000 kilometers of circuits; and 133 substations. It operates in the states of Alagoas, Bahia, Espírito Santo, Goiás, Maranhão, Mato Grosso, Mato Grosso do Sul, Minas Gerais, Paraíba, Paraná, Pernambuco, Piauí, Rio Grande do Sul, Rondônia, Santa Catarina, São Paulo, and Tocantins. The company was incorporated in 1999 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Tarpon Investimentos S.A. is a publicly owned investment manager. The firm launches and manages equity mutual funds for its clients. It invests in the public equity markets of South America with a focus on Brazil. The firm employs a contrarian approach to make its investments. It was founded in 2002 and is based in Sao Paulo, Brazil.</t>
@@ -2915,7 +2847,7 @@
     <t>Tres Tentos Agroindustrial SA is a Brazil-based agribusiness company that offers a vertical and integrated ecosystem. The Company provides the products and solutions for small and medium-sized rural producers who produce in land areas of up to 500 hectares. The Company operates mainly through three business segments: Agricultural inputs retail (inputs), which sells various types of seeds, fertilizers for crops and pesticides for soybean, corn, wheat, rice, among others. Origination and trading of grains (Grains), which purchases and sells grains from rural producers, with its own fleet of trucks for logistics and distribution. Grain industrialization (industry), which industrializes soybeans for the production of soybean meal, soybean oil and biodiesel, which has two railroads for the flow of its products.</t>
   </si>
   <si>
-    <t>Tupy SA is a Brazil-based company principally engaged in the production and commercialization of parts for the automotive industry. The Company’s activities are divided into two business segments: Automotive and Hydraulics. The Automotive division focuses on manufacturing engines and its components, brake systems, bearings, as well as transmission, steering, axle and suspension components, among others. The Hydraulics division is responsible for producing flexible iron connections for the construction industry, iron and steel grits for the marble and granite processing industry, as well as cast-iron shapes for general use. The Company owns industrial plants and sales offices in a number of countries, such as Brazil, Mexico, the United States and Germany. The Company operates through Tupy Agroenergetica Ltda, Sociedade Tecnica de Fundicoes Gerais SA, Tupy American Foundry Co, Tupy American Iron &amp; Alloys Co and Tupy Europe GmbH, among others.</t>
+    <t>Tupy S.A., together with its subsidiaries, engages in the development, manufacture, and sale of cast iron structural components in North America, South and Central Americas, Europe, Asia, Africa, Oceania, and internationally. The company operates in two segments, Freight Transportation, Infrastructure, Agriculture and Power Generation; and Distribution segments. It offers engine blocks, cylinder heads, and cast and machined products for the manufacturers of engines, passenger vehicles, commercial vehicles, construction machines, tractors, agricultural machines, and power generators. The company also provides malleable iron connections for the construction industry; spare parts; and cast-iron shapes for diversified use. Tupy S.A. was founded in 1938 and is headquartered in Joinville, Brazil.</t>
   </si>
   <si>
     <t>Textil Renauxview SA, formerly Industrias Texteis Renaux SA, is a Brazil-based company engaged in the textile industry. The Company is primarily involved in the production of cotton fabrics and cotton yarns. The Company supplies its products to the domestic and international market. The Company distributes a diverse line of textile products to producers of feminine, infant and male apparel, as well as to household textiles manufactures. As of December 31, 2011, the Company's subsidiary was Renauxview Ltda.</t>
@@ -2924,25 +2856,25 @@
     <t>Unicasa Industria de Moveis SA is a Brazil-based company engaged in the production and trade of furniture. The Company is active in the manufacture, sale, import and export of furniture made of wood, iron, steel and aluminum. It is primarily involved in the production of furniture made of medium density fiberboard (MDF) and medium density particleboard (MDP). Additionally, the Company sells accessories and decoration items. Its product portfolio include a range of furnishing solutions, including kitchens, bedrooms, closets, home theaters, laundries and toilets, as well as furniture equipment for offices and children rooms. The Company has a network of stores in Brazil and abroad, which sell its products under brand names Dell Anno, Favorita, New and Telasul Madeira. It operates an industrial park located in the city of Bento Goncalves, in the Brazilian state of Rio Grande do Sul.</t>
   </si>
   <si>
-    <t>Ultrapar Participações S.A. engages in the gas distribution, fuel distribution, and storage businesses primarily in Brazil, Europe, Singapore, the United States, Canada, other Latin American countries, and internationally. The company’s Gas Distribution segment distributes liquefied petroleum gas to residential, commercial, and industrial consumers primarily in the South, Southeast, and Northeast regions of Brazil. Its Fuel Distribution segment distributes and markets gasoline, ethanol, diesel, fuel oil, kerosene, natural gas for vehicles, and lubricants in the Brazilian territory; operates convenience stores; and offers lubricant-changing and automotive specialized services. The company’s Storage segment operates liquid bulk terminals primarily in the Southeast and Northeast regions of Brazil. It also operates Abastece Aí, a digital payments app; and offers Km de Vantagens, a loyalty program. The company was founded in 1937 and is headquartered in São Paulo, Brazil.</t>
-  </si>
-  <si>
-    <t>Unipar Carbocloro SA is a Brazil-based holding company primarily engaged in the chemical industry. Through its investment in the entity Carbocloro SA Industrias Quimicas, the Company is involved in the production of liquid chlorine, hydrochloric acid, ethylene dichloride, sodium hypochlorite, caustic soda liquid and in flakes. Additionally, the Company is engaged in the manufacture of wind turbine blades and turnkey ventilation systems, through its affiliated company Tecsis Tecnologia e Sistemas Avancados SA. It operates through Solvay Indupa.</t>
+    <t>Ultrapar Participações S.A. operates in the energy and infrastructure business in in Brazil, Europe, Singapore, the United States, Canada, other Latin American countries, and internationally. The company distributes liquefied petroleum gas to residential, commercial, and industrial consumers; and renewable electricity and compressed natural gas. It also distributes and markets gasoline, ethanol, diesel, fuel oil, kerosene, natural gas for vehicles, and lubricants; holds AmPm convenience stores; and provides lubricant-changing and automotive specialized services. In addition, the company operates liquid bulk storage terminals. Further, it offers digital payments services, combining the abastece aí app and the loyalty program Km de Vantagens. The company was founded in 1937 and is headquartered in São Paulo, Brazil.</t>
+  </si>
+  <si>
+    <t>Unipar Carbocloro S.A. produces and sells chlorine and caustic soda in Brazil. The company offers liquid and anhydrous caustic soda, sodium hypochlorite, hydrochloric acid, dichloroethane, and polyvinyl chloride. Its products are used in textile, pulp and paper, food, beverage, medicine, and construction sectors. Unipar Carbocloro S.A. was founded in 1969 and is based in São Paulo, Brazil. Unipar Carbocloro S.A. operates as a subsidiary of Vila Velha S.A. Administração e Participações.</t>
   </si>
   <si>
     <t>Usinas Siderurgicas de Minas Gerais SA USIMINAS and its subsidiaries, jointly-controlled companies and affiliates are engaged in steelworks and other related activities. The Company's activities include iron ore extraction, steel transformation, production of capital goods and logistics. It operates through four segments: Steelworks, Mining and Logistics, Steel Transformation and Capital Goods. It manufactures and sells various products and raw materials, such as flat steel, iron ore, stamped steel parts for the automotive industry and products for the civil construction and capital goods industry. It provides technology transfer services in the steel activity, in project management and provision of services in the civil construction area and capital goods industry, road transport of flat steel, hot-dip steel galvanizing, texturing and cylinders chromium. It has over two steel plants in Brazil located in the cities of Ipatinga, State of Minas Gerais, and of Cubatao, State of Sao Paulo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vale SA, formerly Companhia Vale do Rio Doce, is a Brazil-based metal and mining company which is primarily engaged in producing iron ore and nickel. The Company also produces iron ore pellets, copper, platinum group metals (PGMs), gold, silver and cobalt. Vale is engaged in greenfield mineral exploration in five countries and operates logistics systems in Brazil and other regions in the world, including railroads, maritime terminals and ports, which are integrated with mining operations. In addition, Vale has distribution centers to support the delivery of iron ore worldwide. Vale has numerous subsidiaries, including Vale Logistica Uruguay SA, Vale Holdings BV, Vale Overseas Ltd. The Company’s operations abroad cover approximately 30 countries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vamos Locacao de Caminhoes Maquinas e Equipamentos SA is a Brazil-based company, which also through its subsidiaries sells and leases trucks, machinery and equipment. The Company operates through two segments: Leasing of trucks, machinery and equipment; and Trucks, machinery and equipment dealers. The Leasing of trucks, machinery and equipment segment comprises the outsourcing of fleet through the leasing of trucks, machinery and equipment and fleet management. The Trucks, machinery and equipment dealers segment comprises the marketing of trucks, machinery and equipment, as well as parts, machinery and accessories, mechanic, hopper and painting services. The Company operates in several sectors of the economy, mainly agribusiness, energy, logistics and with a diversified portfolio of customers and leased assets. It is active locally. </t>
+    <t>Vale S.A., together with its subsidiaries, produces and sells iron ore and iron ore pellets for use as raw materials in steelmaking in Brazil and internationally. The company operates through Iron Solutions and Energy Transition Materials segments. The Iron Solutions segment produces and extracts iron ore and pellets, manganese, and other ferrous products; and provides related logistic services. The Energy Transition Materials segment produces and extracts nickel used to produce stainless steel, electric vehicles, and metal alloys; and its by-products, such as gold, silver, cobalt, precious metals, platinum, and others, as well as copper used in the construction sector to produce pipes and electrical wires. The company was formerly known as Companhia Vale do Rio Doce and changed its name to Vale S.A. in May 2009. Vale S.A. was founded in 1942 and is headquartered in Rio de Janeiro, Brazil.</t>
+  </si>
+  <si>
+    <t>Vamos Locação de Caminhões, Máquinas e Equipamentos S.A. engages in the leasing, reselling, and selling of trucks, machinery, and equipment in Brazil. The company leases tractors, agricultural machinery and implements, buses, and other vehicles; sells automobile parts and accessories; sells new and used tractors, machines, implements, motor vehicles, buses, and micro buses; and provides automobile maintenance and repair, and technical assistance and related services, as well as engages in the road transportation of cargos. It also offers parts and accessories, lubricants, and fleet management and rendering services, as well as act as a motor vehicle agency. The company is headquartered in Sao Paulo, Brazil. Vamos Locação de Caminhões, Máquinas e Equipamentos S.A. is a subsidiary of SIMPAR S.A.</t>
   </si>
   <si>
     <t>Vibra Energia SA, formerly known as Petrobras Distribuidora SA, is a Brazil-based company, engaged in the domestic distribution of oil products. The Company's activities are divided into five segments: Gasoline Stations Network, engaged in operating a network of branded service stations (Company-owned or franchised) that market petroleum-derived fuels, lubricants, natural gas for vehicles, biofuel and convenience products; Business-to-Business (B2B), which provides fuels, lubricants, and associated products and services to governments, transportation companies, thermal power plants, retail dealers and other industrial and commercial customers; Aviation Market, which supplies aviation products and services to Brazilian airport facilities; Energy, focused on the trade and distributed generation of energy; and Corporate, covering corporate financial management.</t>
   </si>
   <si>
-    <t>Via SA, formerly Via Varejo SA is a Brazil-based company engaged in multichannel retail of consumer electronics and furniture. The Company operates in the consumer electronics, home appliance, mobile phone and furniture retail segments through Casas Bahia and Ponto Frio banners, as well as through the e-commerce platforms: pontofrio.com, casasbahia.com and extra.com.br. The Company has over 1000 stores and is present in more than 20 Brazilian states. In addition, it owns Bartira, a furniture manufacturer, that makes furniture for bedrooms, kitchens and living rooms, among other things, which are sold exclusively at Casas Bahia and Pontofrio stores. The Company provides also financial services, such as consumer finance, through credits and co-branded credit cards.</t>
+    <t>Via S.A., together with its subsidiaries, engages in the retail of electronics, home appliances, and furniture in Brazil. It also offers financial services and solutions, such as buy now pay later, and credit card services; and logistics solutions and services comprising fulfillment and full commerce services. In addition, the company provides real estate properties administration, rent, lease, and intermediation services. It serves consumers through brick and-mortar stores and e-commerce platforms under the Casas Bahia, Ponto, Bartira, Extra.com, banQi, Rede Celer, ASAPLog, and CNT brands; and distribution centers and warehouses. The company was formerly known as Globex Utilidades SA and changed its name to Via S.A. in February 2012. Via S.A. was founded in 1946 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
     <t>Vittia S.A. produces and sells compost and fertilizers, biological pesticides, and other chemical products in Brazil. The company offers inoculants, biological defensives, adjuvants, foliar fertilizers, organomineral fertilizers, acaricides, soil conditioners, granulated micronutrients, and salts for agriculture. It also provides vegetable nutrition products, including chloride, como, soil fertilizer, phosphite, macro, macro premium, nitrate, soluble powder, agriculture salts, sulphates, and concentrated suspension. The company was formerly known as Vittia Fertilizantes e Biológicos S.A. Vittia S.A. was founded in 1971 and is headquartered in Sao Joaquim da Barra, Brazil.</t>
@@ -2954,9 +2886,6 @@
     <t>Viver Incorporadora e Construtora S.A. operates as a real estate development company in Brazil. It primarily focuses on middle and mid-high segments of the residential market. The company develops club condominiums, residential buildings, residential villages, and low-income housing projects, as well as develops projects in the commercial, tourism, and land division segments. It is involved in the construction and sale of units; and management of real estate projects. The company was formerly known as Inpar S.A. and changed its name to Viver Incorporadora e Construtora S.A. in April 2011. The company was founded in 1992 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
-    <t>Telefonica Brasil S.A. is a mobile telecommunications company in Brazil offering postpaid mobile services. The Company also operates as a fixed telecommunications company in the state of Sao Paulo. The Company markets its mobile services under its Vivo brand. It offers its clients a portfolio of products, including mobile and fixed voice, mobile data, fixed broadband, ultra-fast broadband, Pay television, information technology and digital services. Its operations consist of local and long distance fixed telephone services; mobile services, including value-added services; data services, including broadband services and mobile data services; Pay television services through direct to home (DTH), Internet protocol television (IPTV) and cable; network services, such as rental of facilities, as well as other services; wholesale services, including interconnection; digital services; services designed specifically for corporate customers, and the sale of wireless devices and accessories.</t>
-  </si>
-  <si>
     <t>Telefônica Brasil S.A., together with its subsidiaries, operates as a mobile telecommunications company in Brazil. Its fixed line services portfolio includes local, domestic long-distance, and international long-distance calls; and mobile portfolio comprises voice and broadband internet access through 3G, 4G, 4.5G, and 5G, as well as mobile value-added and wireless roaming services. The company also offers data services, including broadband and mobile data services. In addition, it provides pay TV services through IPTV technologies; network services, such as rental of facilities; other services comprising internet access, private network connectivity, computer equipment leasing, extended service, caller identification, voice mail, cellular blocker, and others; wholesale services, including interconnection services to users of other network providers; and digital services, such as entertainment, cloud, and security and financial services. Further, the company offers multimedia communication services, which include audio, data, voice and other sounds, images, texts, and other information, as well as sells devices, such as smartphones, broadband USB modems, and other devices. Additionally, it provides telecommunications solutions and IT support to various industries, such as retail, manufacturing, services, financial institutions, government, etc. It markets and sells its solutions through own stores, dealers, retail and distribution channels, door-to-door sales, and outbound tele sales. The company was formerly known as Telecomunicações de São Paulo S.A. - TELESP and changed its name to Telefônica Brasil S.A. in October 2011. The company was incorporated in 1998 and is headquartered in São Paulo, Brazil.</t>
   </si>
   <si>
@@ -2978,13 +2907,13 @@
     <t>Westwing Comercio Varejista SA (Westwing) is a Brazil-based home furnishings retailer. The Company mainly sells furniture, decorative items and accessories. The product portfolio includes sofas, beds, chairs, desks, shelves, pillows, carpets, wallpaper, kitchen utensils, as well as clothes, cosmetics and children's products, among others. The assortment consists of both third party and private label products. The Firm operates through an e-commerce platform, which consist of mobile applications and a website. The platform allows Westwing to reach customers in all regions of Brazil, with distribution center in the city of Jundiai. In addition, the Company has physical stores located in the city of Sao Paulo.</t>
   </si>
   <si>
-    <t>Whirlpool SA, formerly Multibras SA Eletrodomesticos, is a Brazil-based company engaged in the production, marketing, import and export of electronics and home appliances. The Company manufactures refrigerators, freezers, air conditioners, ice machines, stoves, dishwashers, garbage disposers, trash compactors, vacuum cleaners, washing machines, clothes dryers and microwaves, among others. It also produces electric motors and hermetic compressors for refrigeration. In addition, the Company offers installation, technical assistance and maintenance services for its products. It operates four plants and two distribution centers in Brazil, as well as two plants in China and one distribution center in Argentina. The Company's subsidiaries include Whirlpool Eletrodomesticos AM SA, Consorcio Nacional Brastemp Ltda, BUD Comercio de Eletrodomesticos Ltda and Mlog Armazem Geral Ltda, among others.</t>
-  </si>
-  <si>
-    <t>WLM Participacoes e Comercio de Maquinas e Veiculos SA, formerly WLM Industria e Comercio SA (WLM), is a Brazil-based company primarily involved in the sale of vehicles. Through a network of vehicle dealerships of the brand Scania, the Company is engaged in the sale of heavy and extra heavy trucks, chassis of coaches and city buses, and spare parts, as well as the provision of maintenance services for these products. In addition, the Company is involved in the agricultural sector. It is active in the beef cattle farming, milking dairy cattle and coffee growing. The Company has a number of subsidiaries, including Equipo Maquinas e Veiculos Ltda, Itaipu Maquinas e Veiculos Ltda, Quinta Roda Maquinas e Veiculos Ltda, Itaipu Norte Comercio de Maquinas e Veiculos Ltda, Fartura Agropecusria SA, Itapura Agropecuaria Ltda and Agropecuaria Sao Sebastiao do Araguaia Ltda.</t>
-  </si>
-  <si>
-    <t>YDUQS Participacoes SA is a Brazil-based company engaged in the provision of educational services. The Company focuses on developing post-secondary education institutions. Its services range comprises on-campus and distance learning with graduate and Master of Business Administration (MBA) programs, vocational courses, exam preparation, short-duration courses, as well as business trainings for professionals, among others. The Company’s courses offer development in the legal, management, humanities, health and technology areas. Its educational network comprises universities, campuses, distance learning centers and colleges. The Company operates in Brazil through brands: Estacio, UniToledo, Adtalem (IBMEC, Wyden, Damasio Educacional, SJT Med and Clio).</t>
+    <t>Whirlpool S.A. manufactures and sells home appliances in Brazil. The company offers refrigerators, freezers, fridge-freezers, air conditioners, ice makers, stoves, washing machines of dishes, garbage disposals, garbage compactors, vacuum cleaners, washers, clothes dryers, and microwave ovens. It provides its products under the Brastemp, Consul, KitchenAind, across, Compra Certa, B.blend, Jenn-Air, KitchenAid, Eslabón de Lujo, Whirlpool, and Maytag brands. The company was founded in 1957 and is based in São Paulo, Brazil. Whirlpool S.A. operates as a subsidiary of Whirlpool Corporation.</t>
+  </si>
+  <si>
+    <t>WLM Participações e Comércio de Máquinas e Veículos S.A. engages in the marketing and sale of heavy trucks, road and city bus chassis, and spare parts under the Scania brand in Brazil. The company also provides maintenance services and specialized technical assistance. In addition, it engages in the production, breeding, and sale of beef cattle; and cultivation and sale of grains. The company was formerly known as WLM Indústria e Comércio S.A. and changed its name to WLM Participações e Comércio de Máquinas e Veículos S.A. in December 2017. The company was incorporated in 1946 and is headquartered in Rio De Janeiro, Brazil. WLM Participações e Comércio de Máquinas e Veículos S.A. operates as a subsidiary of Sajuthá-Rio Participações S.A.</t>
+  </si>
+  <si>
+    <t>Yduqs Participações S.A. operates as a higher education company. The company offers face-to-face and distance learning undergraduate, graduate, and continuing education programs; and masters and doctorate courses. It also provides digital education services. The company was formerly known as Estácio Participações S.A. Yduqs Participações S.A. was founded in 1970 and is headquartered in Rio de Janeiro, Brazil.</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3449,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3457,7 +3386,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3465,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3473,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3481,7 +3410,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3489,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3497,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3505,7 +3434,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3513,7 +3442,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3521,7 +3450,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3529,7 +3458,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3537,7 +3466,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3545,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3553,7 +3482,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3561,7 +3490,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3569,7 +3498,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3577,7 +3506,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3585,7 +3514,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3593,7 +3522,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3601,7 +3530,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3609,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3617,7 +3546,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3625,7 +3554,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3633,7 +3562,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3641,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3649,7 +3578,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3657,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3665,7 +3594,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3673,7 +3602,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3681,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3689,7 +3618,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3697,7 +3626,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3705,7 +3634,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3713,7 +3642,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3721,7 +3650,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3729,7 +3658,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3737,7 +3666,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3745,7 +3674,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3753,7 +3682,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3761,7 +3690,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3769,7 +3698,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3777,7 +3706,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3785,7 +3714,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3793,7 +3722,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3801,7 +3730,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3809,7 +3738,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3817,7 +3746,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3825,7 +3754,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3833,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3841,7 +3770,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3849,7 +3778,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3857,7 +3786,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3865,7 +3794,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3873,7 +3802,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3881,7 +3810,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3889,7 +3818,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3897,7 +3826,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3905,7 +3834,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3913,7 +3842,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3921,7 +3850,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3929,7 +3858,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3937,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3945,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3953,7 +3882,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3961,7 +3890,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3969,7 +3898,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3977,7 +3906,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3985,7 +3914,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3993,7 +3922,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4001,7 +3930,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4009,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4017,7 +3946,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4025,7 +3954,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4033,7 +3962,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4041,7 +3970,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4049,7 +3978,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4057,7 +3986,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4065,7 +3994,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4073,7 +4002,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4081,7 +4010,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4089,7 +4018,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4097,7 +4026,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4105,7 +4034,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4113,7 +4042,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4121,7 +4050,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4129,7 +4058,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4137,7 +4066,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4145,7 +4074,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4153,7 +4082,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4161,7 +4090,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4169,7 +4098,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4177,7 +4106,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4185,7 +4114,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4193,7 +4122,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4201,7 +4130,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4209,7 +4138,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4217,7 +4146,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4225,7 +4154,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4233,7 +4162,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4241,7 +4170,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4249,7 +4178,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4257,7 +4186,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4265,7 +4194,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4273,7 +4202,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4281,7 +4210,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4289,7 +4218,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4297,7 +4226,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4305,7 +4234,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4313,7 +4242,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4321,7 +4250,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4329,7 +4258,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4337,7 +4266,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4345,7 +4274,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4353,7 +4282,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4361,7 +4290,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4369,7 +4298,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4377,7 +4306,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4385,7 +4314,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4393,7 +4322,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4401,7 +4330,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4409,7 +4338,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4417,7 +4346,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4425,7 +4354,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4433,7 +4362,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4441,7 +4370,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4449,7 +4378,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4457,7 +4386,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4465,7 +4394,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4473,7 +4402,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4481,7 +4410,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4489,7 +4418,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4497,7 +4426,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4505,7 +4434,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4513,7 +4442,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>700</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4521,7 +4450,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4529,7 +4458,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4537,7 +4466,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>701</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4545,7 +4474,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4553,7 +4482,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4561,7 +4490,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4569,7 +4498,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4577,7 +4506,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4585,7 +4514,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4593,7 +4522,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4601,7 +4530,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4609,7 +4538,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4617,7 +4546,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4625,7 +4554,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4633,7 +4562,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4641,7 +4570,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4649,7 +4578,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4657,7 +4586,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4665,7 +4594,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4673,7 +4602,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4681,7 +4610,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4689,7 +4618,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4697,7 +4626,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4705,7 +4634,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4713,7 +4642,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4721,7 +4650,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4729,7 +4658,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4737,7 +4666,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4745,7 +4674,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4753,7 +4682,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4761,7 +4690,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4769,7 +4698,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4777,7 +4706,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4785,7 +4714,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4793,7 +4722,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>716</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4801,7 +4730,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4809,7 +4738,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4817,7 +4746,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>717</v>
+        <v>622</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4825,7 +4754,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4833,7 +4762,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4841,7 +4770,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4849,7 +4778,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4857,7 +4786,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4865,7 +4794,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4873,7 +4802,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4881,7 +4810,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4889,7 +4818,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4897,7 +4826,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4905,7 +4834,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4913,7 +4842,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>632</v>
+        <v>719</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4921,7 +4850,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4929,7 +4858,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4937,7 +4866,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4945,7 +4874,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4953,7 +4882,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>724</v>
+        <v>622</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4961,7 +4890,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4969,7 +4898,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4977,7 +4906,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4985,7 +4914,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4993,7 +4922,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5001,7 +4930,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5009,7 +4938,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>730</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5017,7 +4946,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5025,7 +4954,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5033,7 +4962,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5041,7 +4970,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5049,7 +4978,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5057,7 +4986,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>734</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5065,7 +4994,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>632</v>
+        <v>732</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5073,7 +5002,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5081,7 +5010,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5089,7 +5018,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>737</v>
+        <v>622</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5097,7 +5026,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>632</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5105,7 +5034,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5113,7 +5042,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>739</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5121,7 +5050,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>739</v>
+        <v>622</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5129,7 +5058,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>740</v>
+        <v>622</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5137,7 +5066,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>741</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5145,7 +5074,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5153,7 +5082,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>742</v>
+        <v>622</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5161,7 +5090,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>742</v>
+        <v>622</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5169,7 +5098,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>743</v>
+        <v>622</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5177,7 +5106,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5185,7 +5114,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>744</v>
+        <v>622</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5193,7 +5122,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>745</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5201,7 +5130,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>745</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5209,7 +5138,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>746</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5217,7 +5146,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5225,7 +5154,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>746</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5233,7 +5162,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>747</v>
+        <v>622</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5241,7 +5170,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>748</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5249,7 +5178,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5257,7 +5186,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>749</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5265,7 +5194,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>750</v>
+        <v>622</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5273,7 +5202,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>751</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5281,7 +5210,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>752</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5289,7 +5218,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>753</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5297,7 +5226,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5305,7 +5234,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5313,7 +5242,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5321,7 +5250,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5329,7 +5258,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>756</v>
+        <v>622</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5337,7 +5266,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>632</v>
+        <v>738</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5345,7 +5274,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5353,7 +5282,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>757</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5361,7 +5290,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5369,7 +5298,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5377,7 +5306,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5385,7 +5314,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5393,7 +5322,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>632</v>
+        <v>739</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5401,7 +5330,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5409,7 +5338,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>759</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5417,7 +5346,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>632</v>
+        <v>741</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5425,7 +5354,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5433,7 +5362,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>761</v>
+        <v>622</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5441,7 +5370,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>632</v>
+        <v>743</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5449,7 +5378,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5457,7 +5386,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5465,7 +5394,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>764</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5473,7 +5402,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5481,7 +5410,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>632</v>
+        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5489,7 +5418,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5497,7 +5426,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5505,7 +5434,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>766</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5513,7 +5442,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5521,7 +5450,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5529,7 +5458,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5537,7 +5466,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5545,7 +5474,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5553,7 +5482,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5561,7 +5490,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5569,7 +5498,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5577,7 +5506,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5585,7 +5514,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5593,7 +5522,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5601,7 +5530,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5609,7 +5538,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5617,7 +5546,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5625,7 +5554,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5633,7 +5562,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5641,7 +5570,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5649,7 +5578,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5657,7 +5586,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5665,7 +5594,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5673,7 +5602,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5681,7 +5610,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5689,7 +5618,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5697,7 +5626,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5705,7 +5634,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5713,7 +5642,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5721,7 +5650,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5729,7 +5658,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5737,7 +5666,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5745,7 +5674,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5753,7 +5682,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5761,7 +5690,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5769,7 +5698,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5777,7 +5706,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5785,7 +5714,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5793,7 +5722,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5801,7 +5730,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5809,7 +5738,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5817,7 +5746,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5825,7 +5754,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5833,7 +5762,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5841,7 +5770,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5849,7 +5778,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5857,7 +5786,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5865,7 +5794,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5873,7 +5802,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5881,7 +5810,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5889,7 +5818,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5897,7 +5826,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5905,7 +5834,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5913,7 +5842,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5921,7 +5850,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5929,7 +5858,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5937,7 +5866,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5945,7 +5874,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5953,7 +5882,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5961,7 +5890,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5969,7 +5898,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5977,7 +5906,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5985,7 +5914,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5993,7 +5922,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6001,7 +5930,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6009,7 +5938,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -6017,7 +5946,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6025,7 +5954,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -6033,7 +5962,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6041,7 +5970,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6049,7 +5978,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6057,7 +5986,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6065,7 +5994,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6073,7 +6002,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6081,7 +6010,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6089,7 +6018,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6097,7 +6026,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6105,7 +6034,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6113,7 +6042,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6121,7 +6050,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6129,7 +6058,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6137,7 +6066,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6145,7 +6074,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6153,7 +6082,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6161,7 +6090,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6169,7 +6098,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6177,7 +6106,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6185,7 +6114,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6193,7 +6122,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6201,7 +6130,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6209,7 +6138,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6217,7 +6146,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6225,7 +6154,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6233,7 +6162,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6241,7 +6170,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6249,7 +6178,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6257,7 +6186,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6265,7 +6194,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6273,7 +6202,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6281,7 +6210,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6289,7 +6218,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -6297,7 +6226,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6305,7 +6234,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -6313,7 +6242,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6321,7 +6250,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6329,7 +6258,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6337,7 +6266,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -6345,7 +6274,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6353,7 +6282,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6361,7 +6290,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -6369,7 +6298,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6377,7 +6306,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6385,7 +6314,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6393,7 +6322,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6401,7 +6330,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6409,7 +6338,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6417,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6425,7 +6354,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6433,7 +6362,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6441,7 +6370,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6449,7 +6378,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6457,7 +6386,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6465,7 +6394,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6473,7 +6402,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6481,7 +6410,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6489,7 +6418,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6497,7 +6426,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6505,7 +6434,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6513,7 +6442,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6521,7 +6450,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6529,7 +6458,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6537,7 +6466,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6545,7 +6474,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6553,7 +6482,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6561,7 +6490,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6569,7 +6498,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6577,7 +6506,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6585,7 +6514,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6593,7 +6522,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6601,7 +6530,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6609,7 +6538,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6617,7 +6546,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6625,7 +6554,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6633,7 +6562,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6641,7 +6570,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6649,7 +6578,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6657,7 +6586,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6665,7 +6594,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6673,7 +6602,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6681,7 +6610,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6689,7 +6618,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6697,7 +6626,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6705,7 +6634,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6713,7 +6642,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6721,7 +6650,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6729,7 +6658,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6737,7 +6666,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6745,7 +6674,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6753,7 +6682,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6761,7 +6690,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6769,7 +6698,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6777,7 +6706,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6785,7 +6714,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6793,7 +6722,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6801,7 +6730,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6809,7 +6738,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6817,7 +6746,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6825,7 +6754,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6833,7 +6762,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6841,7 +6770,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6849,7 +6778,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6857,7 +6786,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6865,7 +6794,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6873,7 +6802,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6881,7 +6810,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6889,7 +6818,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6897,7 +6826,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6905,7 +6834,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6913,7 +6842,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6921,7 +6850,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6929,7 +6858,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6937,7 +6866,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6945,7 +6874,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6953,7 +6882,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6961,7 +6890,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6969,7 +6898,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6977,7 +6906,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6985,7 +6914,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6993,7 +6922,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -7001,7 +6930,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -7009,7 +6938,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7017,7 +6946,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -7025,7 +6954,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7033,7 +6962,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7041,7 +6970,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -7049,7 +6978,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7057,7 +6986,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -7065,7 +6994,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -7073,7 +7002,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -7081,7 +7010,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7089,7 +7018,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -7097,7 +7026,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7105,7 +7034,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7113,7 +7042,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7121,7 +7050,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7129,7 +7058,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7137,7 +7066,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7145,7 +7074,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7153,7 +7082,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7161,7 +7090,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7169,7 +7098,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7177,7 +7106,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7185,7 +7114,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7193,7 +7122,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7201,7 +7130,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7209,7 +7138,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7217,7 +7146,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7225,7 +7154,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7233,7 +7162,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7241,7 +7170,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7249,7 +7178,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7257,7 +7186,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7265,7 +7194,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7273,7 +7202,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7281,7 +7210,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7289,7 +7218,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7297,7 +7226,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7305,7 +7234,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7313,7 +7242,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7321,7 +7250,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7329,7 +7258,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7337,7 +7266,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7345,7 +7274,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7353,7 +7282,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7361,7 +7290,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7369,7 +7298,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7377,7 +7306,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7385,7 +7314,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7393,7 +7322,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7401,7 +7330,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7409,7 +7338,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7417,7 +7346,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7425,7 +7354,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7433,7 +7362,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7441,7 +7370,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7449,7 +7378,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7457,7 +7386,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7465,7 +7394,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7473,7 +7402,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7481,7 +7410,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7489,7 +7418,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7497,7 +7426,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7505,7 +7434,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7513,7 +7442,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7521,7 +7450,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7529,7 +7458,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7537,7 +7466,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7545,7 +7474,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7553,7 +7482,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7561,7 +7490,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7569,7 +7498,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7577,7 +7506,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7585,7 +7514,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7593,7 +7522,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7601,7 +7530,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7609,7 +7538,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7617,7 +7546,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7625,7 +7554,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7633,7 +7562,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7641,7 +7570,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7649,7 +7578,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7657,7 +7586,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7665,7 +7594,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7673,7 +7602,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7681,7 +7610,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7689,7 +7618,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7697,7 +7626,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7705,7 +7634,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7713,7 +7642,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7721,7 +7650,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7729,7 +7658,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7737,7 +7666,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7745,7 +7674,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7753,7 +7682,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7761,7 +7690,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7769,7 +7698,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7777,7 +7706,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7785,7 +7714,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7793,7 +7722,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7801,7 +7730,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7809,7 +7738,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7817,7 +7746,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7825,7 +7754,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7833,7 +7762,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7841,7 +7770,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7849,7 +7778,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7857,7 +7786,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7865,7 +7794,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7873,7 +7802,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7881,7 +7810,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7889,7 +7818,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7905,7 +7834,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7913,7 +7842,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7921,7 +7850,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7929,7 +7858,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7937,7 +7866,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7945,7 +7874,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7953,7 +7882,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7961,7 +7890,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7969,7 +7898,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7977,7 +7906,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7985,7 +7914,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7993,7 +7922,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8001,7 +7930,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8009,7 +7938,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8017,7 +7946,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8025,7 +7954,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -8033,7 +7962,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8041,7 +7970,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -8049,7 +7978,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8057,7 +7986,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8065,7 +7994,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8073,7 +8002,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8081,7 +8010,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8089,7 +8018,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -8097,7 +8026,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8105,7 +8034,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8113,7 +8042,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -8121,7 +8050,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -8129,7 +8058,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -8137,7 +8066,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8145,7 +8074,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8153,7 +8082,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8161,7 +8090,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8169,7 +8098,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8177,7 +8106,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -8185,7 +8114,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8193,7 +8122,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8201,7 +8130,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8209,7 +8138,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8217,7 +8146,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8225,7 +8154,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8233,7 +8162,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8241,7 +8170,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8249,7 +8178,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8257,7 +8186,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8265,7 +8194,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8273,7 +8202,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8281,7 +8210,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8289,7 +8218,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8297,7 +8226,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8305,7 +8234,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8313,7 +8242,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
